--- a/AAII_Financials/Quarterly/YQ_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/YQ_QTR_FIN.xlsx
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,143 +665,155 @@
     <col min="1" max="1" width="4.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>46900</v>
+        <v>75900</v>
       </c>
       <c r="E8" s="3">
-        <v>41500</v>
+        <v>47900</v>
       </c>
       <c r="F8" s="3">
-        <v>35000</v>
+        <v>42300</v>
       </c>
       <c r="G8" s="3">
-        <v>29400</v>
+        <v>35700</v>
       </c>
       <c r="H8" s="3">
-        <v>16100</v>
+        <v>30000</v>
       </c>
       <c r="I8" s="3">
-        <v>8400</v>
+        <v>16500</v>
       </c>
       <c r="J8" s="3">
+        <v>8600</v>
+      </c>
+      <c r="K8" s="3">
         <v>8200</v>
       </c>
-      <c r="K8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>21700</v>
+        <v>27100</v>
       </c>
       <c r="E9" s="3">
-        <v>15000</v>
+        <v>22100</v>
       </c>
       <c r="F9" s="3">
-        <v>12600</v>
+        <v>15300</v>
       </c>
       <c r="G9" s="3">
-        <v>10900</v>
+        <v>12800</v>
       </c>
       <c r="H9" s="3">
-        <v>8500</v>
+        <v>11100</v>
       </c>
       <c r="I9" s="3">
-        <v>4400</v>
+        <v>8600</v>
       </c>
       <c r="J9" s="3">
+        <v>4500</v>
+      </c>
+      <c r="K9" s="3">
         <v>2800</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>25200</v>
+        <v>48900</v>
       </c>
       <c r="E10" s="3">
-        <v>26500</v>
+        <v>25800</v>
       </c>
       <c r="F10" s="3">
-        <v>22400</v>
+        <v>27100</v>
       </c>
       <c r="G10" s="3">
-        <v>18500</v>
+        <v>22900</v>
       </c>
       <c r="H10" s="3">
-        <v>7700</v>
+        <v>18900</v>
       </c>
       <c r="I10" s="3">
-        <v>4000</v>
+        <v>7800</v>
       </c>
       <c r="J10" s="3">
+        <v>4100</v>
+      </c>
+      <c r="K10" s="3">
         <v>5400</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -813,37 +825,41 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>23500</v>
+        <v>30000</v>
       </c>
       <c r="E12" s="3">
-        <v>20800</v>
+        <v>24000</v>
       </c>
       <c r="F12" s="3">
-        <v>20300</v>
+        <v>21300</v>
       </c>
       <c r="G12" s="3">
-        <v>19600</v>
+        <v>20700</v>
       </c>
       <c r="H12" s="3">
-        <v>18900</v>
+        <v>20100</v>
       </c>
       <c r="I12" s="3">
-        <v>18400</v>
+        <v>19300</v>
       </c>
       <c r="J12" s="3">
+        <v>18800</v>
+      </c>
+      <c r="K12" s="3">
         <v>18100</v>
       </c>
-      <c r="K12" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -871,8 +887,11 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -900,8 +919,11 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -929,8 +951,11 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -939,28 +964,29 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>134400</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>3</v>
+        <v>132600</v>
+      </c>
+      <c r="E17" s="3">
+        <v>137300</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G17" s="3">
-        <v>57100</v>
+      <c r="G17" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H17" s="3">
-        <v>65400</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>3</v>
+        <v>58300</v>
+      </c>
+      <c r="I17" s="3">
+        <v>66800</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>3</v>
@@ -968,28 +994,31 @@
       <c r="K17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-87500</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>3</v>
+        <v>-56700</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-89400</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G18" s="3">
-        <v>-27700</v>
+      <c r="G18" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H18" s="3">
-        <v>-49200</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>3</v>
+        <v>-28300</v>
+      </c>
+      <c r="I18" s="3">
+        <v>-50300</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>3</v>
@@ -997,8 +1026,11 @@
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1010,45 +1042,49 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E20" s="3">
         <v>-1200</v>
       </c>
-      <c r="E20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G20" s="3">
+      <c r="G20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H20" s="3">
         <v>600</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>2200</v>
       </c>
-      <c r="I20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J20" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-87000</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>3</v>
+        <v>-55100</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-88900</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>3</v>
@@ -1056,11 +1092,11 @@
       <c r="G21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H21" s="3">
-        <v>-44500</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>3</v>
+      <c r="H21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I21" s="3">
+        <v>-45400</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>3</v>
@@ -1068,8 +1104,11 @@
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1077,57 +1116,63 @@
         <v>0</v>
       </c>
       <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3">
         <v>300</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>200</v>
       </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
       <c r="H22" s="3">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3">
         <v>100</v>
       </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
       <c r="J22" s="3">
         <v>0</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K22" s="3">
+        <v>0</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-88700</v>
+        <v>-57000</v>
       </c>
       <c r="E23" s="3">
-        <v>-25900</v>
+        <v>-90600</v>
       </c>
       <c r="F23" s="3">
-        <v>-34300</v>
+        <v>-26500</v>
       </c>
       <c r="G23" s="3">
-        <v>-27200</v>
+        <v>-35000</v>
       </c>
       <c r="H23" s="3">
-        <v>-47100</v>
+        <v>-27700</v>
       </c>
       <c r="I23" s="3">
-        <v>-35900</v>
+        <v>-48100</v>
       </c>
       <c r="J23" s="3">
+        <v>-36600</v>
+      </c>
+      <c r="K23" s="3">
         <v>-37100</v>
       </c>
-      <c r="K23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1155,8 +1200,11 @@
       <c r="K24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1184,28 +1232,31 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-88700</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>3</v>
+        <v>-57000</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-90600</v>
       </c>
       <c r="F26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G26" s="3">
-        <v>-27200</v>
+      <c r="G26" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H26" s="3">
-        <v>-47100</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>3</v>
+        <v>-27700</v>
+      </c>
+      <c r="I26" s="3">
+        <v>-48100</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>3</v>
@@ -1213,28 +1264,31 @@
       <c r="K26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-575100</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>3</v>
+        <v>86200</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-587300</v>
       </c>
       <c r="F27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G27" s="3">
-        <v>-51100</v>
+      <c r="G27" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H27" s="3">
-        <v>-70500</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>3</v>
+        <v>-52200</v>
+      </c>
+      <c r="I27" s="3">
+        <v>-72000</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>3</v>
@@ -1242,8 +1296,11 @@
       <c r="K27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1271,8 +1328,11 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1300,8 +1360,11 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1329,8 +1392,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1358,57 +1424,63 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>300</v>
+      </c>
+      <c r="E32" s="3">
         <v>1200</v>
       </c>
-      <c r="E32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G32" s="3">
+      <c r="G32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H32" s="3">
         <v>-600</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-2200</v>
       </c>
-      <c r="I32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J32" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-575100</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>3</v>
+        <v>86200</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-587300</v>
       </c>
       <c r="F33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G33" s="3">
-        <v>-51100</v>
+      <c r="G33" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H33" s="3">
-        <v>-70500</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>3</v>
+        <v>-52200</v>
+      </c>
+      <c r="I33" s="3">
+        <v>-72000</v>
       </c>
       <c r="J33" s="3" t="s">
         <v>3</v>
@@ -1416,8 +1488,11 @@
       <c r="K33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1445,28 +1520,31 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-575100</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>3</v>
+        <v>86200</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-587300</v>
       </c>
       <c r="F35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G35" s="3">
-        <v>-51100</v>
+      <c r="G35" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H35" s="3">
-        <v>-70500</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>3</v>
+        <v>-52200</v>
+      </c>
+      <c r="I35" s="3">
+        <v>-72000</v>
       </c>
       <c r="J35" s="3" t="s">
         <v>3</v>
@@ -1474,42 +1552,48 @@
       <c r="K35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1521,8 +1605,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1534,19 +1619,20 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>124400</v>
+        <v>442300</v>
       </c>
       <c r="E41" s="3">
-        <v>191700</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>3</v>
+        <v>127000</v>
+      </c>
+      <c r="F41" s="3">
+        <v>195700</v>
       </c>
       <c r="G41" s="3" t="s">
         <v>3</v>
@@ -1563,8 +1649,11 @@
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1592,19 +1681,22 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1900</v>
+        <v>1200</v>
       </c>
       <c r="E43" s="3">
-        <v>4000</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>3</v>
+        <v>2000</v>
+      </c>
+      <c r="F43" s="3">
+        <v>4100</v>
       </c>
       <c r="G43" s="3" t="s">
         <v>3</v>
@@ -1621,8 +1713,11 @@
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1650,19 +1745,22 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>24800</v>
+        <v>31900</v>
       </c>
       <c r="E45" s="3">
-        <v>16500</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>3</v>
+        <v>25400</v>
+      </c>
+      <c r="F45" s="3">
+        <v>16900</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>3</v>
@@ -1679,19 +1777,22 @@
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>151100</v>
+        <v>475300</v>
       </c>
       <c r="E46" s="3">
-        <v>212200</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>3</v>
+        <v>154300</v>
+      </c>
+      <c r="F46" s="3">
+        <v>216700</v>
       </c>
       <c r="G46" s="3" t="s">
         <v>3</v>
@@ -1708,8 +1809,11 @@
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1737,19 +1841,22 @@
       <c r="K47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>36300</v>
+        <v>47600</v>
       </c>
       <c r="E48" s="3">
-        <v>25400</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>3</v>
+        <v>37000</v>
+      </c>
+      <c r="F48" s="3">
+        <v>25900</v>
       </c>
       <c r="G48" s="3" t="s">
         <v>3</v>
@@ -1766,8 +1873,11 @@
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1795,8 +1905,11 @@
       <c r="K49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1824,8 +1937,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1853,19 +1969,22 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>3400</v>
+        <v>5900</v>
       </c>
       <c r="E52" s="3">
-        <v>4100</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>3</v>
+        <v>3500</v>
+      </c>
+      <c r="F52" s="3">
+        <v>4200</v>
       </c>
       <c r="G52" s="3" t="s">
         <v>3</v>
@@ -1882,8 +2001,11 @@
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1911,19 +2033,22 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>190800</v>
+        <v>528800</v>
       </c>
       <c r="E54" s="3">
-        <v>241700</v>
-      </c>
-      <c r="F54" s="3" t="s">
-        <v>3</v>
+        <v>194900</v>
+      </c>
+      <c r="F54" s="3">
+        <v>246800</v>
       </c>
       <c r="G54" s="3" t="s">
         <v>3</v>
@@ -1940,8 +2065,11 @@
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1953,8 +2081,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1966,8 +2095,9 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -1995,19 +2125,22 @@
       <c r="K57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3">
         <v>2800</v>
       </c>
-      <c r="E58" s="3">
-        <v>13000</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>3</v>
+      <c r="F58" s="3">
+        <v>13300</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>3</v>
@@ -2024,19 +2157,22 @@
       <c r="K58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>146900</v>
+        <v>188100</v>
       </c>
       <c r="E59" s="3">
-        <v>110300</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>3</v>
+        <v>150000</v>
+      </c>
+      <c r="F59" s="3">
+        <v>112700</v>
       </c>
       <c r="G59" s="3" t="s">
         <v>3</v>
@@ -2053,19 +2189,22 @@
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>149600</v>
+        <v>188100</v>
       </c>
       <c r="E60" s="3">
-        <v>123300</v>
-      </c>
-      <c r="F60" s="3" t="s">
-        <v>3</v>
+        <v>152800</v>
+      </c>
+      <c r="F60" s="3">
+        <v>125900</v>
       </c>
       <c r="G60" s="3" t="s">
         <v>3</v>
@@ -2082,8 +2221,11 @@
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2111,19 +2253,22 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>12600</v>
+        <v>18700</v>
       </c>
       <c r="E62" s="3">
-        <v>5400</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>3</v>
+        <v>12900</v>
+      </c>
+      <c r="F62" s="3">
+        <v>5500</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>3</v>
@@ -2140,8 +2285,11 @@
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2169,8 +2317,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2198,8 +2349,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2227,19 +2381,22 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>162300</v>
+        <v>206800</v>
       </c>
       <c r="E66" s="3">
-        <v>128700</v>
-      </c>
-      <c r="F66" s="3" t="s">
-        <v>3</v>
+        <v>165700</v>
+      </c>
+      <c r="F66" s="3">
+        <v>131400</v>
       </c>
       <c r="G66" s="3" t="s">
         <v>3</v>
@@ -2256,8 +2413,11 @@
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2269,8 +2429,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2298,8 +2459,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2327,19 +2491,22 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>1426200</v>
+        <v>0</v>
       </c>
       <c r="E70" s="3">
-        <v>939800</v>
+        <v>1456400</v>
       </c>
       <c r="F70" s="3">
-        <v>0</v>
+        <v>959700</v>
       </c>
       <c r="G70" s="3">
         <v>0</v>
@@ -2356,8 +2523,11 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2385,19 +2555,22 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-1407200</v>
+        <v>-1347800</v>
       </c>
       <c r="E72" s="3">
-        <v>-840800</v>
-      </c>
-      <c r="F72" s="3" t="s">
-        <v>3</v>
+        <v>-1436900</v>
+      </c>
+      <c r="F72" s="3">
+        <v>-858600</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>3</v>
@@ -2414,8 +2587,11 @@
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2443,8 +2619,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2472,8 +2651,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2501,19 +2683,22 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-1397600</v>
+        <v>322000</v>
       </c>
       <c r="E76" s="3">
-        <v>-826900</v>
-      </c>
-      <c r="F76" s="3" t="s">
-        <v>3</v>
+        <v>-1427200</v>
+      </c>
+      <c r="F76" s="3">
+        <v>-844400</v>
       </c>
       <c r="G76" s="3" t="s">
         <v>3</v>
@@ -2530,8 +2715,11 @@
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2559,62 +2747,68 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-575100</v>
-      </c>
-      <c r="E81" s="3" t="s">
-        <v>3</v>
+        <v>86200</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-587300</v>
       </c>
       <c r="F81" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G81" s="3">
-        <v>-51100</v>
+      <c r="G81" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H81" s="3">
-        <v>-70500</v>
-      </c>
-      <c r="I81" s="3" t="s">
-        <v>3</v>
+        <v>-52200</v>
+      </c>
+      <c r="I81" s="3">
+        <v>-72000</v>
       </c>
       <c r="J81" s="3" t="s">
         <v>3</v>
@@ -2622,8 +2816,11 @@
       <c r="K81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2635,17 +2832,18 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E83" s="3">
         <v>1700</v>
       </c>
-      <c r="E83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F83" s="3" t="s">
         <v>3</v>
       </c>
@@ -2664,8 +2862,11 @@
       <c r="K83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2693,8 +2894,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2722,8 +2926,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2751,8 +2958,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2780,8 +2990,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2809,16 +3022,19 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-47000</v>
-      </c>
-      <c r="E89" s="3" t="s">
-        <v>3</v>
+        <v>500</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-48000</v>
       </c>
       <c r="F89" s="3" t="s">
         <v>3</v>
@@ -2838,8 +3054,11 @@
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2851,16 +3070,17 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-4100</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>3</v>
+        <v>-4600</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-4200</v>
       </c>
       <c r="F91" s="3" t="s">
         <v>3</v>
@@ -2880,8 +3100,11 @@
       <c r="K91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2909,8 +3132,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2938,16 +3164,19 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-4100</v>
-      </c>
-      <c r="E94" s="3" t="s">
-        <v>3</v>
+        <v>-4600</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-4200</v>
       </c>
       <c r="F94" s="3" t="s">
         <v>3</v>
@@ -2967,8 +3196,11 @@
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2980,8 +3212,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3009,8 +3242,11 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3038,8 +3274,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3067,8 +3306,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3096,16 +3338,19 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-10200</v>
-      </c>
-      <c r="E100" s="3" t="s">
-        <v>3</v>
+        <v>314400</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-10500</v>
       </c>
       <c r="F100" s="3" t="s">
         <v>3</v>
@@ -3125,16 +3370,19 @@
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-4400</v>
-      </c>
-      <c r="E101" s="3" t="s">
-        <v>3</v>
+        <v>-2000</v>
+      </c>
+      <c r="E101" s="3">
+        <v>-4500</v>
       </c>
       <c r="F101" s="3" t="s">
         <v>3</v>
@@ -3154,16 +3402,19 @@
       <c r="K101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-65800</v>
-      </c>
-      <c r="E102" s="3" t="s">
-        <v>3</v>
+        <v>308300</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-67200</v>
       </c>
       <c r="F102" s="3" t="s">
         <v>3</v>
@@ -3181,6 +3432,9 @@
         <v>3</v>
       </c>
       <c r="K102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/YQ_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/YQ_QTR_FIN.xlsx
@@ -722,25 +722,25 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>75900</v>
+        <v>75000</v>
       </c>
       <c r="E8" s="3">
-        <v>47900</v>
+        <v>47300</v>
       </c>
       <c r="F8" s="3">
-        <v>42300</v>
+        <v>41800</v>
       </c>
       <c r="G8" s="3">
-        <v>35700</v>
+        <v>35300</v>
       </c>
       <c r="H8" s="3">
-        <v>30000</v>
+        <v>29600</v>
       </c>
       <c r="I8" s="3">
-        <v>16500</v>
+        <v>16300</v>
       </c>
       <c r="J8" s="3">
-        <v>8600</v>
+        <v>8500</v>
       </c>
       <c r="K8" s="3">
         <v>8200</v>
@@ -754,25 +754,25 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>27100</v>
+        <v>26700</v>
       </c>
       <c r="E9" s="3">
-        <v>22100</v>
+        <v>21900</v>
       </c>
       <c r="F9" s="3">
-        <v>15300</v>
+        <v>15100</v>
       </c>
       <c r="G9" s="3">
-        <v>12800</v>
+        <v>12700</v>
       </c>
       <c r="H9" s="3">
-        <v>11100</v>
+        <v>11000</v>
       </c>
       <c r="I9" s="3">
-        <v>8600</v>
+        <v>8500</v>
       </c>
       <c r="J9" s="3">
-        <v>4500</v>
+        <v>4400</v>
       </c>
       <c r="K9" s="3">
         <v>2800</v>
@@ -786,22 +786,22 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>48900</v>
+        <v>48200</v>
       </c>
       <c r="E10" s="3">
-        <v>25800</v>
+        <v>25400</v>
       </c>
       <c r="F10" s="3">
-        <v>27100</v>
+        <v>26700</v>
       </c>
       <c r="G10" s="3">
-        <v>22900</v>
+        <v>22600</v>
       </c>
       <c r="H10" s="3">
-        <v>18900</v>
+        <v>18600</v>
       </c>
       <c r="I10" s="3">
-        <v>7800</v>
+        <v>7700</v>
       </c>
       <c r="J10" s="3">
         <v>4100</v>
@@ -832,25 +832,25 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>30000</v>
+        <v>29600</v>
       </c>
       <c r="E12" s="3">
-        <v>24000</v>
+        <v>23600</v>
       </c>
       <c r="F12" s="3">
-        <v>21300</v>
+        <v>21000</v>
       </c>
       <c r="G12" s="3">
-        <v>20700</v>
+        <v>20400</v>
       </c>
       <c r="H12" s="3">
-        <v>20100</v>
+        <v>19800</v>
       </c>
       <c r="I12" s="3">
-        <v>19300</v>
+        <v>19100</v>
       </c>
       <c r="J12" s="3">
-        <v>18800</v>
+        <v>18500</v>
       </c>
       <c r="K12" s="3">
         <v>18100</v>
@@ -971,10 +971,10 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>132600</v>
+        <v>130900</v>
       </c>
       <c r="E17" s="3">
-        <v>137300</v>
+        <v>135500</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>3</v>
@@ -983,10 +983,10 @@
         <v>3</v>
       </c>
       <c r="H17" s="3">
-        <v>58300</v>
+        <v>57500</v>
       </c>
       <c r="I17" s="3">
-        <v>66800</v>
+        <v>65900</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>3</v>
@@ -1003,10 +1003,10 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-56700</v>
+        <v>-55900</v>
       </c>
       <c r="E18" s="3">
-        <v>-89400</v>
+        <v>-88200</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>3</v>
@@ -1015,10 +1015,10 @@
         <v>3</v>
       </c>
       <c r="H18" s="3">
-        <v>-28300</v>
+        <v>-27900</v>
       </c>
       <c r="I18" s="3">
-        <v>-50300</v>
+        <v>-49600</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>3</v>
@@ -1081,10 +1081,10 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-55100</v>
+        <v>-54400</v>
       </c>
       <c r="E21" s="3">
-        <v>-88900</v>
+        <v>-87700</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>3</v>
@@ -1096,7 +1096,7 @@
         <v>3</v>
       </c>
       <c r="I21" s="3">
-        <v>-45400</v>
+        <v>-44800</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>3</v>
@@ -1145,25 +1145,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-57000</v>
+        <v>-56200</v>
       </c>
       <c r="E23" s="3">
-        <v>-90600</v>
+        <v>-89400</v>
       </c>
       <c r="F23" s="3">
-        <v>-26500</v>
+        <v>-26100</v>
       </c>
       <c r="G23" s="3">
-        <v>-35000</v>
+        <v>-34500</v>
       </c>
       <c r="H23" s="3">
-        <v>-27700</v>
+        <v>-27400</v>
       </c>
       <c r="I23" s="3">
-        <v>-48100</v>
+        <v>-47500</v>
       </c>
       <c r="J23" s="3">
-        <v>-36600</v>
+        <v>-36100</v>
       </c>
       <c r="K23" s="3">
         <v>-37100</v>
@@ -1241,10 +1241,10 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-57000</v>
+        <v>-56200</v>
       </c>
       <c r="E26" s="3">
-        <v>-90600</v>
+        <v>-89400</v>
       </c>
       <c r="F26" s="3" t="s">
         <v>3</v>
@@ -1253,10 +1253,10 @@
         <v>3</v>
       </c>
       <c r="H26" s="3">
-        <v>-27700</v>
+        <v>-27400</v>
       </c>
       <c r="I26" s="3">
-        <v>-48100</v>
+        <v>-47500</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>3</v>
@@ -1273,10 +1273,10 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>86200</v>
+        <v>85100</v>
       </c>
       <c r="E27" s="3">
-        <v>-587300</v>
+        <v>-579600</v>
       </c>
       <c r="F27" s="3" t="s">
         <v>3</v>
@@ -1285,10 +1285,10 @@
         <v>3</v>
       </c>
       <c r="H27" s="3">
-        <v>-52200</v>
+        <v>-51500</v>
       </c>
       <c r="I27" s="3">
-        <v>-72000</v>
+        <v>-71100</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>3</v>
@@ -1465,10 +1465,10 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>86200</v>
+        <v>85100</v>
       </c>
       <c r="E33" s="3">
-        <v>-587300</v>
+        <v>-579600</v>
       </c>
       <c r="F33" s="3" t="s">
         <v>3</v>
@@ -1477,10 +1477,10 @@
         <v>3</v>
       </c>
       <c r="H33" s="3">
-        <v>-52200</v>
+        <v>-51500</v>
       </c>
       <c r="I33" s="3">
-        <v>-72000</v>
+        <v>-71100</v>
       </c>
       <c r="J33" s="3" t="s">
         <v>3</v>
@@ -1529,10 +1529,10 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>86200</v>
+        <v>85100</v>
       </c>
       <c r="E35" s="3">
-        <v>-587300</v>
+        <v>-579600</v>
       </c>
       <c r="F35" s="3" t="s">
         <v>3</v>
@@ -1541,10 +1541,10 @@
         <v>3</v>
       </c>
       <c r="H35" s="3">
-        <v>-52200</v>
+        <v>-51500</v>
       </c>
       <c r="I35" s="3">
-        <v>-72000</v>
+        <v>-71100</v>
       </c>
       <c r="J35" s="3" t="s">
         <v>3</v>
@@ -1626,13 +1626,13 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>442300</v>
+        <v>436500</v>
       </c>
       <c r="E41" s="3">
-        <v>127000</v>
+        <v>125400</v>
       </c>
       <c r="F41" s="3">
-        <v>195700</v>
+        <v>193200</v>
       </c>
       <c r="G41" s="3" t="s">
         <v>3</v>
@@ -1690,10 +1690,10 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="E43" s="3">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="F43" s="3">
         <v>4100</v>
@@ -1754,13 +1754,13 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>31900</v>
+        <v>31400</v>
       </c>
       <c r="E45" s="3">
-        <v>25400</v>
+        <v>25000</v>
       </c>
       <c r="F45" s="3">
-        <v>16900</v>
+        <v>16700</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>3</v>
@@ -1786,13 +1786,13 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>475300</v>
+        <v>469100</v>
       </c>
       <c r="E46" s="3">
-        <v>154300</v>
+        <v>152300</v>
       </c>
       <c r="F46" s="3">
-        <v>216700</v>
+        <v>213900</v>
       </c>
       <c r="G46" s="3" t="s">
         <v>3</v>
@@ -1850,13 +1850,13 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>47600</v>
+        <v>47000</v>
       </c>
       <c r="E48" s="3">
-        <v>37000</v>
+        <v>36500</v>
       </c>
       <c r="F48" s="3">
-        <v>25900</v>
+        <v>25600</v>
       </c>
       <c r="G48" s="3" t="s">
         <v>3</v>
@@ -1978,13 +1978,13 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>5900</v>
+        <v>5800</v>
       </c>
       <c r="E52" s="3">
-        <v>3500</v>
+        <v>3400</v>
       </c>
       <c r="F52" s="3">
-        <v>4200</v>
+        <v>4100</v>
       </c>
       <c r="G52" s="3" t="s">
         <v>3</v>
@@ -2042,13 +2042,13 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>528800</v>
+        <v>522000</v>
       </c>
       <c r="E54" s="3">
-        <v>194900</v>
+        <v>192300</v>
       </c>
       <c r="F54" s="3">
-        <v>246800</v>
+        <v>243500</v>
       </c>
       <c r="G54" s="3" t="s">
         <v>3</v>
@@ -2140,7 +2140,7 @@
         <v>2800</v>
       </c>
       <c r="F58" s="3">
-        <v>13300</v>
+        <v>13100</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>3</v>
@@ -2166,13 +2166,13 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>188100</v>
+        <v>185600</v>
       </c>
       <c r="E59" s="3">
-        <v>150000</v>
+        <v>148000</v>
       </c>
       <c r="F59" s="3">
-        <v>112700</v>
+        <v>111200</v>
       </c>
       <c r="G59" s="3" t="s">
         <v>3</v>
@@ -2198,13 +2198,13 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>188100</v>
+        <v>185600</v>
       </c>
       <c r="E60" s="3">
-        <v>152800</v>
+        <v>150800</v>
       </c>
       <c r="F60" s="3">
-        <v>125900</v>
+        <v>124300</v>
       </c>
       <c r="G60" s="3" t="s">
         <v>3</v>
@@ -2262,13 +2262,13 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>18700</v>
+        <v>18500</v>
       </c>
       <c r="E62" s="3">
-        <v>12900</v>
+        <v>12700</v>
       </c>
       <c r="F62" s="3">
-        <v>5500</v>
+        <v>5400</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>3</v>
@@ -2390,13 +2390,13 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>206800</v>
+        <v>204100</v>
       </c>
       <c r="E66" s="3">
-        <v>165700</v>
+        <v>163500</v>
       </c>
       <c r="F66" s="3">
-        <v>131400</v>
+        <v>129700</v>
       </c>
       <c r="G66" s="3" t="s">
         <v>3</v>
@@ -2503,10 +2503,10 @@
         <v>0</v>
       </c>
       <c r="E70" s="3">
-        <v>1456400</v>
+        <v>1437400</v>
       </c>
       <c r="F70" s="3">
-        <v>959700</v>
+        <v>947200</v>
       </c>
       <c r="G70" s="3">
         <v>0</v>
@@ -2564,13 +2564,13 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-1347800</v>
+        <v>-1330300</v>
       </c>
       <c r="E72" s="3">
-        <v>-1436900</v>
+        <v>-1418200</v>
       </c>
       <c r="F72" s="3">
-        <v>-858600</v>
+        <v>-847400</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>3</v>
@@ -2692,13 +2692,13 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>322000</v>
+        <v>317800</v>
       </c>
       <c r="E76" s="3">
-        <v>-1427200</v>
+        <v>-1408600</v>
       </c>
       <c r="F76" s="3">
-        <v>-844400</v>
+        <v>-833400</v>
       </c>
       <c r="G76" s="3" t="s">
         <v>3</v>
@@ -2793,10 +2793,10 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>86200</v>
+        <v>85100</v>
       </c>
       <c r="E81" s="3">
-        <v>-587300</v>
+        <v>-579600</v>
       </c>
       <c r="F81" s="3" t="s">
         <v>3</v>
@@ -2805,10 +2805,10 @@
         <v>3</v>
       </c>
       <c r="H81" s="3">
-        <v>-52200</v>
+        <v>-51500</v>
       </c>
       <c r="I81" s="3">
-        <v>-72000</v>
+        <v>-71100</v>
       </c>
       <c r="J81" s="3" t="s">
         <v>3</v>
@@ -3034,7 +3034,7 @@
         <v>500</v>
       </c>
       <c r="E89" s="3">
-        <v>-48000</v>
+        <v>-47400</v>
       </c>
       <c r="F89" s="3" t="s">
         <v>3</v>
@@ -3080,7 +3080,7 @@
         <v>-4600</v>
       </c>
       <c r="E91" s="3">
-        <v>-4200</v>
+        <v>-4100</v>
       </c>
       <c r="F91" s="3" t="s">
         <v>3</v>
@@ -3176,7 +3176,7 @@
         <v>-4600</v>
       </c>
       <c r="E94" s="3">
-        <v>-4200</v>
+        <v>-4100</v>
       </c>
       <c r="F94" s="3" t="s">
         <v>3</v>
@@ -3347,10 +3347,10 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>314400</v>
+        <v>310300</v>
       </c>
       <c r="E100" s="3">
-        <v>-10500</v>
+        <v>-10300</v>
       </c>
       <c r="F100" s="3" t="s">
         <v>3</v>
@@ -3411,10 +3411,10 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>308300</v>
+        <v>304300</v>
       </c>
       <c r="E102" s="3">
-        <v>-67200</v>
+        <v>-66300</v>
       </c>
       <c r="F102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Quarterly/YQ_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/YQ_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="92">
   <si>
     <t>YQ</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,155 +665,181 @@
     <col min="1" max="1" width="4.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>75000</v>
+        <v>105000</v>
       </c>
       <c r="E8" s="3">
-        <v>47300</v>
+        <v>74200</v>
       </c>
       <c r="F8" s="3">
-        <v>41800</v>
+        <v>76200</v>
       </c>
       <c r="G8" s="3">
-        <v>35300</v>
+        <v>48100</v>
       </c>
       <c r="H8" s="3">
-        <v>29600</v>
+        <v>42500</v>
       </c>
       <c r="I8" s="3">
+        <v>35900</v>
+      </c>
+      <c r="J8" s="3">
+        <v>30100</v>
+      </c>
+      <c r="K8" s="3">
         <v>16300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>8500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>8200</v>
       </c>
-      <c r="L8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>26700</v>
+        <v>38800</v>
       </c>
       <c r="E9" s="3">
-        <v>21900</v>
+        <v>29400</v>
       </c>
       <c r="F9" s="3">
-        <v>15100</v>
+        <v>27200</v>
       </c>
       <c r="G9" s="3">
-        <v>12700</v>
+        <v>22200</v>
       </c>
       <c r="H9" s="3">
-        <v>11000</v>
+        <v>15300</v>
       </c>
       <c r="I9" s="3">
+        <v>12900</v>
+      </c>
+      <c r="J9" s="3">
+        <v>11200</v>
+      </c>
+      <c r="K9" s="3">
         <v>8500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>4400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>2800</v>
       </c>
-      <c r="L9" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>48200</v>
+        <v>66200</v>
       </c>
       <c r="E10" s="3">
-        <v>25400</v>
+        <v>44900</v>
       </c>
       <c r="F10" s="3">
-        <v>26700</v>
+        <v>49000</v>
       </c>
       <c r="G10" s="3">
-        <v>22600</v>
+        <v>25900</v>
       </c>
       <c r="H10" s="3">
-        <v>18600</v>
+        <v>27100</v>
       </c>
       <c r="I10" s="3">
+        <v>23000</v>
+      </c>
+      <c r="J10" s="3">
+        <v>19000</v>
+      </c>
+      <c r="K10" s="3">
         <v>7700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>4100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>5400</v>
       </c>
-      <c r="L10" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -826,40 +852,48 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>29600</v>
+        <v>35900</v>
       </c>
       <c r="E12" s="3">
-        <v>23600</v>
+        <v>32900</v>
       </c>
       <c r="F12" s="3">
-        <v>21000</v>
+        <v>30100</v>
       </c>
       <c r="G12" s="3">
-        <v>20400</v>
+        <v>24000</v>
       </c>
       <c r="H12" s="3">
-        <v>19800</v>
+        <v>21400</v>
       </c>
       <c r="I12" s="3">
+        <v>20800</v>
+      </c>
+      <c r="J12" s="3">
+        <v>20100</v>
+      </c>
+      <c r="K12" s="3">
         <v>19100</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>18500</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>18100</v>
       </c>
-      <c r="L12" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -890,31 +924,37 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+        <v>8900</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -922,8 +962,14 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -954,8 +1000,14 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -965,72 +1017,86 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>130900</v>
+        <v>148800</v>
       </c>
       <c r="E17" s="3">
-        <v>135500</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H17" s="3">
-        <v>57500</v>
-      </c>
-      <c r="I17" s="3">
+        <v>178600</v>
+      </c>
+      <c r="F17" s="3">
+        <v>133100</v>
+      </c>
+      <c r="G17" s="3">
+        <v>137800</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J17" s="3">
+        <v>58500</v>
+      </c>
+      <c r="K17" s="3">
         <v>65900</v>
       </c>
-      <c r="J17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-55900</v>
+        <v>-43800</v>
       </c>
       <c r="E18" s="3">
-        <v>-88200</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H18" s="3">
-        <v>-27900</v>
-      </c>
-      <c r="I18" s="3">
+        <v>-104400</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-56900</v>
+      </c>
+      <c r="G18" s="3">
+        <v>-89700</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J18" s="3">
+        <v>-28400</v>
+      </c>
+      <c r="K18" s="3">
         <v>-49600</v>
       </c>
-      <c r="J18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1043,136 +1109,162 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E20" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F20" s="3">
         <v>-300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>-1200</v>
       </c>
-      <c r="F20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H20" s="3">
+      <c r="H20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J20" s="3">
         <v>600</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>2200</v>
       </c>
-      <c r="J20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
-        <v>-54400</v>
-      </c>
-      <c r="E21" s="3">
-        <v>-87700</v>
+      <c r="D21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>3</v>
+      <c r="G21" s="3">
+        <v>-86500</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I21" s="3">
+      <c r="I21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J21" s="3">
+        <v>-24300</v>
+      </c>
+      <c r="K21" s="3">
         <v>-44800</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
-        <v>0</v>
-      </c>
-      <c r="E22" s="3">
-        <v>0</v>
+      <c r="D22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F22" s="3">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3">
         <v>300</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>200</v>
       </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
+        <v>0</v>
+      </c>
+      <c r="K22" s="3">
         <v>100</v>
       </c>
-      <c r="J22" s="3">
-        <v>0</v>
-      </c>
-      <c r="K22" s="3">
-        <v>0</v>
-      </c>
-      <c r="L22" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-56200</v>
+        <v>-41800</v>
       </c>
       <c r="E23" s="3">
-        <v>-89400</v>
+        <v>-103300</v>
       </c>
       <c r="F23" s="3">
-        <v>-26100</v>
+        <v>-57200</v>
       </c>
       <c r="G23" s="3">
-        <v>-34500</v>
+        <v>-90900</v>
       </c>
       <c r="H23" s="3">
-        <v>-27400</v>
+        <v>-26600</v>
       </c>
       <c r="I23" s="3">
+        <v>-35100</v>
+      </c>
+      <c r="J23" s="3">
+        <v>-27800</v>
+      </c>
+      <c r="K23" s="3">
         <v>-47500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-36100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-37100</v>
       </c>
-      <c r="L23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="N23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1203,8 +1295,14 @@
       <c r="L24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1235,72 +1333,90 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-56200</v>
+        <v>-41800</v>
       </c>
       <c r="E26" s="3">
-        <v>-89400</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H26" s="3">
-        <v>-27400</v>
-      </c>
-      <c r="I26" s="3">
+        <v>-103300</v>
+      </c>
+      <c r="F26" s="3">
+        <v>-57200</v>
+      </c>
+      <c r="G26" s="3">
+        <v>-90900</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J26" s="3">
+        <v>-27800</v>
+      </c>
+      <c r="K26" s="3">
         <v>-47500</v>
       </c>
-      <c r="J26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>85100</v>
+        <v>-41800</v>
       </c>
       <c r="E27" s="3">
-        <v>-579600</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H27" s="3">
-        <v>-51500</v>
-      </c>
-      <c r="I27" s="3">
+        <v>-103300</v>
+      </c>
+      <c r="F27" s="3">
+        <v>86500</v>
+      </c>
+      <c r="G27" s="3">
+        <v>-589400</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J27" s="3">
+        <v>-52400</v>
+      </c>
+      <c r="K27" s="3">
         <v>-71100</v>
       </c>
-      <c r="J27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1331,8 +1447,14 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1363,8 +1485,14 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1395,8 +1523,14 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1427,72 +1561,90 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="F32" s="3">
         <v>300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>1200</v>
       </c>
-      <c r="F32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H32" s="3">
+      <c r="H32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J32" s="3">
         <v>-600</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-2200</v>
       </c>
-      <c r="J32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>85100</v>
+        <v>-41800</v>
       </c>
       <c r="E33" s="3">
-        <v>-579600</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H33" s="3">
-        <v>-51500</v>
-      </c>
-      <c r="I33" s="3">
+        <v>-103300</v>
+      </c>
+      <c r="F33" s="3">
+        <v>86500</v>
+      </c>
+      <c r="G33" s="3">
+        <v>-589400</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J33" s="3">
+        <v>-52400</v>
+      </c>
+      <c r="K33" s="3">
         <v>-71100</v>
       </c>
-      <c r="J33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1523,77 +1675,95 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>85100</v>
+        <v>-41800</v>
       </c>
       <c r="E35" s="3">
-        <v>-579600</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H35" s="3">
-        <v>-51500</v>
-      </c>
-      <c r="I35" s="3">
+        <v>-103300</v>
+      </c>
+      <c r="F35" s="3">
+        <v>86500</v>
+      </c>
+      <c r="G35" s="3">
+        <v>-589400</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J35" s="3">
+        <v>-52400</v>
+      </c>
+      <c r="K35" s="3">
         <v>-71100</v>
       </c>
-      <c r="J35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="N38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1606,8 +1776,10 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1620,25 +1792,27 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>436500</v>
+        <v>338200</v>
       </c>
       <c r="E41" s="3">
-        <v>125400</v>
+        <v>350700</v>
       </c>
       <c r="F41" s="3">
-        <v>193200</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>3</v>
+        <v>443800</v>
+      </c>
+      <c r="G41" s="3">
+        <v>127500</v>
+      </c>
+      <c r="H41" s="3">
+        <v>196400</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
@@ -1652,8 +1826,14 @@
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1684,26 +1864,32 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3">
-        <v>1100</v>
-      </c>
-      <c r="E43" s="3">
-        <v>1900</v>
+      <c r="D43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F43" s="3">
+        <v>1200</v>
+      </c>
+      <c r="G43" s="3">
+        <v>2000</v>
+      </c>
+      <c r="H43" s="3">
         <v>4100</v>
       </c>
-      <c r="G43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1716,8 +1902,14 @@
       <c r="L43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1748,25 +1940,31 @@
       <c r="L44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>31400</v>
+        <v>29100</v>
       </c>
       <c r="E45" s="3">
-        <v>25000</v>
+        <v>29100</v>
       </c>
       <c r="F45" s="3">
-        <v>16700</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>3</v>
+        <v>32000</v>
+      </c>
+      <c r="G45" s="3">
+        <v>25500</v>
+      </c>
+      <c r="H45" s="3">
+        <v>16900</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>3</v>
@@ -1780,25 +1978,31 @@
       <c r="L45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>469100</v>
+        <v>367200</v>
       </c>
       <c r="E46" s="3">
-        <v>152300</v>
+        <v>379900</v>
       </c>
       <c r="F46" s="3">
-        <v>213900</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>3</v>
+        <v>477000</v>
+      </c>
+      <c r="G46" s="3">
+        <v>154900</v>
+      </c>
+      <c r="H46" s="3">
+        <v>217500</v>
       </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
@@ -1812,8 +2016,14 @@
       <c r="L46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1844,25 +2054,31 @@
       <c r="L47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>47000</v>
+        <v>67000</v>
       </c>
       <c r="E48" s="3">
-        <v>36500</v>
+        <v>61500</v>
       </c>
       <c r="F48" s="3">
-        <v>25600</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>3</v>
+        <v>47800</v>
+      </c>
+      <c r="G48" s="3">
+        <v>37200</v>
+      </c>
+      <c r="H48" s="3">
+        <v>26000</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>3</v>
@@ -1876,8 +2092,14 @@
       <c r="L48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1908,8 +2130,14 @@
       <c r="L49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1940,8 +2168,14 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1972,8 +2206,14 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -1981,16 +2221,16 @@
         <v>5800</v>
       </c>
       <c r="E52" s="3">
-        <v>3400</v>
+        <v>5700</v>
       </c>
       <c r="F52" s="3">
-        <v>4100</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>3</v>
+        <v>5900</v>
+      </c>
+      <c r="G52" s="3">
+        <v>3500</v>
+      </c>
+      <c r="H52" s="3">
+        <v>4200</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>3</v>
@@ -2004,8 +2244,14 @@
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2036,25 +2282,31 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>522000</v>
+        <v>440100</v>
       </c>
       <c r="E54" s="3">
-        <v>192300</v>
+        <v>447100</v>
       </c>
       <c r="F54" s="3">
-        <v>243500</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H54" s="3" t="s">
-        <v>3</v>
+        <v>530700</v>
+      </c>
+      <c r="G54" s="3">
+        <v>195500</v>
+      </c>
+      <c r="H54" s="3">
+        <v>247600</v>
       </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
@@ -2068,8 +2320,14 @@
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2082,8 +2340,10 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2096,8 +2356,10 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2128,25 +2390,31 @@
       <c r="L57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3">
+        <v>0</v>
+      </c>
+      <c r="N57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
-        <v>0</v>
-      </c>
-      <c r="E58" s="3">
+      <c r="D58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F58" s="3">
+        <v>0</v>
+      </c>
+      <c r="G58" s="3">
         <v>2800</v>
       </c>
-      <c r="F58" s="3">
-        <v>13100</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>3</v>
+      <c r="H58" s="3">
+        <v>13300</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>3</v>
@@ -2160,25 +2428,31 @@
       <c r="L58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>185600</v>
+        <v>217300</v>
       </c>
       <c r="E59" s="3">
-        <v>148000</v>
+        <v>192300</v>
       </c>
       <c r="F59" s="3">
-        <v>111200</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>3</v>
+        <v>188700</v>
+      </c>
+      <c r="G59" s="3">
+        <v>150500</v>
+      </c>
+      <c r="H59" s="3">
+        <v>113100</v>
       </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
@@ -2192,25 +2466,31 @@
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>185600</v>
+        <v>217300</v>
       </c>
       <c r="E60" s="3">
-        <v>150800</v>
+        <v>192300</v>
       </c>
       <c r="F60" s="3">
-        <v>124300</v>
-      </c>
-      <c r="G60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H60" s="3" t="s">
-        <v>3</v>
+        <v>188700</v>
+      </c>
+      <c r="G60" s="3">
+        <v>153300</v>
+      </c>
+      <c r="H60" s="3">
+        <v>126400</v>
       </c>
       <c r="I60" s="3" t="s">
         <v>3</v>
@@ -2224,8 +2504,14 @@
       <c r="L60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2256,25 +2542,31 @@
       <c r="L61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>18500</v>
+        <v>29200</v>
       </c>
       <c r="E62" s="3">
-        <v>12700</v>
+        <v>23900</v>
       </c>
       <c r="F62" s="3">
-        <v>5400</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>3</v>
+        <v>18800</v>
+      </c>
+      <c r="G62" s="3">
+        <v>12900</v>
+      </c>
+      <c r="H62" s="3">
+        <v>5500</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>3</v>
@@ -2288,8 +2580,14 @@
       <c r="L62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2320,8 +2618,14 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2352,8 +2656,14 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2384,25 +2694,31 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>204100</v>
+        <v>246500</v>
       </c>
       <c r="E66" s="3">
-        <v>163500</v>
+        <v>216200</v>
       </c>
       <c r="F66" s="3">
-        <v>129700</v>
-      </c>
-      <c r="G66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H66" s="3" t="s">
-        <v>3</v>
+        <v>207500</v>
+      </c>
+      <c r="G66" s="3">
+        <v>166300</v>
+      </c>
+      <c r="H66" s="3">
+        <v>131900</v>
       </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
@@ -2416,8 +2732,14 @@
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2430,8 +2752,10 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2462,8 +2786,14 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2494,8 +2824,14 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2503,16 +2839,16 @@
         <v>0</v>
       </c>
       <c r="E70" s="3">
-        <v>1437400</v>
+        <v>0</v>
       </c>
       <c r="F70" s="3">
-        <v>947200</v>
+        <v>0</v>
       </c>
       <c r="G70" s="3">
-        <v>0</v>
+        <v>1461500</v>
       </c>
       <c r="H70" s="3">
-        <v>0</v>
+        <v>963100</v>
       </c>
       <c r="I70" s="3">
         <v>0</v>
@@ -2526,8 +2862,14 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2558,25 +2900,31 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-1330300</v>
+        <v>-1497600</v>
       </c>
       <c r="E72" s="3">
-        <v>-1418200</v>
+        <v>-1455800</v>
       </c>
       <c r="F72" s="3">
-        <v>-847400</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H72" s="3" t="s">
-        <v>3</v>
+        <v>-1352600</v>
+      </c>
+      <c r="G72" s="3">
+        <v>-1442000</v>
+      </c>
+      <c r="H72" s="3">
+        <v>-861600</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
@@ -2590,8 +2938,14 @@
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2622,8 +2976,14 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2654,8 +3014,14 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2686,25 +3052,31 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>317800</v>
+        <v>193700</v>
       </c>
       <c r="E76" s="3">
-        <v>-1408600</v>
+        <v>230900</v>
       </c>
       <c r="F76" s="3">
-        <v>-833400</v>
-      </c>
-      <c r="G76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H76" s="3" t="s">
-        <v>3</v>
+        <v>323200</v>
+      </c>
+      <c r="G76" s="3">
+        <v>-1432200</v>
+      </c>
+      <c r="H76" s="3">
+        <v>-847400</v>
       </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
@@ -2718,8 +3090,14 @@
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2750,77 +3128,95 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="N80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>85100</v>
+        <v>-41800</v>
       </c>
       <c r="E81" s="3">
-        <v>-579600</v>
-      </c>
-      <c r="F81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H81" s="3">
-        <v>-51500</v>
-      </c>
-      <c r="I81" s="3">
+        <v>-103300</v>
+      </c>
+      <c r="F81" s="3">
+        <v>86500</v>
+      </c>
+      <c r="G81" s="3">
+        <v>-589400</v>
+      </c>
+      <c r="H81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J81" s="3">
+        <v>-52400</v>
+      </c>
+      <c r="K81" s="3">
         <v>-71100</v>
       </c>
-      <c r="J81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2833,25 +3229,27 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3">
-        <v>1800</v>
-      </c>
-      <c r="E83" s="3">
-        <v>1700</v>
+      <c r="D83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>3</v>
+      <c r="G83" s="3">
+        <v>4400</v>
+      </c>
+      <c r="H83" s="3">
+        <v>2700</v>
       </c>
       <c r="I83" s="3" t="s">
         <v>3</v>
@@ -2865,8 +3263,14 @@
       <c r="L83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2897,8 +3301,14 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2929,8 +3339,14 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2961,8 +3377,14 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2993,8 +3415,14 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3025,25 +3453,31 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3">
-        <v>500</v>
-      </c>
-      <c r="E89" s="3">
-        <v>-47400</v>
+      <c r="D89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>3</v>
+      <c r="G89" s="3">
+        <v>-82400</v>
+      </c>
+      <c r="H89" s="3">
+        <v>-34200</v>
       </c>
       <c r="I89" s="3" t="s">
         <v>3</v>
@@ -3057,8 +3491,14 @@
       <c r="L89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3071,25 +3511,27 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
-        <v>-4600</v>
-      </c>
-      <c r="E91" s="3">
-        <v>-4100</v>
+      <c r="D91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>3</v>
+      <c r="G91" s="3">
+        <v>-9400</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-5200</v>
       </c>
       <c r="I91" s="3" t="s">
         <v>3</v>
@@ -3103,8 +3545,14 @@
       <c r="L91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3135,8 +3583,14 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3167,25 +3621,31 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
-        <v>-4600</v>
-      </c>
-      <c r="E94" s="3">
-        <v>-4100</v>
+      <c r="D94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>3</v>
+      <c r="G94" s="3">
+        <v>-9400</v>
+      </c>
+      <c r="H94" s="3">
+        <v>-5200</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>3</v>
@@ -3199,8 +3659,14 @@
       <c r="L94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3213,8 +3679,10 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3245,8 +3713,14 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3277,8 +3751,14 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3309,8 +3789,14 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3341,25 +3827,31 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3">
-        <v>310300</v>
-      </c>
-      <c r="E100" s="3">
-        <v>-10300</v>
+      <c r="D100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>3</v>
+      <c r="G100" s="3">
+        <v>122500</v>
+      </c>
+      <c r="H100" s="3">
+        <v>132900</v>
       </c>
       <c r="I100" s="3" t="s">
         <v>3</v>
@@ -3373,25 +3865,31 @@
       <c r="L100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3">
-        <v>-2000</v>
-      </c>
-      <c r="E101" s="3">
-        <v>-4500</v>
+      <c r="D101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H101" s="3" t="s">
-        <v>3</v>
+      <c r="G101" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="H101" s="3">
+        <v>500</v>
       </c>
       <c r="I101" s="3" t="s">
         <v>3</v>
@@ -3405,25 +3903,31 @@
       <c r="L101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3">
-        <v>304300</v>
-      </c>
-      <c r="E102" s="3">
-        <v>-66300</v>
+      <c r="D102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H102" s="3" t="s">
-        <v>3</v>
+      <c r="G102" s="3">
+        <v>26600</v>
+      </c>
+      <c r="H102" s="3">
+        <v>94100</v>
       </c>
       <c r="I102" s="3" t="s">
         <v>3</v>
@@ -3435,6 +3939,12 @@
         <v>3</v>
       </c>
       <c r="L102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/YQ_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/YQ_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="92">
   <si>
     <t>YQ</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,181 +665,206 @@
     <col min="1" max="1" width="4.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>105000</v>
+        <v>85600</v>
       </c>
       <c r="E8" s="3">
-        <v>74200</v>
+        <v>78400</v>
       </c>
       <c r="F8" s="3">
-        <v>76200</v>
+        <v>105800</v>
       </c>
       <c r="G8" s="3">
-        <v>48100</v>
+        <v>74800</v>
       </c>
       <c r="H8" s="3">
-        <v>42500</v>
+        <v>76800</v>
       </c>
       <c r="I8" s="3">
+        <v>48400</v>
+      </c>
+      <c r="J8" s="3">
+        <v>42800</v>
+      </c>
+      <c r="K8" s="3">
         <v>35900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>30100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>16300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>8500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>8200</v>
       </c>
-      <c r="N8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>38800</v>
+        <v>30200</v>
       </c>
       <c r="E9" s="3">
-        <v>29400</v>
+        <v>39700</v>
       </c>
       <c r="F9" s="3">
-        <v>27200</v>
+        <v>39100</v>
       </c>
       <c r="G9" s="3">
-        <v>22200</v>
+        <v>29600</v>
       </c>
       <c r="H9" s="3">
-        <v>15300</v>
+        <v>27400</v>
       </c>
       <c r="I9" s="3">
+        <v>22400</v>
+      </c>
+      <c r="J9" s="3">
+        <v>15500</v>
+      </c>
+      <c r="K9" s="3">
         <v>12900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>11200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>8500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>4400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>2800</v>
       </c>
-      <c r="N9" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>66200</v>
+        <v>55400</v>
       </c>
       <c r="E10" s="3">
-        <v>44900</v>
+        <v>38700</v>
       </c>
       <c r="F10" s="3">
-        <v>49000</v>
+        <v>66700</v>
       </c>
       <c r="G10" s="3">
-        <v>25900</v>
+        <v>45200</v>
       </c>
       <c r="H10" s="3">
-        <v>27100</v>
+        <v>49400</v>
       </c>
       <c r="I10" s="3">
+        <v>26100</v>
+      </c>
+      <c r="J10" s="3">
+        <v>27400</v>
+      </c>
+      <c r="K10" s="3">
         <v>23000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>19000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>7700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>4100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>5400</v>
       </c>
-      <c r="N10" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -854,46 +879,54 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>35900</v>
+        <v>25200</v>
       </c>
       <c r="E12" s="3">
-        <v>32900</v>
+        <v>31700</v>
       </c>
       <c r="F12" s="3">
-        <v>30100</v>
+        <v>36200</v>
       </c>
       <c r="G12" s="3">
-        <v>24000</v>
+        <v>33100</v>
       </c>
       <c r="H12" s="3">
-        <v>21400</v>
+        <v>30300</v>
       </c>
       <c r="I12" s="3">
+        <v>24200</v>
+      </c>
+      <c r="J12" s="3">
+        <v>21500</v>
+      </c>
+      <c r="K12" s="3">
         <v>20800</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>20100</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>19100</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>18500</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>18100</v>
       </c>
-      <c r="N12" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -930,19 +963,25 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>8900</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>3</v>
+        <v>5300</v>
+      </c>
+      <c r="E14" s="3">
+        <v>4900</v>
+      </c>
+      <c r="F14" s="3">
+        <v>9000</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>3</v>
@@ -956,11 +995,11 @@
       <c r="J14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
@@ -968,8 +1007,14 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1006,8 +1051,14 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1019,84 +1070,98 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>148800</v>
+        <v>90200</v>
       </c>
       <c r="E17" s="3">
-        <v>178600</v>
+        <v>157000</v>
       </c>
       <c r="F17" s="3">
-        <v>133100</v>
+        <v>150000</v>
       </c>
       <c r="G17" s="3">
-        <v>137800</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J17" s="3">
+        <v>180000</v>
+      </c>
+      <c r="H17" s="3">
+        <v>134100</v>
+      </c>
+      <c r="I17" s="3">
+        <v>138800</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L17" s="3">
         <v>58500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>65900</v>
       </c>
-      <c r="L17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-43800</v>
+        <v>-4600</v>
       </c>
       <c r="E18" s="3">
-        <v>-104400</v>
+        <v>-78600</v>
       </c>
       <c r="F18" s="3">
-        <v>-56900</v>
+        <v>-44100</v>
       </c>
       <c r="G18" s="3">
-        <v>-89700</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J18" s="3">
+        <v>-105200</v>
+      </c>
+      <c r="H18" s="3">
+        <v>-57300</v>
+      </c>
+      <c r="I18" s="3">
+        <v>-90400</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L18" s="3">
         <v>-28400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-49600</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1111,46 +1176,54 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>2000</v>
+        <v>500</v>
       </c>
       <c r="E20" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F20" s="3">
+        <v>2100</v>
+      </c>
+      <c r="G20" s="3">
         <v>1100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>-300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>-1200</v>
       </c>
-      <c r="H20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J20" s="3">
+      <c r="J20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L20" s="3">
         <v>600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>2200</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1163,32 +1236,38 @@
       <c r="F21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G21" s="3">
-        <v>-86500</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J21" s="3">
+      <c r="G21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H21" s="3">
+        <v>-51300</v>
+      </c>
+      <c r="I21" s="3">
+        <v>-87200</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L21" s="3">
         <v>-24300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-44800</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1198,73 +1277,85 @@
       <c r="E22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F22" s="3">
-        <v>0</v>
-      </c>
-      <c r="G22" s="3">
-        <v>0</v>
+      <c r="F22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H22" s="3">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3">
         <v>300</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>200</v>
       </c>
-      <c r="J22" s="3">
-        <v>0</v>
-      </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3">
         <v>100</v>
       </c>
-      <c r="L22" s="3">
-        <v>0</v>
-      </c>
-      <c r="M22" s="3">
-        <v>0</v>
-      </c>
-      <c r="N22" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-41800</v>
+        <v>-4000</v>
       </c>
       <c r="E23" s="3">
-        <v>-103300</v>
+        <v>-77300</v>
       </c>
       <c r="F23" s="3">
-        <v>-57200</v>
+        <v>-42100</v>
       </c>
       <c r="G23" s="3">
-        <v>-90900</v>
+        <v>-104100</v>
       </c>
       <c r="H23" s="3">
-        <v>-26600</v>
+        <v>-57600</v>
       </c>
       <c r="I23" s="3">
+        <v>-91600</v>
+      </c>
+      <c r="J23" s="3">
+        <v>-26800</v>
+      </c>
+      <c r="K23" s="3">
         <v>-35100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-27800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-47500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-36100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-37100</v>
       </c>
-      <c r="N23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="P23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1301,8 +1392,14 @@
       <c r="N24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1339,84 +1436,102 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-41800</v>
+        <v>-4000</v>
       </c>
       <c r="E26" s="3">
-        <v>-103300</v>
+        <v>-77300</v>
       </c>
       <c r="F26" s="3">
-        <v>-57200</v>
+        <v>-42100</v>
       </c>
       <c r="G26" s="3">
-        <v>-90900</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J26" s="3">
+        <v>-104100</v>
+      </c>
+      <c r="H26" s="3">
+        <v>-57600</v>
+      </c>
+      <c r="I26" s="3">
+        <v>-91600</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L26" s="3">
         <v>-27800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-47500</v>
       </c>
-      <c r="L26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-41800</v>
+        <v>-4000</v>
       </c>
       <c r="E27" s="3">
-        <v>-103300</v>
+        <v>-77300</v>
       </c>
       <c r="F27" s="3">
-        <v>86500</v>
+        <v>-42100</v>
       </c>
       <c r="G27" s="3">
-        <v>-589400</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J27" s="3">
+        <v>-104100</v>
+      </c>
+      <c r="H27" s="3">
+        <v>87200</v>
+      </c>
+      <c r="I27" s="3">
+        <v>-593900</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L27" s="3">
         <v>-52400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-71100</v>
       </c>
-      <c r="L27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1453,8 +1568,14 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1491,8 +1612,14 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1529,8 +1656,14 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1567,84 +1700,102 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-2000</v>
+        <v>-500</v>
       </c>
       <c r="E32" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="F32" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="G32" s="3">
         <v>-1100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>1200</v>
       </c>
-      <c r="H32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J32" s="3">
+      <c r="J32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L32" s="3">
         <v>-600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-2200</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-41800</v>
+        <v>-4000</v>
       </c>
       <c r="E33" s="3">
-        <v>-103300</v>
+        <v>-77300</v>
       </c>
       <c r="F33" s="3">
-        <v>86500</v>
+        <v>-42100</v>
       </c>
       <c r="G33" s="3">
-        <v>-589400</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J33" s="3">
+        <v>-104100</v>
+      </c>
+      <c r="H33" s="3">
+        <v>87200</v>
+      </c>
+      <c r="I33" s="3">
+        <v>-593900</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L33" s="3">
         <v>-52400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-71100</v>
       </c>
-      <c r="L33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1681,89 +1832,107 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-41800</v>
+        <v>-4000</v>
       </c>
       <c r="E35" s="3">
-        <v>-103300</v>
+        <v>-77300</v>
       </c>
       <c r="F35" s="3">
-        <v>86500</v>
+        <v>-42100</v>
       </c>
       <c r="G35" s="3">
-        <v>-589400</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J35" s="3">
+        <v>-104100</v>
+      </c>
+      <c r="H35" s="3">
+        <v>87200</v>
+      </c>
+      <c r="I35" s="3">
+        <v>-593900</v>
+      </c>
+      <c r="J35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L35" s="3">
         <v>-52400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-71100</v>
       </c>
-      <c r="L35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="P38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1778,8 +1947,10 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1794,31 +1965,33 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>338200</v>
+        <v>186300</v>
       </c>
       <c r="E41" s="3">
-        <v>350700</v>
+        <v>224400</v>
       </c>
       <c r="F41" s="3">
-        <v>443800</v>
+        <v>340800</v>
       </c>
       <c r="G41" s="3">
-        <v>127500</v>
+        <v>353400</v>
       </c>
       <c r="H41" s="3">
-        <v>196400</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J41" s="3" t="s">
-        <v>3</v>
+        <v>447200</v>
+      </c>
+      <c r="I41" s="3">
+        <v>128400</v>
+      </c>
+      <c r="J41" s="3">
+        <v>197900</v>
       </c>
       <c r="K41" s="3" t="s">
         <v>3</v>
@@ -1832,8 +2005,14 @@
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1870,8 +2049,14 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1881,20 +2066,20 @@
       <c r="E43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F43" s="3">
+      <c r="F43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H43" s="3">
         <v>1200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>2000</v>
       </c>
-      <c r="H43" s="3">
-        <v>4100</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J43" s="3" t="s">
-        <v>3</v>
+      <c r="J43" s="3">
+        <v>4200</v>
       </c>
       <c r="K43" s="3" t="s">
         <v>3</v>
@@ -1908,8 +2093,14 @@
       <c r="N43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1946,31 +2137,37 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>29100</v>
+        <v>25500</v>
       </c>
       <c r="E45" s="3">
-        <v>29100</v>
+        <v>24300</v>
       </c>
       <c r="F45" s="3">
-        <v>32000</v>
+        <v>29300</v>
       </c>
       <c r="G45" s="3">
-        <v>25500</v>
+        <v>29300</v>
       </c>
       <c r="H45" s="3">
-        <v>16900</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J45" s="3" t="s">
-        <v>3</v>
+        <v>32200</v>
+      </c>
+      <c r="I45" s="3">
+        <v>25700</v>
+      </c>
+      <c r="J45" s="3">
+        <v>17100</v>
       </c>
       <c r="K45" s="3" t="s">
         <v>3</v>
@@ -1984,31 +2181,37 @@
       <c r="N45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>367200</v>
+        <v>211800</v>
       </c>
       <c r="E46" s="3">
-        <v>379900</v>
+        <v>248700</v>
       </c>
       <c r="F46" s="3">
-        <v>477000</v>
+        <v>370100</v>
       </c>
       <c r="G46" s="3">
-        <v>154900</v>
+        <v>382800</v>
       </c>
       <c r="H46" s="3">
-        <v>217500</v>
-      </c>
-      <c r="I46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J46" s="3" t="s">
-        <v>3</v>
+        <v>480600</v>
+      </c>
+      <c r="I46" s="3">
+        <v>156100</v>
+      </c>
+      <c r="J46" s="3">
+        <v>219100</v>
       </c>
       <c r="K46" s="3" t="s">
         <v>3</v>
@@ -2022,8 +2225,14 @@
       <c r="N46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2060,31 +2269,37 @@
       <c r="N47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>67000</v>
+        <v>35300</v>
       </c>
       <c r="E48" s="3">
-        <v>61500</v>
+        <v>53800</v>
       </c>
       <c r="F48" s="3">
-        <v>47800</v>
+        <v>67600</v>
       </c>
       <c r="G48" s="3">
-        <v>37200</v>
+        <v>62000</v>
       </c>
       <c r="H48" s="3">
-        <v>26000</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J48" s="3" t="s">
-        <v>3</v>
+        <v>48200</v>
+      </c>
+      <c r="I48" s="3">
+        <v>37400</v>
+      </c>
+      <c r="J48" s="3">
+        <v>26200</v>
       </c>
       <c r="K48" s="3" t="s">
         <v>3</v>
@@ -2098,8 +2313,14 @@
       <c r="N48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2136,8 +2357,14 @@
       <c r="N49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2174,8 +2401,14 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2212,32 +2445,38 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>5800</v>
+        <v>2200</v>
       </c>
       <c r="E52" s="3">
-        <v>5700</v>
+        <v>2000</v>
       </c>
       <c r="F52" s="3">
         <v>5900</v>
       </c>
       <c r="G52" s="3">
+        <v>5800</v>
+      </c>
+      <c r="H52" s="3">
+        <v>6000</v>
+      </c>
+      <c r="I52" s="3">
         <v>3500</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>4200</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2250,8 +2489,14 @@
       <c r="N52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2288,31 +2533,37 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>440100</v>
+        <v>249300</v>
       </c>
       <c r="E54" s="3">
-        <v>447100</v>
+        <v>304500</v>
       </c>
       <c r="F54" s="3">
-        <v>530700</v>
+        <v>443500</v>
       </c>
       <c r="G54" s="3">
-        <v>195500</v>
+        <v>450500</v>
       </c>
       <c r="H54" s="3">
-        <v>247600</v>
-      </c>
-      <c r="I54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J54" s="3" t="s">
-        <v>3</v>
+        <v>534800</v>
+      </c>
+      <c r="I54" s="3">
+        <v>197000</v>
+      </c>
+      <c r="J54" s="3">
+        <v>249500</v>
       </c>
       <c r="K54" s="3" t="s">
         <v>3</v>
@@ -2326,8 +2577,14 @@
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2342,8 +2599,10 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2358,8 +2617,10 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2396,8 +2657,14 @@
       <c r="N57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3">
+        <v>0</v>
+      </c>
+      <c r="P57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2407,20 +2674,20 @@
       <c r="E58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F58" s="3">
-        <v>0</v>
-      </c>
-      <c r="G58" s="3">
+      <c r="F58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H58" s="3">
+        <v>0</v>
+      </c>
+      <c r="I58" s="3">
         <v>2800</v>
       </c>
-      <c r="H58" s="3">
-        <v>13300</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>3</v>
+      <c r="J58" s="3">
+        <v>13400</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>3</v>
@@ -2434,31 +2701,37 @@
       <c r="N58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>217300</v>
+        <v>107800</v>
       </c>
       <c r="E59" s="3">
-        <v>192300</v>
+        <v>160200</v>
       </c>
       <c r="F59" s="3">
-        <v>188700</v>
+        <v>219000</v>
       </c>
       <c r="G59" s="3">
-        <v>150500</v>
+        <v>193700</v>
       </c>
       <c r="H59" s="3">
-        <v>113100</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J59" s="3" t="s">
-        <v>3</v>
+        <v>190200</v>
+      </c>
+      <c r="I59" s="3">
+        <v>151700</v>
+      </c>
+      <c r="J59" s="3">
+        <v>113900</v>
       </c>
       <c r="K59" s="3" t="s">
         <v>3</v>
@@ -2472,31 +2745,37 @@
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>217300</v>
+        <v>107800</v>
       </c>
       <c r="E60" s="3">
-        <v>192300</v>
+        <v>160200</v>
       </c>
       <c r="F60" s="3">
-        <v>188700</v>
+        <v>219000</v>
       </c>
       <c r="G60" s="3">
-        <v>153300</v>
+        <v>193700</v>
       </c>
       <c r="H60" s="3">
-        <v>126400</v>
-      </c>
-      <c r="I60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J60" s="3" t="s">
-        <v>3</v>
+        <v>190200</v>
+      </c>
+      <c r="I60" s="3">
+        <v>154500</v>
+      </c>
+      <c r="J60" s="3">
+        <v>127300</v>
       </c>
       <c r="K60" s="3" t="s">
         <v>3</v>
@@ -2510,8 +2789,14 @@
       <c r="N60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2548,31 +2833,37 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>29200</v>
+        <v>15800</v>
       </c>
       <c r="E62" s="3">
-        <v>23900</v>
+        <v>19900</v>
       </c>
       <c r="F62" s="3">
-        <v>18800</v>
+        <v>29400</v>
       </c>
       <c r="G62" s="3">
-        <v>12900</v>
+        <v>24100</v>
       </c>
       <c r="H62" s="3">
-        <v>5500</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J62" s="3" t="s">
-        <v>3</v>
+        <v>18900</v>
+      </c>
+      <c r="I62" s="3">
+        <v>13000</v>
+      </c>
+      <c r="J62" s="3">
+        <v>5600</v>
       </c>
       <c r="K62" s="3" t="s">
         <v>3</v>
@@ -2586,8 +2877,14 @@
       <c r="N62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2624,8 +2921,14 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2662,8 +2965,14 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2700,31 +3009,37 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>246500</v>
+        <v>123600</v>
       </c>
       <c r="E66" s="3">
-        <v>216200</v>
+        <v>180100</v>
       </c>
       <c r="F66" s="3">
-        <v>207500</v>
+        <v>248300</v>
       </c>
       <c r="G66" s="3">
-        <v>166300</v>
+        <v>217900</v>
       </c>
       <c r="H66" s="3">
-        <v>131900</v>
-      </c>
-      <c r="I66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J66" s="3" t="s">
-        <v>3</v>
+        <v>209100</v>
+      </c>
+      <c r="I66" s="3">
+        <v>167500</v>
+      </c>
+      <c r="J66" s="3">
+        <v>132900</v>
       </c>
       <c r="K66" s="3" t="s">
         <v>3</v>
@@ -2738,8 +3053,14 @@
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2754,8 +3075,10 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2792,8 +3115,14 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2830,8 +3159,14 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2845,16 +3180,16 @@
         <v>0</v>
       </c>
       <c r="G70" s="3">
-        <v>1461500</v>
+        <v>0</v>
       </c>
       <c r="H70" s="3">
-        <v>963100</v>
+        <v>0</v>
       </c>
       <c r="I70" s="3">
-        <v>0</v>
+        <v>1472700</v>
       </c>
       <c r="J70" s="3">
-        <v>0</v>
+        <v>970500</v>
       </c>
       <c r="K70" s="3">
         <v>0</v>
@@ -2868,8 +3203,14 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2906,31 +3247,37 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-1497600</v>
+        <v>-1590400</v>
       </c>
       <c r="E72" s="3">
-        <v>-1455800</v>
+        <v>-1586400</v>
       </c>
       <c r="F72" s="3">
-        <v>-1352600</v>
+        <v>-1509100</v>
       </c>
       <c r="G72" s="3">
-        <v>-1442000</v>
+        <v>-1467000</v>
       </c>
       <c r="H72" s="3">
-        <v>-861600</v>
-      </c>
-      <c r="I72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J72" s="3" t="s">
-        <v>3</v>
+        <v>-1362900</v>
+      </c>
+      <c r="I72" s="3">
+        <v>-1453100</v>
+      </c>
+      <c r="J72" s="3">
+        <v>-868200</v>
       </c>
       <c r="K72" s="3" t="s">
         <v>3</v>
@@ -2944,8 +3291,14 @@
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2982,8 +3335,14 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3020,8 +3379,14 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3058,31 +3423,37 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>193700</v>
+        <v>125700</v>
       </c>
       <c r="E76" s="3">
-        <v>230900</v>
+        <v>124400</v>
       </c>
       <c r="F76" s="3">
-        <v>323200</v>
+        <v>195200</v>
       </c>
       <c r="G76" s="3">
-        <v>-1432200</v>
+        <v>232600</v>
       </c>
       <c r="H76" s="3">
-        <v>-847400</v>
-      </c>
-      <c r="I76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J76" s="3" t="s">
-        <v>3</v>
+        <v>325600</v>
+      </c>
+      <c r="I76" s="3">
+        <v>-1443200</v>
+      </c>
+      <c r="J76" s="3">
+        <v>-853800</v>
       </c>
       <c r="K76" s="3" t="s">
         <v>3</v>
@@ -3096,8 +3467,14 @@
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3134,89 +3511,107 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="P80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-41800</v>
+        <v>-4000</v>
       </c>
       <c r="E81" s="3">
-        <v>-103300</v>
+        <v>-77300</v>
       </c>
       <c r="F81" s="3">
-        <v>86500</v>
+        <v>-42100</v>
       </c>
       <c r="G81" s="3">
-        <v>-589400</v>
-      </c>
-      <c r="H81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J81" s="3">
+        <v>-104100</v>
+      </c>
+      <c r="H81" s="3">
+        <v>87200</v>
+      </c>
+      <c r="I81" s="3">
+        <v>-593900</v>
+      </c>
+      <c r="J81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L81" s="3">
         <v>-52400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-71100</v>
       </c>
-      <c r="L81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3231,8 +3626,10 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3245,15 +3642,15 @@
       <c r="F83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G83" s="3">
+      <c r="G83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H83" s="3">
+        <v>6300</v>
+      </c>
+      <c r="I83" s="3">
         <v>4400</v>
       </c>
-      <c r="H83" s="3">
-        <v>2700</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J83" s="3" t="s">
         <v>3</v>
       </c>
@@ -3269,8 +3666,14 @@
       <c r="N83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3307,8 +3710,14 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3345,8 +3754,14 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3383,8 +3798,14 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3421,8 +3842,14 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3459,8 +3886,14 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3473,14 +3906,14 @@
       <c r="F89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G89" s="3">
-        <v>-82400</v>
+      <c r="G89" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H89" s="3">
-        <v>-34200</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>3</v>
+        <v>-82500</v>
+      </c>
+      <c r="I89" s="3">
+        <v>-83000</v>
       </c>
       <c r="J89" s="3" t="s">
         <v>3</v>
@@ -3497,8 +3930,14 @@
       <c r="N89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3513,8 +3952,10 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3527,14 +3968,14 @@
       <c r="F91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G91" s="3">
-        <v>-9400</v>
+      <c r="G91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H91" s="3">
-        <v>-5200</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>3</v>
+        <v>-14100</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-9500</v>
       </c>
       <c r="J91" s="3" t="s">
         <v>3</v>
@@ -3551,8 +3992,14 @@
       <c r="N91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3589,8 +4036,14 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3627,8 +4080,14 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3641,14 +4100,14 @@
       <c r="F94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G94" s="3">
-        <v>-9400</v>
+      <c r="G94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H94" s="3">
-        <v>-5200</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>3</v>
+        <v>-14100</v>
+      </c>
+      <c r="I94" s="3">
+        <v>-9500</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>3</v>
@@ -3665,8 +4124,14 @@
       <c r="N94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3681,8 +4146,10 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3719,8 +4186,14 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3757,8 +4230,14 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3795,8 +4274,14 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3833,8 +4318,14 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -3847,14 +4338,14 @@
       <c r="F100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G100" s="3">
-        <v>122500</v>
+      <c r="G100" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H100" s="3">
-        <v>132900</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>3</v>
+        <v>441300</v>
+      </c>
+      <c r="I100" s="3">
+        <v>123400</v>
       </c>
       <c r="J100" s="3" t="s">
         <v>3</v>
@@ -3871,8 +4362,14 @@
       <c r="N100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3885,15 +4382,15 @@
       <c r="F101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G101" s="3">
+      <c r="G101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H101" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="I101" s="3">
         <v>-4000</v>
       </c>
-      <c r="H101" s="3">
-        <v>500</v>
-      </c>
-      <c r="I101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J101" s="3" t="s">
         <v>3</v>
       </c>
@@ -3909,8 +4406,14 @@
       <c r="N101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -3923,14 +4426,14 @@
       <c r="F102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G102" s="3">
-        <v>26600</v>
+      <c r="G102" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H102" s="3">
-        <v>94100</v>
-      </c>
-      <c r="I102" s="3" t="s">
-        <v>3</v>
+        <v>338600</v>
+      </c>
+      <c r="I102" s="3">
+        <v>26800</v>
       </c>
       <c r="J102" s="3" t="s">
         <v>3</v>
@@ -3945,6 +4448,12 @@
         <v>3</v>
       </c>
       <c r="N102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/YQ_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/YQ_QTR_FIN.xlsx
@@ -737,25 +737,25 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>85600</v>
+        <v>79900</v>
       </c>
       <c r="E8" s="3">
-        <v>78400</v>
+        <v>73200</v>
       </c>
       <c r="F8" s="3">
-        <v>105800</v>
+        <v>98900</v>
       </c>
       <c r="G8" s="3">
-        <v>74800</v>
+        <v>69900</v>
       </c>
       <c r="H8" s="3">
-        <v>76800</v>
+        <v>71700</v>
       </c>
       <c r="I8" s="3">
-        <v>48400</v>
+        <v>45300</v>
       </c>
       <c r="J8" s="3">
-        <v>42800</v>
+        <v>40000</v>
       </c>
       <c r="K8" s="3">
         <v>35900</v>
@@ -781,25 +781,25 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>30200</v>
+        <v>28200</v>
       </c>
       <c r="E9" s="3">
-        <v>39700</v>
+        <v>37100</v>
       </c>
       <c r="F9" s="3">
-        <v>39100</v>
+        <v>36500</v>
       </c>
       <c r="G9" s="3">
-        <v>29600</v>
+        <v>27600</v>
       </c>
       <c r="H9" s="3">
-        <v>27400</v>
+        <v>25600</v>
       </c>
       <c r="I9" s="3">
-        <v>22400</v>
+        <v>20900</v>
       </c>
       <c r="J9" s="3">
-        <v>15500</v>
+        <v>14400</v>
       </c>
       <c r="K9" s="3">
         <v>12900</v>
@@ -825,25 +825,25 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>55400</v>
+        <v>51800</v>
       </c>
       <c r="E10" s="3">
-        <v>38700</v>
+        <v>36200</v>
       </c>
       <c r="F10" s="3">
-        <v>66700</v>
+        <v>62300</v>
       </c>
       <c r="G10" s="3">
-        <v>45200</v>
+        <v>42200</v>
       </c>
       <c r="H10" s="3">
-        <v>49400</v>
+        <v>46200</v>
       </c>
       <c r="I10" s="3">
-        <v>26100</v>
+        <v>24300</v>
       </c>
       <c r="J10" s="3">
-        <v>27400</v>
+        <v>25600</v>
       </c>
       <c r="K10" s="3">
         <v>23000</v>
@@ -887,25 +887,25 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>25200</v>
+        <v>23500</v>
       </c>
       <c r="E12" s="3">
-        <v>31700</v>
+        <v>29600</v>
       </c>
       <c r="F12" s="3">
-        <v>36200</v>
+        <v>33800</v>
       </c>
       <c r="G12" s="3">
-        <v>33100</v>
+        <v>30900</v>
       </c>
       <c r="H12" s="3">
-        <v>30300</v>
+        <v>28300</v>
       </c>
       <c r="I12" s="3">
-        <v>24200</v>
+        <v>22600</v>
       </c>
       <c r="J12" s="3">
-        <v>21500</v>
+        <v>20100</v>
       </c>
       <c r="K12" s="3">
         <v>20800</v>
@@ -975,13 +975,13 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>5300</v>
+        <v>4900</v>
       </c>
       <c r="E14" s="3">
-        <v>4900</v>
+        <v>4500</v>
       </c>
       <c r="F14" s="3">
-        <v>9000</v>
+        <v>8400</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>3</v>
@@ -1078,22 +1078,22 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>90200</v>
+        <v>84200</v>
       </c>
       <c r="E17" s="3">
-        <v>157000</v>
+        <v>146600</v>
       </c>
       <c r="F17" s="3">
-        <v>150000</v>
+        <v>140100</v>
       </c>
       <c r="G17" s="3">
-        <v>180000</v>
+        <v>168100</v>
       </c>
       <c r="H17" s="3">
-        <v>134100</v>
+        <v>125200</v>
       </c>
       <c r="I17" s="3">
-        <v>138800</v>
+        <v>129700</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>3</v>
@@ -1122,22 +1122,22 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-4600</v>
+        <v>-4300</v>
       </c>
       <c r="E18" s="3">
-        <v>-78600</v>
+        <v>-73400</v>
       </c>
       <c r="F18" s="3">
-        <v>-44100</v>
+        <v>-41200</v>
       </c>
       <c r="G18" s="3">
-        <v>-105200</v>
+        <v>-98200</v>
       </c>
       <c r="H18" s="3">
-        <v>-57300</v>
+        <v>-53500</v>
       </c>
       <c r="I18" s="3">
-        <v>-90400</v>
+        <v>-84400</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>3</v>
@@ -1187,13 +1187,13 @@
         <v>500</v>
       </c>
       <c r="E20" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="F20" s="3">
-        <v>2100</v>
+        <v>1900</v>
       </c>
       <c r="G20" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="H20" s="3">
         <v>-300</v>
@@ -1240,10 +1240,10 @@
         <v>3</v>
       </c>
       <c r="H21" s="3">
-        <v>-51300</v>
+        <v>-47900</v>
       </c>
       <c r="I21" s="3">
-        <v>-87200</v>
+        <v>-81400</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>3</v>
@@ -1316,25 +1316,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-4000</v>
+        <v>-3800</v>
       </c>
       <c r="E23" s="3">
-        <v>-77300</v>
+        <v>-72200</v>
       </c>
       <c r="F23" s="3">
-        <v>-42100</v>
+        <v>-39300</v>
       </c>
       <c r="G23" s="3">
-        <v>-104100</v>
+        <v>-97200</v>
       </c>
       <c r="H23" s="3">
-        <v>-57600</v>
+        <v>-53800</v>
       </c>
       <c r="I23" s="3">
-        <v>-91600</v>
+        <v>-85600</v>
       </c>
       <c r="J23" s="3">
-        <v>-26800</v>
+        <v>-25000</v>
       </c>
       <c r="K23" s="3">
         <v>-35100</v>
@@ -1448,22 +1448,22 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-4000</v>
+        <v>-3800</v>
       </c>
       <c r="E26" s="3">
-        <v>-77300</v>
+        <v>-72200</v>
       </c>
       <c r="F26" s="3">
-        <v>-42100</v>
+        <v>-39300</v>
       </c>
       <c r="G26" s="3">
-        <v>-104100</v>
+        <v>-97200</v>
       </c>
       <c r="H26" s="3">
-        <v>-57600</v>
+        <v>-53800</v>
       </c>
       <c r="I26" s="3">
-        <v>-91600</v>
+        <v>-85600</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>3</v>
@@ -1492,22 +1492,22 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-4000</v>
+        <v>-3800</v>
       </c>
       <c r="E27" s="3">
-        <v>-77300</v>
+        <v>-72200</v>
       </c>
       <c r="F27" s="3">
-        <v>-42100</v>
+        <v>-39300</v>
       </c>
       <c r="G27" s="3">
-        <v>-104100</v>
+        <v>-97200</v>
       </c>
       <c r="H27" s="3">
-        <v>87200</v>
+        <v>81400</v>
       </c>
       <c r="I27" s="3">
-        <v>-593900</v>
+        <v>-554700</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>3</v>
@@ -1715,13 +1715,13 @@
         <v>-500</v>
       </c>
       <c r="E32" s="3">
-        <v>-1300</v>
+        <v>-1200</v>
       </c>
       <c r="F32" s="3">
-        <v>-2100</v>
+        <v>-1900</v>
       </c>
       <c r="G32" s="3">
-        <v>-1100</v>
+        <v>-1000</v>
       </c>
       <c r="H32" s="3">
         <v>300</v>
@@ -1756,22 +1756,22 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-4000</v>
+        <v>-3800</v>
       </c>
       <c r="E33" s="3">
-        <v>-77300</v>
+        <v>-72200</v>
       </c>
       <c r="F33" s="3">
-        <v>-42100</v>
+        <v>-39300</v>
       </c>
       <c r="G33" s="3">
-        <v>-104100</v>
+        <v>-97200</v>
       </c>
       <c r="H33" s="3">
-        <v>87200</v>
+        <v>81400</v>
       </c>
       <c r="I33" s="3">
-        <v>-593900</v>
+        <v>-554700</v>
       </c>
       <c r="J33" s="3" t="s">
         <v>3</v>
@@ -1844,22 +1844,22 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-4000</v>
+        <v>-3800</v>
       </c>
       <c r="E35" s="3">
-        <v>-77300</v>
+        <v>-72200</v>
       </c>
       <c r="F35" s="3">
-        <v>-42100</v>
+        <v>-39300</v>
       </c>
       <c r="G35" s="3">
-        <v>-104100</v>
+        <v>-97200</v>
       </c>
       <c r="H35" s="3">
-        <v>87200</v>
+        <v>81400</v>
       </c>
       <c r="I35" s="3">
-        <v>-593900</v>
+        <v>-554700</v>
       </c>
       <c r="J35" s="3" t="s">
         <v>3</v>
@@ -1973,25 +1973,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>186300</v>
+        <v>174000</v>
       </c>
       <c r="E41" s="3">
-        <v>224400</v>
+        <v>209600</v>
       </c>
       <c r="F41" s="3">
-        <v>340800</v>
+        <v>318300</v>
       </c>
       <c r="G41" s="3">
-        <v>353400</v>
+        <v>330100</v>
       </c>
       <c r="H41" s="3">
-        <v>447200</v>
+        <v>417800</v>
       </c>
       <c r="I41" s="3">
-        <v>128400</v>
+        <v>120000</v>
       </c>
       <c r="J41" s="3">
-        <v>197900</v>
+        <v>184900</v>
       </c>
       <c r="K41" s="3" t="s">
         <v>3</v>
@@ -2073,13 +2073,13 @@
         <v>3</v>
       </c>
       <c r="H43" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="I43" s="3">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="J43" s="3">
-        <v>4200</v>
+        <v>3900</v>
       </c>
       <c r="K43" s="3" t="s">
         <v>3</v>
@@ -2149,25 +2149,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>25500</v>
+        <v>23800</v>
       </c>
       <c r="E45" s="3">
-        <v>24300</v>
+        <v>22700</v>
       </c>
       <c r="F45" s="3">
-        <v>29300</v>
+        <v>27400</v>
       </c>
       <c r="G45" s="3">
-        <v>29300</v>
+        <v>27400</v>
       </c>
       <c r="H45" s="3">
-        <v>32200</v>
+        <v>30100</v>
       </c>
       <c r="I45" s="3">
-        <v>25700</v>
+        <v>24000</v>
       </c>
       <c r="J45" s="3">
-        <v>17100</v>
+        <v>15900</v>
       </c>
       <c r="K45" s="3" t="s">
         <v>3</v>
@@ -2193,25 +2193,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>211800</v>
+        <v>197900</v>
       </c>
       <c r="E46" s="3">
-        <v>248700</v>
+        <v>232300</v>
       </c>
       <c r="F46" s="3">
-        <v>370100</v>
+        <v>345700</v>
       </c>
       <c r="G46" s="3">
-        <v>382800</v>
+        <v>357500</v>
       </c>
       <c r="H46" s="3">
-        <v>480600</v>
+        <v>448900</v>
       </c>
       <c r="I46" s="3">
-        <v>156100</v>
+        <v>145800</v>
       </c>
       <c r="J46" s="3">
-        <v>219100</v>
+        <v>204700</v>
       </c>
       <c r="K46" s="3" t="s">
         <v>3</v>
@@ -2281,25 +2281,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>35300</v>
+        <v>33000</v>
       </c>
       <c r="E48" s="3">
-        <v>53800</v>
+        <v>50200</v>
       </c>
       <c r="F48" s="3">
-        <v>67600</v>
+        <v>63100</v>
       </c>
       <c r="G48" s="3">
-        <v>62000</v>
+        <v>57900</v>
       </c>
       <c r="H48" s="3">
-        <v>48200</v>
+        <v>45000</v>
       </c>
       <c r="I48" s="3">
-        <v>37400</v>
+        <v>35000</v>
       </c>
       <c r="J48" s="3">
-        <v>26200</v>
+        <v>24500</v>
       </c>
       <c r="K48" s="3" t="s">
         <v>3</v>
@@ -2457,25 +2457,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="E52" s="3">
-        <v>2000</v>
+        <v>1800</v>
       </c>
       <c r="F52" s="3">
-        <v>5900</v>
+        <v>5500</v>
       </c>
       <c r="G52" s="3">
-        <v>5800</v>
+        <v>5400</v>
       </c>
       <c r="H52" s="3">
-        <v>6000</v>
+        <v>5600</v>
       </c>
       <c r="I52" s="3">
-        <v>3500</v>
+        <v>3300</v>
       </c>
       <c r="J52" s="3">
-        <v>4200</v>
+        <v>3900</v>
       </c>
       <c r="K52" s="3" t="s">
         <v>3</v>
@@ -2545,25 +2545,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>249300</v>
+        <v>232900</v>
       </c>
       <c r="E54" s="3">
-        <v>304500</v>
+        <v>284400</v>
       </c>
       <c r="F54" s="3">
-        <v>443500</v>
+        <v>414300</v>
       </c>
       <c r="G54" s="3">
-        <v>450500</v>
+        <v>420800</v>
       </c>
       <c r="H54" s="3">
-        <v>534800</v>
+        <v>499500</v>
       </c>
       <c r="I54" s="3">
-        <v>197000</v>
+        <v>184100</v>
       </c>
       <c r="J54" s="3">
-        <v>249500</v>
+        <v>233100</v>
       </c>
       <c r="K54" s="3" t="s">
         <v>3</v>
@@ -2684,10 +2684,10 @@
         <v>0</v>
       </c>
       <c r="I58" s="3">
-        <v>2800</v>
+        <v>2700</v>
       </c>
       <c r="J58" s="3">
-        <v>13400</v>
+        <v>12500</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>3</v>
@@ -2713,25 +2713,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>107800</v>
+        <v>100700</v>
       </c>
       <c r="E59" s="3">
-        <v>160200</v>
+        <v>149600</v>
       </c>
       <c r="F59" s="3">
-        <v>219000</v>
+        <v>204500</v>
       </c>
       <c r="G59" s="3">
-        <v>193700</v>
+        <v>181000</v>
       </c>
       <c r="H59" s="3">
-        <v>190200</v>
+        <v>177600</v>
       </c>
       <c r="I59" s="3">
-        <v>151700</v>
+        <v>141700</v>
       </c>
       <c r="J59" s="3">
-        <v>113900</v>
+        <v>106400</v>
       </c>
       <c r="K59" s="3" t="s">
         <v>3</v>
@@ -2757,25 +2757,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>107800</v>
+        <v>100700</v>
       </c>
       <c r="E60" s="3">
-        <v>160200</v>
+        <v>149600</v>
       </c>
       <c r="F60" s="3">
-        <v>219000</v>
+        <v>204500</v>
       </c>
       <c r="G60" s="3">
-        <v>193700</v>
+        <v>181000</v>
       </c>
       <c r="H60" s="3">
-        <v>190200</v>
+        <v>177600</v>
       </c>
       <c r="I60" s="3">
-        <v>154500</v>
+        <v>144300</v>
       </c>
       <c r="J60" s="3">
-        <v>127300</v>
+        <v>119000</v>
       </c>
       <c r="K60" s="3" t="s">
         <v>3</v>
@@ -2845,25 +2845,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>15800</v>
+        <v>14800</v>
       </c>
       <c r="E62" s="3">
-        <v>19900</v>
+        <v>18600</v>
       </c>
       <c r="F62" s="3">
-        <v>29400</v>
+        <v>27400</v>
       </c>
       <c r="G62" s="3">
-        <v>24100</v>
+        <v>22500</v>
       </c>
       <c r="H62" s="3">
-        <v>18900</v>
+        <v>17700</v>
       </c>
       <c r="I62" s="3">
-        <v>13000</v>
+        <v>12200</v>
       </c>
       <c r="J62" s="3">
-        <v>5600</v>
+        <v>5200</v>
       </c>
       <c r="K62" s="3" t="s">
         <v>3</v>
@@ -3021,25 +3021,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>123600</v>
+        <v>115400</v>
       </c>
       <c r="E66" s="3">
-        <v>180100</v>
+        <v>168200</v>
       </c>
       <c r="F66" s="3">
-        <v>248300</v>
+        <v>232000</v>
       </c>
       <c r="G66" s="3">
-        <v>217900</v>
+        <v>203500</v>
       </c>
       <c r="H66" s="3">
-        <v>209100</v>
+        <v>195300</v>
       </c>
       <c r="I66" s="3">
-        <v>167500</v>
+        <v>156500</v>
       </c>
       <c r="J66" s="3">
-        <v>132900</v>
+        <v>124100</v>
       </c>
       <c r="K66" s="3" t="s">
         <v>3</v>
@@ -3186,10 +3186,10 @@
         <v>0</v>
       </c>
       <c r="I70" s="3">
-        <v>1472700</v>
+        <v>1375600</v>
       </c>
       <c r="J70" s="3">
-        <v>970500</v>
+        <v>906500</v>
       </c>
       <c r="K70" s="3">
         <v>0</v>
@@ -3259,25 +3259,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-1590400</v>
+        <v>-1485500</v>
       </c>
       <c r="E72" s="3">
-        <v>-1586400</v>
+        <v>-1481800</v>
       </c>
       <c r="F72" s="3">
-        <v>-1509100</v>
+        <v>-1409600</v>
       </c>
       <c r="G72" s="3">
-        <v>-1467000</v>
+        <v>-1370300</v>
       </c>
       <c r="H72" s="3">
-        <v>-1362900</v>
+        <v>-1273100</v>
       </c>
       <c r="I72" s="3">
-        <v>-1453100</v>
+        <v>-1357300</v>
       </c>
       <c r="J72" s="3">
-        <v>-868200</v>
+        <v>-811000</v>
       </c>
       <c r="K72" s="3" t="s">
         <v>3</v>
@@ -3435,25 +3435,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>125700</v>
+        <v>117500</v>
       </c>
       <c r="E76" s="3">
-        <v>124400</v>
+        <v>116200</v>
       </c>
       <c r="F76" s="3">
-        <v>195200</v>
+        <v>182300</v>
       </c>
       <c r="G76" s="3">
-        <v>232600</v>
+        <v>217300</v>
       </c>
       <c r="H76" s="3">
-        <v>325600</v>
+        <v>304200</v>
       </c>
       <c r="I76" s="3">
-        <v>-1443200</v>
+        <v>-1348100</v>
       </c>
       <c r="J76" s="3">
-        <v>-853800</v>
+        <v>-797600</v>
       </c>
       <c r="K76" s="3" t="s">
         <v>3</v>
@@ -3572,22 +3572,22 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-4000</v>
+        <v>-3800</v>
       </c>
       <c r="E81" s="3">
-        <v>-77300</v>
+        <v>-72200</v>
       </c>
       <c r="F81" s="3">
-        <v>-42100</v>
+        <v>-39300</v>
       </c>
       <c r="G81" s="3">
-        <v>-104100</v>
+        <v>-97200</v>
       </c>
       <c r="H81" s="3">
-        <v>87200</v>
+        <v>81400</v>
       </c>
       <c r="I81" s="3">
-        <v>-593900</v>
+        <v>-554700</v>
       </c>
       <c r="J81" s="3" t="s">
         <v>3</v>
@@ -3646,10 +3646,10 @@
         <v>3</v>
       </c>
       <c r="H83" s="3">
-        <v>6300</v>
+        <v>5900</v>
       </c>
       <c r="I83" s="3">
-        <v>4400</v>
+        <v>4200</v>
       </c>
       <c r="J83" s="3" t="s">
         <v>3</v>
@@ -3910,10 +3910,10 @@
         <v>3</v>
       </c>
       <c r="H89" s="3">
-        <v>-82500</v>
+        <v>-77100</v>
       </c>
       <c r="I89" s="3">
-        <v>-83000</v>
+        <v>-77600</v>
       </c>
       <c r="J89" s="3" t="s">
         <v>3</v>
@@ -3972,10 +3972,10 @@
         <v>3</v>
       </c>
       <c r="H91" s="3">
-        <v>-14100</v>
+        <v>-13200</v>
       </c>
       <c r="I91" s="3">
-        <v>-9500</v>
+        <v>-8800</v>
       </c>
       <c r="J91" s="3" t="s">
         <v>3</v>
@@ -4104,10 +4104,10 @@
         <v>3</v>
       </c>
       <c r="H94" s="3">
-        <v>-14100</v>
+        <v>-13200</v>
       </c>
       <c r="I94" s="3">
-        <v>-9500</v>
+        <v>-8800</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>3</v>
@@ -4342,10 +4342,10 @@
         <v>3</v>
       </c>
       <c r="H100" s="3">
-        <v>441300</v>
+        <v>412200</v>
       </c>
       <c r="I100" s="3">
-        <v>123400</v>
+        <v>115300</v>
       </c>
       <c r="J100" s="3" t="s">
         <v>3</v>
@@ -4386,10 +4386,10 @@
         <v>3</v>
       </c>
       <c r="H101" s="3">
-        <v>-6100</v>
+        <v>-5700</v>
       </c>
       <c r="I101" s="3">
-        <v>-4000</v>
+        <v>-3800</v>
       </c>
       <c r="J101" s="3" t="s">
         <v>3</v>
@@ -4430,10 +4430,10 @@
         <v>3</v>
       </c>
       <c r="H102" s="3">
-        <v>338600</v>
+        <v>316300</v>
       </c>
       <c r="I102" s="3">
-        <v>26800</v>
+        <v>25100</v>
       </c>
       <c r="J102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Quarterly/YQ_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/YQ_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="92">
   <si>
     <t>YQ</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,206 +665,219 @@
     <col min="1" max="1" width="4.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>79900</v>
+        <v>34100</v>
       </c>
       <c r="E8" s="3">
-        <v>73200</v>
+        <v>79200</v>
       </c>
       <c r="F8" s="3">
-        <v>98900</v>
+        <v>72500</v>
       </c>
       <c r="G8" s="3">
-        <v>69900</v>
+        <v>98000</v>
       </c>
       <c r="H8" s="3">
-        <v>71700</v>
+        <v>69200</v>
       </c>
       <c r="I8" s="3">
-        <v>45300</v>
+        <v>71100</v>
       </c>
       <c r="J8" s="3">
+        <v>44800</v>
+      </c>
+      <c r="K8" s="3">
         <v>40000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>35900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>30100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>16300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>8500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>8200</v>
       </c>
-      <c r="P8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>28200</v>
+        <v>13400</v>
       </c>
       <c r="E9" s="3">
-        <v>37100</v>
+        <v>27900</v>
       </c>
       <c r="F9" s="3">
-        <v>36500</v>
+        <v>36700</v>
       </c>
       <c r="G9" s="3">
-        <v>27600</v>
+        <v>36200</v>
       </c>
       <c r="H9" s="3">
-        <v>25600</v>
+        <v>27400</v>
       </c>
       <c r="I9" s="3">
-        <v>20900</v>
+        <v>25300</v>
       </c>
       <c r="J9" s="3">
+        <v>20700</v>
+      </c>
+      <c r="K9" s="3">
         <v>14400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>12900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>11200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>8500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>4400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>2800</v>
       </c>
-      <c r="P9" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>51800</v>
+        <v>20700</v>
       </c>
       <c r="E10" s="3">
-        <v>36200</v>
+        <v>51300</v>
       </c>
       <c r="F10" s="3">
-        <v>62300</v>
+        <v>35800</v>
       </c>
       <c r="G10" s="3">
-        <v>42200</v>
+        <v>61800</v>
       </c>
       <c r="H10" s="3">
-        <v>46200</v>
+        <v>41800</v>
       </c>
       <c r="I10" s="3">
-        <v>24300</v>
+        <v>45700</v>
       </c>
       <c r="J10" s="3">
+        <v>24100</v>
+      </c>
+      <c r="K10" s="3">
         <v>25600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>23000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>19000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>7700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>4100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>5400</v>
       </c>
-      <c r="P10" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -881,52 +894,56 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>23500</v>
+        <v>14200</v>
       </c>
       <c r="E12" s="3">
-        <v>29600</v>
+        <v>23300</v>
       </c>
       <c r="F12" s="3">
-        <v>33800</v>
+        <v>29400</v>
       </c>
       <c r="G12" s="3">
-        <v>30900</v>
+        <v>33500</v>
       </c>
       <c r="H12" s="3">
-        <v>28300</v>
+        <v>30700</v>
       </c>
       <c r="I12" s="3">
-        <v>22600</v>
+        <v>28100</v>
       </c>
       <c r="J12" s="3">
+        <v>22400</v>
+      </c>
+      <c r="K12" s="3">
         <v>20100</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>20800</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>20100</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>19100</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>18500</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>18100</v>
       </c>
-      <c r="P12" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,22 +986,25 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="3">
         <v>4900</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>4500</v>
       </c>
-      <c r="F14" s="3">
-        <v>8400</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>3</v>
+      <c r="G14" s="3">
+        <v>8300</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>3</v>
@@ -1001,8 +1021,8 @@
       <c r="L14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="M14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
@@ -1013,8 +1033,11 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1057,8 +1080,11 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,52 +1098,56 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>84200</v>
+        <v>38300</v>
       </c>
       <c r="E17" s="3">
-        <v>146600</v>
+        <v>83400</v>
       </c>
       <c r="F17" s="3">
-        <v>140100</v>
+        <v>145300</v>
       </c>
       <c r="G17" s="3">
-        <v>168100</v>
+        <v>138800</v>
       </c>
       <c r="H17" s="3">
-        <v>125200</v>
+        <v>166600</v>
       </c>
       <c r="I17" s="3">
-        <v>129700</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>3</v>
+        <v>124100</v>
+      </c>
+      <c r="J17" s="3">
+        <v>128500</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L17" s="3">
+      <c r="L17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M17" s="3">
         <v>58500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>65900</v>
       </c>
-      <c r="N17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1125,43 +1155,46 @@
         <v>-4300</v>
       </c>
       <c r="E18" s="3">
-        <v>-73400</v>
+        <v>-4200</v>
       </c>
       <c r="F18" s="3">
-        <v>-41200</v>
+        <v>-72800</v>
       </c>
       <c r="G18" s="3">
-        <v>-98200</v>
+        <v>-40900</v>
       </c>
       <c r="H18" s="3">
-        <v>-53500</v>
+        <v>-97300</v>
       </c>
       <c r="I18" s="3">
-        <v>-84400</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>3</v>
+        <v>-53000</v>
+      </c>
+      <c r="J18" s="3">
+        <v>-83700</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L18" s="3">
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M18" s="3">
         <v>-28400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-49600</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,52 +1211,56 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>600</v>
+      </c>
+      <c r="E20" s="3">
         <v>500</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>1200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>1900</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>1000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-300</v>
       </c>
-      <c r="I20" s="3">
-        <v>-1200</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>3</v>
+      <c r="J20" s="3">
+        <v>-1100</v>
       </c>
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L20" s="3">
+      <c r="L20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M20" s="3">
         <v>600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>2200</v>
       </c>
-      <c r="N20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O20" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1239,43 +1276,46 @@
       <c r="G21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H21" s="3">
-        <v>-47900</v>
+      <c r="H21" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I21" s="3">
-        <v>-81400</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>3</v>
+        <v>-47500</v>
+      </c>
+      <c r="J21" s="3">
+        <v>-80700</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L21" s="3">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M21" s="3">
         <v>-24300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-44800</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E22" s="3" t="s">
-        <v>3</v>
+      <c r="E22" s="3">
+        <v>0</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>3</v>
@@ -1283,79 +1323,85 @@
       <c r="G22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H22" s="3">
-        <v>0</v>
+      <c r="H22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I22" s="3">
         <v>0</v>
       </c>
       <c r="J22" s="3">
+        <v>0</v>
+      </c>
+      <c r="K22" s="3">
         <v>300</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>200</v>
       </c>
-      <c r="L22" s="3">
-        <v>0</v>
-      </c>
       <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3">
         <v>100</v>
       </c>
-      <c r="N22" s="3">
-        <v>0</v>
-      </c>
       <c r="O22" s="3">
         <v>0</v>
       </c>
-      <c r="P22" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-3800</v>
+        <v>-3600</v>
       </c>
       <c r="E23" s="3">
-        <v>-72200</v>
+        <v>-3700</v>
       </c>
       <c r="F23" s="3">
-        <v>-39300</v>
+        <v>-71500</v>
       </c>
       <c r="G23" s="3">
-        <v>-97200</v>
+        <v>-39000</v>
       </c>
       <c r="H23" s="3">
-        <v>-53800</v>
+        <v>-96300</v>
       </c>
       <c r="I23" s="3">
-        <v>-85600</v>
+        <v>-53300</v>
       </c>
       <c r="J23" s="3">
+        <v>-84800</v>
+      </c>
+      <c r="K23" s="3">
         <v>-25000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-35100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-27800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-47500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-36100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-37100</v>
       </c>
-      <c r="P23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1398,8 +1444,11 @@
       <c r="P24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1491,105 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-3800</v>
+        <v>-3600</v>
       </c>
       <c r="E26" s="3">
-        <v>-72200</v>
+        <v>-3700</v>
       </c>
       <c r="F26" s="3">
-        <v>-39300</v>
+        <v>-71500</v>
       </c>
       <c r="G26" s="3">
-        <v>-97200</v>
+        <v>-39000</v>
       </c>
       <c r="H26" s="3">
-        <v>-53800</v>
+        <v>-96300</v>
       </c>
       <c r="I26" s="3">
-        <v>-85600</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>3</v>
+        <v>-53300</v>
+      </c>
+      <c r="J26" s="3">
+        <v>-84800</v>
       </c>
       <c r="K26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L26" s="3">
+      <c r="L26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M26" s="3">
         <v>-27800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-47500</v>
       </c>
-      <c r="N26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-3800</v>
+        <v>-3600</v>
       </c>
       <c r="E27" s="3">
-        <v>-72200</v>
+        <v>-3700</v>
       </c>
       <c r="F27" s="3">
-        <v>-39300</v>
+        <v>-71500</v>
       </c>
       <c r="G27" s="3">
-        <v>-97200</v>
+        <v>-39000</v>
       </c>
       <c r="H27" s="3">
-        <v>81400</v>
+        <v>-96300</v>
       </c>
       <c r="I27" s="3">
-        <v>-554700</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>3</v>
+        <v>80700</v>
+      </c>
+      <c r="J27" s="3">
+        <v>-549700</v>
       </c>
       <c r="K27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L27" s="3">
+      <c r="L27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M27" s="3">
         <v>-52400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-71100</v>
       </c>
-      <c r="N27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1632,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1618,8 +1679,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1726,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,96 +1773,105 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E32" s="3">
         <v>-500</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-1200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-1900</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-1000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>300</v>
       </c>
-      <c r="I32" s="3">
-        <v>1200</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>3</v>
+      <c r="J32" s="3">
+        <v>1100</v>
       </c>
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L32" s="3">
+      <c r="L32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M32" s="3">
         <v>-600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-2200</v>
       </c>
-      <c r="N32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O32" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-3800</v>
+        <v>-3600</v>
       </c>
       <c r="E33" s="3">
-        <v>-72200</v>
+        <v>-3700</v>
       </c>
       <c r="F33" s="3">
-        <v>-39300</v>
+        <v>-71500</v>
       </c>
       <c r="G33" s="3">
-        <v>-97200</v>
+        <v>-39000</v>
       </c>
       <c r="H33" s="3">
-        <v>81400</v>
+        <v>-96300</v>
       </c>
       <c r="I33" s="3">
-        <v>-554700</v>
-      </c>
-      <c r="J33" s="3" t="s">
-        <v>3</v>
+        <v>80700</v>
+      </c>
+      <c r="J33" s="3">
+        <v>-549700</v>
       </c>
       <c r="K33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L33" s="3">
+      <c r="L33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M33" s="3">
         <v>-52400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-71100</v>
       </c>
-      <c r="N33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1914,110 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-3800</v>
+        <v>-3600</v>
       </c>
       <c r="E35" s="3">
-        <v>-72200</v>
+        <v>-3700</v>
       </c>
       <c r="F35" s="3">
-        <v>-39300</v>
+        <v>-71500</v>
       </c>
       <c r="G35" s="3">
-        <v>-97200</v>
+        <v>-39000</v>
       </c>
       <c r="H35" s="3">
-        <v>81400</v>
+        <v>-96300</v>
       </c>
       <c r="I35" s="3">
-        <v>-554700</v>
-      </c>
-      <c r="J35" s="3" t="s">
-        <v>3</v>
+        <v>80700</v>
+      </c>
+      <c r="J35" s="3">
+        <v>-549700</v>
       </c>
       <c r="K35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L35" s="3">
+      <c r="L35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M35" s="3">
         <v>-52400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-71100</v>
       </c>
-      <c r="N35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2034,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,35 +2053,36 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>174000</v>
+        <v>118800</v>
       </c>
       <c r="E41" s="3">
-        <v>209600</v>
+        <v>172400</v>
       </c>
       <c r="F41" s="3">
-        <v>318300</v>
+        <v>207700</v>
       </c>
       <c r="G41" s="3">
-        <v>330100</v>
+        <v>315400</v>
       </c>
       <c r="H41" s="3">
-        <v>417800</v>
+        <v>327200</v>
       </c>
       <c r="I41" s="3">
-        <v>120000</v>
+        <v>414000</v>
       </c>
       <c r="J41" s="3">
+        <v>118900</v>
+      </c>
+      <c r="K41" s="3">
         <v>184900</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2011,8 +2098,11 @@
       <c r="P41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2055,8 +2145,11 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2072,18 +2165,18 @@
       <c r="G43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H43" s="3">
+      <c r="H43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I43" s="3">
         <v>1100</v>
       </c>
-      <c r="I43" s="3">
-        <v>1900</v>
-      </c>
       <c r="J43" s="3">
+        <v>1800</v>
+      </c>
+      <c r="K43" s="3">
         <v>3900</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2099,8 +2192,11 @@
       <c r="P43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2143,35 +2239,38 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>23800</v>
+        <v>21000</v>
       </c>
       <c r="E45" s="3">
-        <v>22700</v>
+        <v>23600</v>
       </c>
       <c r="F45" s="3">
-        <v>27400</v>
+        <v>22500</v>
       </c>
       <c r="G45" s="3">
-        <v>27400</v>
+        <v>27100</v>
       </c>
       <c r="H45" s="3">
-        <v>30100</v>
+        <v>27100</v>
       </c>
       <c r="I45" s="3">
-        <v>24000</v>
+        <v>29800</v>
       </c>
       <c r="J45" s="3">
+        <v>23700</v>
+      </c>
+      <c r="K45" s="3">
         <v>15900</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2187,35 +2286,38 @@
       <c r="P45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>197900</v>
+        <v>139800</v>
       </c>
       <c r="E46" s="3">
-        <v>232300</v>
+        <v>196100</v>
       </c>
       <c r="F46" s="3">
-        <v>345700</v>
+        <v>230200</v>
       </c>
       <c r="G46" s="3">
-        <v>357500</v>
+        <v>342500</v>
       </c>
       <c r="H46" s="3">
-        <v>448900</v>
+        <v>354300</v>
       </c>
       <c r="I46" s="3">
-        <v>145800</v>
+        <v>444900</v>
       </c>
       <c r="J46" s="3">
+        <v>144500</v>
+      </c>
+      <c r="K46" s="3">
         <v>204700</v>
       </c>
-      <c r="K46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2231,8 +2333,11 @@
       <c r="P46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2275,35 +2380,38 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>33000</v>
+        <v>24200</v>
       </c>
       <c r="E48" s="3">
-        <v>50200</v>
+        <v>32700</v>
       </c>
       <c r="F48" s="3">
-        <v>63100</v>
+        <v>49800</v>
       </c>
       <c r="G48" s="3">
-        <v>57900</v>
+        <v>62500</v>
       </c>
       <c r="H48" s="3">
-        <v>45000</v>
+        <v>57400</v>
       </c>
       <c r="I48" s="3">
-        <v>35000</v>
+        <v>44600</v>
       </c>
       <c r="J48" s="3">
+        <v>34700</v>
+      </c>
+      <c r="K48" s="3">
         <v>24500</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2319,8 +2427,11 @@
       <c r="P48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2363,8 +2474,11 @@
       <c r="P49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2521,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,35 +2568,38 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2100</v>
+        <v>1800</v>
       </c>
       <c r="E52" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F52" s="3">
         <v>1800</v>
-      </c>
-      <c r="F52" s="3">
-        <v>5500</v>
       </c>
       <c r="G52" s="3">
         <v>5400</v>
       </c>
       <c r="H52" s="3">
-        <v>5600</v>
+        <v>5300</v>
       </c>
       <c r="I52" s="3">
+        <v>5500</v>
+      </c>
+      <c r="J52" s="3">
         <v>3300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>3900</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2495,8 +2615,11 @@
       <c r="P52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,35 +2662,38 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>232900</v>
+        <v>165800</v>
       </c>
       <c r="E54" s="3">
-        <v>284400</v>
+        <v>230800</v>
       </c>
       <c r="F54" s="3">
-        <v>414300</v>
+        <v>281800</v>
       </c>
       <c r="G54" s="3">
-        <v>420800</v>
+        <v>410500</v>
       </c>
       <c r="H54" s="3">
-        <v>499500</v>
+        <v>417000</v>
       </c>
       <c r="I54" s="3">
-        <v>184100</v>
+        <v>495000</v>
       </c>
       <c r="J54" s="3">
+        <v>182400</v>
+      </c>
+      <c r="K54" s="3">
         <v>233100</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2583,8 +2709,11 @@
       <c r="P54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2730,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,8 +2749,9 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2663,8 +2794,11 @@
       <c r="P57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2680,18 +2814,18 @@
       <c r="G58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H58" s="3">
-        <v>0</v>
+      <c r="H58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I58" s="3">
-        <v>2700</v>
+        <v>0</v>
       </c>
       <c r="J58" s="3">
+        <v>2600</v>
+      </c>
+      <c r="K58" s="3">
         <v>12500</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2707,35 +2841,38 @@
       <c r="P58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>100700</v>
+        <v>43200</v>
       </c>
       <c r="E59" s="3">
-        <v>149600</v>
+        <v>99700</v>
       </c>
       <c r="F59" s="3">
-        <v>204500</v>
+        <v>148300</v>
       </c>
       <c r="G59" s="3">
-        <v>181000</v>
+        <v>202700</v>
       </c>
       <c r="H59" s="3">
-        <v>177600</v>
+        <v>179300</v>
       </c>
       <c r="I59" s="3">
-        <v>141700</v>
+        <v>176000</v>
       </c>
       <c r="J59" s="3">
+        <v>140400</v>
+      </c>
+      <c r="K59" s="3">
         <v>106400</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2751,35 +2888,38 @@
       <c r="P59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>100700</v>
+        <v>43200</v>
       </c>
       <c r="E60" s="3">
-        <v>149600</v>
+        <v>99700</v>
       </c>
       <c r="F60" s="3">
-        <v>204500</v>
+        <v>148300</v>
       </c>
       <c r="G60" s="3">
-        <v>181000</v>
+        <v>202700</v>
       </c>
       <c r="H60" s="3">
-        <v>177600</v>
+        <v>179300</v>
       </c>
       <c r="I60" s="3">
-        <v>144300</v>
+        <v>176000</v>
       </c>
       <c r="J60" s="3">
+        <v>143000</v>
+      </c>
+      <c r="K60" s="3">
         <v>119000</v>
       </c>
-      <c r="K60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2795,8 +2935,11 @@
       <c r="P60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2839,35 +2982,38 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>14800</v>
+        <v>7200</v>
       </c>
       <c r="E62" s="3">
-        <v>18600</v>
+        <v>14700</v>
       </c>
       <c r="F62" s="3">
-        <v>27400</v>
+        <v>18400</v>
       </c>
       <c r="G62" s="3">
-        <v>22500</v>
+        <v>27200</v>
       </c>
       <c r="H62" s="3">
-        <v>17700</v>
+        <v>22300</v>
       </c>
       <c r="I62" s="3">
-        <v>12200</v>
+        <v>17500</v>
       </c>
       <c r="J62" s="3">
+        <v>12100</v>
+      </c>
+      <c r="K62" s="3">
         <v>5200</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2883,8 +3029,11 @@
       <c r="P62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3076,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3123,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,35 +3170,38 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>115400</v>
+        <v>50300</v>
       </c>
       <c r="E66" s="3">
-        <v>168200</v>
+        <v>114400</v>
       </c>
       <c r="F66" s="3">
-        <v>232000</v>
+        <v>166700</v>
       </c>
       <c r="G66" s="3">
-        <v>203500</v>
+        <v>229900</v>
       </c>
       <c r="H66" s="3">
-        <v>195300</v>
+        <v>201700</v>
       </c>
       <c r="I66" s="3">
-        <v>156500</v>
+        <v>193600</v>
       </c>
       <c r="J66" s="3">
+        <v>155100</v>
+      </c>
+      <c r="K66" s="3">
         <v>124100</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3059,8 +3217,11 @@
       <c r="P66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3238,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3283,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3330,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3186,14 +3354,14 @@
         <v>0</v>
       </c>
       <c r="I70" s="3">
-        <v>1375600</v>
+        <v>0</v>
       </c>
       <c r="J70" s="3">
+        <v>1363200</v>
+      </c>
+      <c r="K70" s="3">
         <v>906500</v>
       </c>
-      <c r="K70" s="3">
-        <v>0</v>
-      </c>
       <c r="L70" s="3">
         <v>0</v>
       </c>
@@ -3209,8 +3377,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,35 +3424,38 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-1485500</v>
+        <v>-1475800</v>
       </c>
       <c r="E72" s="3">
-        <v>-1481800</v>
+        <v>-1472100</v>
       </c>
       <c r="F72" s="3">
-        <v>-1409600</v>
+        <v>-1468400</v>
       </c>
       <c r="G72" s="3">
-        <v>-1370300</v>
+        <v>-1396900</v>
       </c>
       <c r="H72" s="3">
-        <v>-1273100</v>
+        <v>-1357900</v>
       </c>
       <c r="I72" s="3">
-        <v>-1357300</v>
+        <v>-1261600</v>
       </c>
       <c r="J72" s="3">
+        <v>-1345000</v>
+      </c>
+      <c r="K72" s="3">
         <v>-811000</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3297,8 +3471,11 @@
       <c r="P72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3518,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3565,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,35 +3612,38 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>117500</v>
+        <v>115400</v>
       </c>
       <c r="E76" s="3">
-        <v>116200</v>
+        <v>116400</v>
       </c>
       <c r="F76" s="3">
-        <v>182300</v>
+        <v>115100</v>
       </c>
       <c r="G76" s="3">
-        <v>217300</v>
+        <v>180600</v>
       </c>
       <c r="H76" s="3">
-        <v>304200</v>
+        <v>215300</v>
       </c>
       <c r="I76" s="3">
-        <v>-1348100</v>
+        <v>301400</v>
       </c>
       <c r="J76" s="3">
+        <v>-1335900</v>
+      </c>
+      <c r="K76" s="3">
         <v>-797600</v>
       </c>
-      <c r="K76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3473,8 +3659,11 @@
       <c r="P76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3706,110 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-3800</v>
+        <v>-3600</v>
       </c>
       <c r="E81" s="3">
-        <v>-72200</v>
+        <v>-3700</v>
       </c>
       <c r="F81" s="3">
-        <v>-39300</v>
+        <v>-71500</v>
       </c>
       <c r="G81" s="3">
-        <v>-97200</v>
+        <v>-39000</v>
       </c>
       <c r="H81" s="3">
-        <v>81400</v>
+        <v>-96300</v>
       </c>
       <c r="I81" s="3">
-        <v>-554700</v>
-      </c>
-      <c r="J81" s="3" t="s">
-        <v>3</v>
+        <v>80700</v>
+      </c>
+      <c r="J81" s="3">
+        <v>-549700</v>
       </c>
       <c r="K81" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L81" s="3">
+      <c r="L81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M81" s="3">
         <v>-52400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-71100</v>
       </c>
-      <c r="N81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,8 +3826,9 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3645,11 +3844,11 @@
       <c r="G83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H83" s="3">
-        <v>5900</v>
+      <c r="H83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I83" s="3">
-        <v>4200</v>
+        <v>5800</v>
       </c>
       <c r="J83" s="3" t="s">
         <v>3</v>
@@ -3672,8 +3871,11 @@
       <c r="P83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +3918,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +3965,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4012,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4059,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,8 +4106,11 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3909,11 +4126,11 @@
       <c r="G89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H89" s="3">
-        <v>-77100</v>
+      <c r="H89" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I89" s="3">
-        <v>-77600</v>
+        <v>-76400</v>
       </c>
       <c r="J89" s="3" t="s">
         <v>3</v>
@@ -3936,8 +4153,11 @@
       <c r="P89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,8 +4174,9 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3971,11 +4192,11 @@
       <c r="G91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H91" s="3">
-        <v>-13200</v>
+      <c r="H91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I91" s="3">
-        <v>-8800</v>
+        <v>-13100</v>
       </c>
       <c r="J91" s="3" t="s">
         <v>3</v>
@@ -3998,8 +4219,11 @@
       <c r="P91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4266,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,8 +4313,11 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4103,11 +4333,11 @@
       <c r="G94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H94" s="3">
-        <v>-13200</v>
+      <c r="H94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I94" s="3">
-        <v>-8800</v>
+        <v>-13100</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>3</v>
@@ -4130,8 +4360,11 @@
       <c r="P94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4381,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4426,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4473,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4520,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,8 +4567,11 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4341,11 +4587,11 @@
       <c r="G100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H100" s="3">
-        <v>412200</v>
+      <c r="H100" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I100" s="3">
-        <v>115300</v>
+        <v>408500</v>
       </c>
       <c r="J100" s="3" t="s">
         <v>3</v>
@@ -4368,8 +4614,11 @@
       <c r="P100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4385,11 +4634,11 @@
       <c r="G101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H101" s="3">
-        <v>-5700</v>
+      <c r="H101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I101" s="3">
-        <v>-3800</v>
+        <v>-5600</v>
       </c>
       <c r="J101" s="3" t="s">
         <v>3</v>
@@ -4412,8 +4661,11 @@
       <c r="P101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4429,11 +4681,11 @@
       <c r="G102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H102" s="3">
-        <v>316300</v>
+      <c r="H102" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I102" s="3">
-        <v>25100</v>
+        <v>313400</v>
       </c>
       <c r="J102" s="3" t="s">
         <v>3</v>
@@ -4454,6 +4706,9 @@
         <v>3</v>
       </c>
       <c r="P102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/YQ_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/YQ_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="92">
   <si>
     <t>YQ</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,219 +665,232 @@
     <col min="1" max="1" width="4.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>34100</v>
+        <v>18600</v>
       </c>
       <c r="E8" s="3">
-        <v>79200</v>
+        <v>32500</v>
       </c>
       <c r="F8" s="3">
-        <v>72500</v>
+        <v>75500</v>
       </c>
       <c r="G8" s="3">
-        <v>98000</v>
+        <v>69200</v>
       </c>
       <c r="H8" s="3">
-        <v>69200</v>
+        <v>93400</v>
       </c>
       <c r="I8" s="3">
-        <v>71100</v>
+        <v>66000</v>
       </c>
       <c r="J8" s="3">
+        <v>67800</v>
+      </c>
+      <c r="K8" s="3">
         <v>44800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>40000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>35900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>30100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>16300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>8500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>8200</v>
       </c>
-      <c r="Q8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>13400</v>
+        <v>8900</v>
       </c>
       <c r="E9" s="3">
-        <v>27900</v>
+        <v>12800</v>
       </c>
       <c r="F9" s="3">
-        <v>36700</v>
+        <v>26600</v>
       </c>
       <c r="G9" s="3">
-        <v>36200</v>
+        <v>35000</v>
       </c>
       <c r="H9" s="3">
-        <v>27400</v>
+        <v>34500</v>
       </c>
       <c r="I9" s="3">
-        <v>25300</v>
+        <v>26100</v>
       </c>
       <c r="J9" s="3">
+        <v>24200</v>
+      </c>
+      <c r="K9" s="3">
         <v>20700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>14400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>12900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>11200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>8500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>4400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>2800</v>
       </c>
-      <c r="Q9" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>20700</v>
+        <v>9700</v>
       </c>
       <c r="E10" s="3">
-        <v>51300</v>
+        <v>19700</v>
       </c>
       <c r="F10" s="3">
-        <v>35800</v>
+        <v>48900</v>
       </c>
       <c r="G10" s="3">
-        <v>61800</v>
+        <v>34200</v>
       </c>
       <c r="H10" s="3">
-        <v>41800</v>
+        <v>58900</v>
       </c>
       <c r="I10" s="3">
-        <v>45700</v>
+        <v>39900</v>
       </c>
       <c r="J10" s="3">
+        <v>43600</v>
+      </c>
+      <c r="K10" s="3">
         <v>24100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>25600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>23000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>19000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>7700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>4100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>5400</v>
       </c>
-      <c r="Q10" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -895,55 +908,59 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>14200</v>
+        <v>5000</v>
       </c>
       <c r="E12" s="3">
-        <v>23300</v>
+        <v>13600</v>
       </c>
       <c r="F12" s="3">
-        <v>29400</v>
+        <v>22200</v>
       </c>
       <c r="G12" s="3">
-        <v>33500</v>
+        <v>28000</v>
       </c>
       <c r="H12" s="3">
-        <v>30700</v>
+        <v>32000</v>
       </c>
       <c r="I12" s="3">
-        <v>28100</v>
+        <v>29200</v>
       </c>
       <c r="J12" s="3">
+        <v>26700</v>
+      </c>
+      <c r="K12" s="3">
         <v>22400</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>20100</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>20800</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>20100</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>19100</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>18500</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>18100</v>
       </c>
-      <c r="Q12" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -989,25 +1006,28 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E14" s="3">
-        <v>4900</v>
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F14" s="3">
-        <v>4500</v>
+        <v>4700</v>
       </c>
       <c r="G14" s="3">
-        <v>8300</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>3</v>
+        <v>4300</v>
+      </c>
+      <c r="H14" s="3">
+        <v>7900</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>3</v>
@@ -1024,8 +1044,8 @@
       <c r="M14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
+      <c r="N14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O14" s="3">
         <v>0</v>
@@ -1036,8 +1056,11 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1083,8 +1106,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1099,102 +1125,109 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>38300</v>
+        <v>23300</v>
       </c>
       <c r="E17" s="3">
-        <v>83400</v>
+        <v>36500</v>
       </c>
       <c r="F17" s="3">
-        <v>145300</v>
+        <v>79500</v>
       </c>
       <c r="G17" s="3">
-        <v>138800</v>
+        <v>138500</v>
       </c>
       <c r="H17" s="3">
-        <v>166600</v>
+        <v>132300</v>
       </c>
       <c r="I17" s="3">
-        <v>124100</v>
+        <v>158800</v>
       </c>
       <c r="J17" s="3">
+        <v>118300</v>
+      </c>
+      <c r="K17" s="3">
         <v>128500</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M17" s="3">
+      <c r="M17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N17" s="3">
         <v>58500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>65900</v>
       </c>
-      <c r="O17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-4300</v>
+        <v>-4700</v>
       </c>
       <c r="E18" s="3">
-        <v>-4200</v>
+        <v>-4100</v>
       </c>
       <c r="F18" s="3">
-        <v>-72800</v>
+        <v>-4000</v>
       </c>
       <c r="G18" s="3">
-        <v>-40900</v>
+        <v>-69400</v>
       </c>
       <c r="H18" s="3">
-        <v>-97300</v>
+        <v>-38900</v>
       </c>
       <c r="I18" s="3">
-        <v>-53000</v>
+        <v>-92800</v>
       </c>
       <c r="J18" s="3">
+        <v>-50500</v>
+      </c>
+      <c r="K18" s="3">
         <v>-83700</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M18" s="3">
+      <c r="M18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N18" s="3">
         <v>-28400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-49600</v>
       </c>
-      <c r="O18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1212,55 +1245,59 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E20" s="3">
         <v>600</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>1200</v>
       </c>
-      <c r="G20" s="3">
-        <v>1900</v>
-      </c>
       <c r="H20" s="3">
+        <v>1800</v>
+      </c>
+      <c r="I20" s="3">
         <v>1000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-1100</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M20" s="3">
+      <c r="M20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N20" s="3">
         <v>600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>2200</v>
       </c>
-      <c r="O20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P20" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1279,46 +1316,49 @@
       <c r="H21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I21" s="3">
-        <v>-47500</v>
+      <c r="I21" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J21" s="3">
+        <v>-45300</v>
+      </c>
+      <c r="K21" s="3">
         <v>-80700</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M21" s="3">
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N21" s="3">
         <v>-24300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-44800</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E22" s="3">
-        <v>0</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>3</v>
+      <c r="E22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F22" s="3">
+        <v>0</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>3</v>
@@ -1326,82 +1366,88 @@
       <c r="H22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I22" s="3">
-        <v>0</v>
+      <c r="I22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J22" s="3">
         <v>0</v>
       </c>
       <c r="K22" s="3">
+        <v>0</v>
+      </c>
+      <c r="L22" s="3">
         <v>300</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>200</v>
       </c>
-      <c r="M22" s="3">
-        <v>0</v>
-      </c>
       <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3">
         <v>100</v>
       </c>
-      <c r="O22" s="3">
-        <v>0</v>
-      </c>
       <c r="P22" s="3">
         <v>0</v>
       </c>
-      <c r="Q22" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="F23" s="3">
         <v>-3600</v>
       </c>
-      <c r="E23" s="3">
-        <v>-3700</v>
-      </c>
-      <c r="F23" s="3">
-        <v>-71500</v>
-      </c>
       <c r="G23" s="3">
-        <v>-39000</v>
+        <v>-68200</v>
       </c>
       <c r="H23" s="3">
-        <v>-96300</v>
+        <v>-37100</v>
       </c>
       <c r="I23" s="3">
-        <v>-53300</v>
+        <v>-91800</v>
       </c>
       <c r="J23" s="3">
+        <v>-50800</v>
+      </c>
+      <c r="K23" s="3">
         <v>-84800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-25000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-35100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-27800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-47500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-36100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-37100</v>
       </c>
-      <c r="Q23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1447,8 +1493,11 @@
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1494,102 +1543,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="F26" s="3">
         <v>-3600</v>
       </c>
-      <c r="E26" s="3">
-        <v>-3700</v>
-      </c>
-      <c r="F26" s="3">
-        <v>-71500</v>
-      </c>
       <c r="G26" s="3">
-        <v>-39000</v>
+        <v>-68200</v>
       </c>
       <c r="H26" s="3">
-        <v>-96300</v>
+        <v>-37100</v>
       </c>
       <c r="I26" s="3">
-        <v>-53300</v>
+        <v>-91800</v>
       </c>
       <c r="J26" s="3">
+        <v>-50800</v>
+      </c>
+      <c r="K26" s="3">
         <v>-84800</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M26" s="3">
+      <c r="M26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N26" s="3">
         <v>-27800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-47500</v>
       </c>
-      <c r="O26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="F27" s="3">
         <v>-3600</v>
       </c>
-      <c r="E27" s="3">
-        <v>-3700</v>
-      </c>
-      <c r="F27" s="3">
-        <v>-71500</v>
-      </c>
       <c r="G27" s="3">
-        <v>-39000</v>
+        <v>-68200</v>
       </c>
       <c r="H27" s="3">
-        <v>-96300</v>
+        <v>-37100</v>
       </c>
       <c r="I27" s="3">
-        <v>80700</v>
+        <v>-91800</v>
       </c>
       <c r="J27" s="3">
+        <v>76900</v>
+      </c>
+      <c r="K27" s="3">
         <v>-549700</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M27" s="3">
+      <c r="M27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N27" s="3">
         <v>-52400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-71100</v>
       </c>
-      <c r="O27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1635,8 +1693,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1682,8 +1743,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1729,8 +1793,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1776,102 +1843,111 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E32" s="3">
         <v>-600</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-1200</v>
       </c>
-      <c r="G32" s="3">
-        <v>-1900</v>
-      </c>
       <c r="H32" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="I32" s="3">
         <v>-1000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>1100</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M32" s="3">
+      <c r="M32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N32" s="3">
         <v>-600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-2200</v>
       </c>
-      <c r="O32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P32" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="F33" s="3">
         <v>-3600</v>
       </c>
-      <c r="E33" s="3">
-        <v>-3700</v>
-      </c>
-      <c r="F33" s="3">
-        <v>-71500</v>
-      </c>
       <c r="G33" s="3">
-        <v>-39000</v>
+        <v>-68200</v>
       </c>
       <c r="H33" s="3">
-        <v>-96300</v>
+        <v>-37100</v>
       </c>
       <c r="I33" s="3">
-        <v>80700</v>
+        <v>-91800</v>
       </c>
       <c r="J33" s="3">
+        <v>76900</v>
+      </c>
+      <c r="K33" s="3">
         <v>-549700</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M33" s="3">
+      <c r="M33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N33" s="3">
         <v>-52400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-71100</v>
       </c>
-      <c r="O33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1917,107 +1993,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="F35" s="3">
         <v>-3600</v>
       </c>
-      <c r="E35" s="3">
-        <v>-3700</v>
-      </c>
-      <c r="F35" s="3">
-        <v>-71500</v>
-      </c>
       <c r="G35" s="3">
-        <v>-39000</v>
+        <v>-68200</v>
       </c>
       <c r="H35" s="3">
-        <v>-96300</v>
+        <v>-37100</v>
       </c>
       <c r="I35" s="3">
-        <v>80700</v>
+        <v>-91800</v>
       </c>
       <c r="J35" s="3">
+        <v>76900</v>
+      </c>
+      <c r="K35" s="3">
         <v>-549700</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M35" s="3">
+      <c r="M35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N35" s="3">
         <v>-52400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-71100</v>
       </c>
-      <c r="O35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2035,8 +2120,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2054,38 +2140,39 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>118800</v>
+        <v>124400</v>
       </c>
       <c r="E41" s="3">
-        <v>172400</v>
+        <v>113200</v>
       </c>
       <c r="F41" s="3">
-        <v>207700</v>
+        <v>164400</v>
       </c>
       <c r="G41" s="3">
-        <v>315400</v>
+        <v>198000</v>
       </c>
       <c r="H41" s="3">
-        <v>327200</v>
+        <v>300700</v>
       </c>
       <c r="I41" s="3">
-        <v>414000</v>
+        <v>311900</v>
       </c>
       <c r="J41" s="3">
+        <v>394600</v>
+      </c>
+      <c r="K41" s="3">
         <v>118900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>184900</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2101,8 +2188,11 @@
       <c r="Q41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2148,13 +2238,16 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3" t="s">
-        <v>3</v>
+      <c r="D43" s="3">
+        <v>8500</v>
       </c>
       <c r="E43" s="3" t="s">
         <v>3</v>
@@ -2168,18 +2261,18 @@
       <c r="H43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I43" s="3">
-        <v>1100</v>
+      <c r="I43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J43" s="3">
+        <v>1000</v>
+      </c>
+      <c r="K43" s="3">
         <v>1800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>3900</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2195,8 +2288,11 @@
       <c r="Q43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2242,38 +2338,41 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>21000</v>
+        <v>18100</v>
       </c>
       <c r="E45" s="3">
-        <v>23600</v>
+        <v>20000</v>
       </c>
       <c r="F45" s="3">
         <v>22500</v>
       </c>
       <c r="G45" s="3">
-        <v>27100</v>
+        <v>21500</v>
       </c>
       <c r="H45" s="3">
-        <v>27100</v>
+        <v>25900</v>
       </c>
       <c r="I45" s="3">
-        <v>29800</v>
+        <v>25900</v>
       </c>
       <c r="J45" s="3">
+        <v>28400</v>
+      </c>
+      <c r="K45" s="3">
         <v>23700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>15900</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2289,38 +2388,41 @@
       <c r="Q45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>139800</v>
+        <v>151100</v>
       </c>
       <c r="E46" s="3">
-        <v>196100</v>
+        <v>133300</v>
       </c>
       <c r="F46" s="3">
-        <v>230200</v>
+        <v>186900</v>
       </c>
       <c r="G46" s="3">
-        <v>342500</v>
+        <v>219500</v>
       </c>
       <c r="H46" s="3">
-        <v>354300</v>
+        <v>326500</v>
       </c>
       <c r="I46" s="3">
-        <v>444900</v>
+        <v>337700</v>
       </c>
       <c r="J46" s="3">
+        <v>424100</v>
+      </c>
+      <c r="K46" s="3">
         <v>144500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>204700</v>
       </c>
-      <c r="L46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2336,8 +2438,11 @@
       <c r="Q46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2383,38 +2488,41 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>24200</v>
+        <v>14200</v>
       </c>
       <c r="E48" s="3">
-        <v>32700</v>
+        <v>23100</v>
       </c>
       <c r="F48" s="3">
-        <v>49800</v>
+        <v>31100</v>
       </c>
       <c r="G48" s="3">
-        <v>62500</v>
+        <v>47400</v>
       </c>
       <c r="H48" s="3">
-        <v>57400</v>
+        <v>59600</v>
       </c>
       <c r="I48" s="3">
-        <v>44600</v>
+        <v>54700</v>
       </c>
       <c r="J48" s="3">
+        <v>42500</v>
+      </c>
+      <c r="K48" s="3">
         <v>34700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>24500</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2430,8 +2538,11 @@
       <c r="Q48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2477,8 +2588,11 @@
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2524,8 +2638,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2571,38 +2688,41 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1800</v>
+        <v>1300</v>
       </c>
       <c r="E52" s="3">
-        <v>2000</v>
+        <v>1700</v>
       </c>
       <c r="F52" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="G52" s="3">
-        <v>5400</v>
+        <v>1700</v>
       </c>
       <c r="H52" s="3">
+        <v>5200</v>
+      </c>
+      <c r="I52" s="3">
+        <v>5100</v>
+      </c>
+      <c r="J52" s="3">
         <v>5300</v>
       </c>
-      <c r="I52" s="3">
-        <v>5500</v>
-      </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>3300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>3900</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2618,8 +2738,11 @@
       <c r="Q52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2665,38 +2788,41 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>165800</v>
+        <v>166600</v>
       </c>
       <c r="E54" s="3">
-        <v>230800</v>
+        <v>158000</v>
       </c>
       <c r="F54" s="3">
-        <v>281800</v>
+        <v>220000</v>
       </c>
       <c r="G54" s="3">
-        <v>410500</v>
+        <v>268600</v>
       </c>
       <c r="H54" s="3">
-        <v>417000</v>
+        <v>391300</v>
       </c>
       <c r="I54" s="3">
-        <v>495000</v>
+        <v>397500</v>
       </c>
       <c r="J54" s="3">
+        <v>471900</v>
+      </c>
+      <c r="K54" s="3">
         <v>182400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>233100</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2712,8 +2838,11 @@
       <c r="Q54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2731,8 +2860,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2750,8 +2880,9 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2797,8 +2928,11 @@
       <c r="Q57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2817,18 +2951,18 @@
       <c r="H58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I58" s="3">
-        <v>0</v>
+      <c r="I58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J58" s="3">
+        <v>0</v>
+      </c>
+      <c r="K58" s="3">
         <v>2600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>12500</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2844,38 +2978,41 @@
       <c r="Q58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>43200</v>
+        <v>47500</v>
       </c>
       <c r="E59" s="3">
-        <v>99700</v>
+        <v>41100</v>
       </c>
       <c r="F59" s="3">
-        <v>148300</v>
+        <v>95100</v>
       </c>
       <c r="G59" s="3">
-        <v>202700</v>
+        <v>141300</v>
       </c>
       <c r="H59" s="3">
-        <v>179300</v>
+        <v>193200</v>
       </c>
       <c r="I59" s="3">
-        <v>176000</v>
+        <v>170900</v>
       </c>
       <c r="J59" s="3">
+        <v>167800</v>
+      </c>
+      <c r="K59" s="3">
         <v>140400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>106400</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2891,38 +3028,41 @@
       <c r="Q59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>43200</v>
+        <v>47500</v>
       </c>
       <c r="E60" s="3">
-        <v>99700</v>
+        <v>41100</v>
       </c>
       <c r="F60" s="3">
-        <v>148300</v>
+        <v>95100</v>
       </c>
       <c r="G60" s="3">
-        <v>202700</v>
+        <v>141300</v>
       </c>
       <c r="H60" s="3">
-        <v>179300</v>
+        <v>193200</v>
       </c>
       <c r="I60" s="3">
-        <v>176000</v>
+        <v>170900</v>
       </c>
       <c r="J60" s="3">
+        <v>167800</v>
+      </c>
+      <c r="K60" s="3">
         <v>143000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>119000</v>
       </c>
-      <c r="L60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2938,8 +3078,11 @@
       <c r="Q60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2985,38 +3128,41 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>7200</v>
+        <v>3100</v>
       </c>
       <c r="E62" s="3">
-        <v>14700</v>
+        <v>6800</v>
       </c>
       <c r="F62" s="3">
-        <v>18400</v>
+        <v>14000</v>
       </c>
       <c r="G62" s="3">
-        <v>27200</v>
+        <v>17600</v>
       </c>
       <c r="H62" s="3">
-        <v>22300</v>
+        <v>25900</v>
       </c>
       <c r="I62" s="3">
-        <v>17500</v>
+        <v>21300</v>
       </c>
       <c r="J62" s="3">
+        <v>16700</v>
+      </c>
+      <c r="K62" s="3">
         <v>12100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>5200</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3032,8 +3178,11 @@
       <c r="Q62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3079,8 +3228,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3126,8 +3278,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3173,38 +3328,41 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>50300</v>
+        <v>50600</v>
       </c>
       <c r="E66" s="3">
-        <v>114400</v>
+        <v>48000</v>
       </c>
       <c r="F66" s="3">
-        <v>166700</v>
+        <v>109000</v>
       </c>
       <c r="G66" s="3">
-        <v>229900</v>
+        <v>158900</v>
       </c>
       <c r="H66" s="3">
-        <v>201700</v>
+        <v>219100</v>
       </c>
       <c r="I66" s="3">
-        <v>193600</v>
+        <v>192200</v>
       </c>
       <c r="J66" s="3">
+        <v>184500</v>
+      </c>
+      <c r="K66" s="3">
         <v>155100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>124100</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3220,8 +3378,11 @@
       <c r="Q66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3239,8 +3400,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3286,8 +3448,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3333,8 +3498,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3357,14 +3525,14 @@
         <v>0</v>
       </c>
       <c r="J70" s="3">
+        <v>0</v>
+      </c>
+      <c r="K70" s="3">
         <v>1363200</v>
       </c>
-      <c r="K70" s="3">
+      <c r="L70" s="3">
         <v>906500</v>
       </c>
-      <c r="L70" s="3">
-        <v>0</v>
-      </c>
       <c r="M70" s="3">
         <v>0</v>
       </c>
@@ -3380,8 +3548,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3427,38 +3598,41 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-1475800</v>
+        <v>-1410400</v>
       </c>
       <c r="E72" s="3">
-        <v>-1472100</v>
+        <v>-1406700</v>
       </c>
       <c r="F72" s="3">
-        <v>-1468400</v>
+        <v>-1403300</v>
       </c>
       <c r="G72" s="3">
-        <v>-1396900</v>
+        <v>-1399700</v>
       </c>
       <c r="H72" s="3">
-        <v>-1357900</v>
+        <v>-1331500</v>
       </c>
       <c r="I72" s="3">
-        <v>-1261600</v>
+        <v>-1294400</v>
       </c>
       <c r="J72" s="3">
+        <v>-1202600</v>
+      </c>
+      <c r="K72" s="3">
         <v>-1345000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-811000</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3474,8 +3648,11 @@
       <c r="Q72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3521,8 +3698,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3568,8 +3748,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3615,38 +3798,41 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>115400</v>
+        <v>116000</v>
       </c>
       <c r="E76" s="3">
-        <v>116400</v>
+        <v>110000</v>
       </c>
       <c r="F76" s="3">
-        <v>115100</v>
+        <v>110900</v>
       </c>
       <c r="G76" s="3">
-        <v>180600</v>
+        <v>109700</v>
       </c>
       <c r="H76" s="3">
-        <v>215300</v>
+        <v>172200</v>
       </c>
       <c r="I76" s="3">
-        <v>301400</v>
+        <v>205300</v>
       </c>
       <c r="J76" s="3">
+        <v>287300</v>
+      </c>
+      <c r="K76" s="3">
         <v>-1335900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-797600</v>
       </c>
-      <c r="L76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3662,8 +3848,11 @@
       <c r="Q76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3709,107 +3898,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="F81" s="3">
         <v>-3600</v>
       </c>
-      <c r="E81" s="3">
-        <v>-3700</v>
-      </c>
-      <c r="F81" s="3">
-        <v>-71500</v>
-      </c>
       <c r="G81" s="3">
-        <v>-39000</v>
+        <v>-68200</v>
       </c>
       <c r="H81" s="3">
-        <v>-96300</v>
+        <v>-37100</v>
       </c>
       <c r="I81" s="3">
-        <v>80700</v>
+        <v>-91800</v>
       </c>
       <c r="J81" s="3">
+        <v>76900</v>
+      </c>
+      <c r="K81" s="3">
         <v>-549700</v>
       </c>
-      <c r="K81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L81" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M81" s="3">
+      <c r="M81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N81" s="3">
         <v>-52400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-71100</v>
       </c>
-      <c r="O81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3827,31 +4025,32 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>3</v>
+      <c r="D83" s="3">
+        <v>0</v>
+      </c>
+      <c r="E83" s="3">
+        <v>0</v>
+      </c>
+      <c r="F83" s="3">
+        <v>0</v>
+      </c>
+      <c r="G83" s="3">
+        <v>0</v>
+      </c>
+      <c r="H83" s="3">
+        <v>0</v>
       </c>
       <c r="I83" s="3">
-        <v>5800</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="J83" s="3">
+        <v>0</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>3</v>
@@ -3874,8 +4073,11 @@
       <c r="Q83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3921,8 +4123,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3968,8 +4173,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4015,8 +4223,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4062,8 +4273,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4109,31 +4323,34 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>3</v>
+      <c r="D89" s="3">
+        <v>0</v>
+      </c>
+      <c r="E89" s="3">
+        <v>0</v>
+      </c>
+      <c r="F89" s="3">
+        <v>0</v>
+      </c>
+      <c r="G89" s="3">
+        <v>0</v>
+      </c>
+      <c r="H89" s="3">
+        <v>0</v>
       </c>
       <c r="I89" s="3">
-        <v>-76400</v>
-      </c>
-      <c r="J89" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="J89" s="3">
+        <v>0</v>
       </c>
       <c r="K89" s="3" t="s">
         <v>3</v>
@@ -4156,8 +4373,11 @@
       <c r="Q89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4175,31 +4395,32 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>3</v>
+      <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
+        <v>0</v>
       </c>
       <c r="I91" s="3">
-        <v>-13100</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
+        <v>0</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>3</v>
@@ -4222,8 +4443,11 @@
       <c r="Q91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4269,8 +4493,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4316,31 +4543,34 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>3</v>
+      <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
+        <v>0</v>
       </c>
       <c r="I94" s="3">
-        <v>-13100</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
+        <v>0</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>3</v>
@@ -4363,8 +4593,11 @@
       <c r="Q94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4382,8 +4615,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4429,8 +4663,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4476,8 +4713,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4523,8 +4763,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4570,31 +4813,34 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>3</v>
+      <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
+        <v>0</v>
       </c>
       <c r="I100" s="3">
-        <v>408500</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
+        <v>0</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>3</v>
@@ -4617,31 +4863,34 @@
       <c r="Q100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H101" s="3" t="s">
-        <v>3</v>
+      <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3">
+        <v>0</v>
+      </c>
+      <c r="H101" s="3">
+        <v>0</v>
       </c>
       <c r="I101" s="3">
-        <v>-5600</v>
-      </c>
-      <c r="J101" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="J101" s="3">
+        <v>0</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>3</v>
@@ -4664,31 +4913,34 @@
       <c r="Q101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H102" s="3" t="s">
-        <v>3</v>
+      <c r="D102" s="3">
+        <v>0</v>
+      </c>
+      <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
+        <v>0</v>
       </c>
       <c r="I102" s="3">
-        <v>313400</v>
-      </c>
-      <c r="J102" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
+        <v>0</v>
       </c>
       <c r="K102" s="3" t="s">
         <v>3</v>
@@ -4709,6 +4961,9 @@
         <v>3</v>
       </c>
       <c r="Q102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/YQ_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/YQ_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="92">
   <si>
     <t>YQ</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,232 +665,245 @@
     <col min="1" max="1" width="4.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>18600</v>
+        <v>17900</v>
       </c>
       <c r="E8" s="3">
-        <v>32500</v>
+        <v>19200</v>
       </c>
       <c r="F8" s="3">
-        <v>75500</v>
+        <v>33500</v>
       </c>
       <c r="G8" s="3">
-        <v>69200</v>
+        <v>77900</v>
       </c>
       <c r="H8" s="3">
-        <v>93400</v>
+        <v>71400</v>
       </c>
       <c r="I8" s="3">
-        <v>66000</v>
+        <v>96400</v>
       </c>
       <c r="J8" s="3">
+        <v>68100</v>
+      </c>
+      <c r="K8" s="3">
         <v>67800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>44800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>40000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>35900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>30100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>16300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>8500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>8200</v>
       </c>
-      <c r="R8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>8900</v>
+        <v>4600</v>
       </c>
       <c r="E9" s="3">
-        <v>12800</v>
+        <v>9200</v>
       </c>
       <c r="F9" s="3">
-        <v>26600</v>
+        <v>13200</v>
       </c>
       <c r="G9" s="3">
-        <v>35000</v>
+        <v>27500</v>
       </c>
       <c r="H9" s="3">
-        <v>34500</v>
+        <v>36100</v>
       </c>
       <c r="I9" s="3">
-        <v>26100</v>
+        <v>35600</v>
       </c>
       <c r="J9" s="3">
+        <v>26900</v>
+      </c>
+      <c r="K9" s="3">
         <v>24200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>20700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>14400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>12900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>11200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>8500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>4400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>2800</v>
       </c>
-      <c r="R9" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>9700</v>
+        <v>13300</v>
       </c>
       <c r="E10" s="3">
-        <v>19700</v>
+        <v>10000</v>
       </c>
       <c r="F10" s="3">
-        <v>48900</v>
+        <v>20300</v>
       </c>
       <c r="G10" s="3">
-        <v>34200</v>
+        <v>50500</v>
       </c>
       <c r="H10" s="3">
-        <v>58900</v>
+        <v>35200</v>
       </c>
       <c r="I10" s="3">
-        <v>39900</v>
+        <v>60700</v>
       </c>
       <c r="J10" s="3">
+        <v>41200</v>
+      </c>
+      <c r="K10" s="3">
         <v>43600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>24100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>25600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>23000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>19000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>7700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>4100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>5400</v>
       </c>
-      <c r="R10" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -909,58 +922,62 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>5000</v>
+        <v>7300</v>
       </c>
       <c r="E12" s="3">
-        <v>13600</v>
+        <v>5100</v>
       </c>
       <c r="F12" s="3">
-        <v>22200</v>
+        <v>14000</v>
       </c>
       <c r="G12" s="3">
-        <v>28000</v>
+        <v>22900</v>
       </c>
       <c r="H12" s="3">
-        <v>32000</v>
+        <v>28900</v>
       </c>
       <c r="I12" s="3">
-        <v>29200</v>
+        <v>33000</v>
       </c>
       <c r="J12" s="3">
+        <v>30100</v>
+      </c>
+      <c r="K12" s="3">
         <v>26700</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>22400</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>20100</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>20800</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>20100</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>19100</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>18500</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>18100</v>
       </c>
-      <c r="R12" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1009,28 +1026,31 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
         <v>0</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F14" s="3">
-        <v>4700</v>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G14" s="3">
-        <v>4300</v>
+        <v>4800</v>
       </c>
       <c r="H14" s="3">
-        <v>7900</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>3</v>
+        <v>4400</v>
+      </c>
+      <c r="I14" s="3">
+        <v>8200</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>3</v>
@@ -1047,8 +1067,8 @@
       <c r="N14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
+      <c r="O14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P14" s="3">
         <v>0</v>
@@ -1059,8 +1079,11 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1109,8 +1132,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1126,108 +1152,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>23300</v>
+        <v>21900</v>
       </c>
       <c r="E17" s="3">
-        <v>36500</v>
+        <v>24100</v>
       </c>
       <c r="F17" s="3">
-        <v>79500</v>
+        <v>37700</v>
       </c>
       <c r="G17" s="3">
-        <v>138500</v>
+        <v>82100</v>
       </c>
       <c r="H17" s="3">
-        <v>132300</v>
+        <v>142900</v>
       </c>
       <c r="I17" s="3">
-        <v>158800</v>
+        <v>136500</v>
       </c>
       <c r="J17" s="3">
+        <v>163800</v>
+      </c>
+      <c r="K17" s="3">
         <v>118300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>128500</v>
       </c>
-      <c r="L17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N17" s="3">
+      <c r="N17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O17" s="3">
         <v>58500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>65900</v>
       </c>
-      <c r="P17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-4700</v>
+        <v>-4000</v>
       </c>
       <c r="E18" s="3">
-        <v>-4100</v>
+        <v>-4900</v>
       </c>
       <c r="F18" s="3">
-        <v>-4000</v>
+        <v>-4200</v>
       </c>
       <c r="G18" s="3">
-        <v>-69400</v>
+        <v>-4200</v>
       </c>
       <c r="H18" s="3">
-        <v>-38900</v>
+        <v>-71600</v>
       </c>
       <c r="I18" s="3">
-        <v>-92800</v>
+        <v>-40200</v>
       </c>
       <c r="J18" s="3">
+        <v>-95700</v>
+      </c>
+      <c r="K18" s="3">
         <v>-50500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-83700</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N18" s="3">
+      <c r="N18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O18" s="3">
         <v>-28400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-49600</v>
       </c>
-      <c r="P18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1246,58 +1279,62 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>600</v>
+      </c>
+      <c r="E20" s="3">
         <v>1100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>600</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>500</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>1200</v>
       </c>
-      <c r="H20" s="3">
-        <v>1800</v>
-      </c>
       <c r="I20" s="3">
+        <v>1900</v>
+      </c>
+      <c r="J20" s="3">
         <v>1000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-1100</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N20" s="3">
+      <c r="N20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O20" s="3">
         <v>600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>2200</v>
       </c>
-      <c r="P20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q20" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1319,35 +1356,38 @@
       <c r="I21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J21" s="3">
+      <c r="J21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K21" s="3">
         <v>-45300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-80700</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N21" s="3">
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O21" s="3">
         <v>-24300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-44800</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1357,11 +1397,11 @@
       <c r="E22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F22" s="3">
-        <v>0</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>3</v>
+      <c r="F22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G22" s="3">
+        <v>0</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>3</v>
@@ -1369,85 +1409,91 @@
       <c r="I22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J22" s="3">
-        <v>0</v>
+      <c r="J22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K22" s="3">
         <v>0</v>
       </c>
       <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3">
         <v>300</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>200</v>
       </c>
-      <c r="N22" s="3">
-        <v>0</v>
-      </c>
       <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3">
         <v>100</v>
       </c>
-      <c r="P22" s="3">
-        <v>0</v>
-      </c>
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-      <c r="R22" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+      <c r="S22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-3700</v>
+        <v>-3400</v>
       </c>
       <c r="E23" s="3">
-        <v>-3400</v>
+        <v>-3800</v>
       </c>
       <c r="F23" s="3">
         <v>-3600</v>
       </c>
       <c r="G23" s="3">
-        <v>-68200</v>
+        <v>-3700</v>
       </c>
       <c r="H23" s="3">
+        <v>-70400</v>
+      </c>
+      <c r="I23" s="3">
+        <v>-38300</v>
+      </c>
+      <c r="J23" s="3">
+        <v>-94700</v>
+      </c>
+      <c r="K23" s="3">
+        <v>-50800</v>
+      </c>
+      <c r="L23" s="3">
+        <v>-84800</v>
+      </c>
+      <c r="M23" s="3">
+        <v>-25000</v>
+      </c>
+      <c r="N23" s="3">
+        <v>-35100</v>
+      </c>
+      <c r="O23" s="3">
+        <v>-27800</v>
+      </c>
+      <c r="P23" s="3">
+        <v>-47500</v>
+      </c>
+      <c r="Q23" s="3">
+        <v>-36100</v>
+      </c>
+      <c r="R23" s="3">
         <v>-37100</v>
       </c>
-      <c r="I23" s="3">
-        <v>-91800</v>
-      </c>
-      <c r="J23" s="3">
-        <v>-50800</v>
-      </c>
-      <c r="K23" s="3">
-        <v>-84800</v>
-      </c>
-      <c r="L23" s="3">
-        <v>-25000</v>
-      </c>
-      <c r="M23" s="3">
-        <v>-35100</v>
-      </c>
-      <c r="N23" s="3">
-        <v>-27800</v>
-      </c>
-      <c r="O23" s="3">
-        <v>-47500</v>
-      </c>
-      <c r="P23" s="3">
-        <v>-36100</v>
-      </c>
-      <c r="Q23" s="3">
-        <v>-37100</v>
-      </c>
-      <c r="R23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1496,8 +1542,11 @@
       <c r="R24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1546,108 +1595,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-3700</v>
+        <v>-3400</v>
       </c>
       <c r="E26" s="3">
-        <v>-3400</v>
+        <v>-3800</v>
       </c>
       <c r="F26" s="3">
         <v>-3600</v>
       </c>
       <c r="G26" s="3">
-        <v>-68200</v>
+        <v>-3700</v>
       </c>
       <c r="H26" s="3">
-        <v>-37100</v>
+        <v>-70400</v>
       </c>
       <c r="I26" s="3">
-        <v>-91800</v>
+        <v>-38300</v>
       </c>
       <c r="J26" s="3">
+        <v>-94700</v>
+      </c>
+      <c r="K26" s="3">
         <v>-50800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-84800</v>
       </c>
-      <c r="L26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N26" s="3">
+      <c r="N26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O26" s="3">
         <v>-27800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-47500</v>
       </c>
-      <c r="P26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-3700</v>
+        <v>-3400</v>
       </c>
       <c r="E27" s="3">
-        <v>-3400</v>
+        <v>-3800</v>
       </c>
       <c r="F27" s="3">
         <v>-3600</v>
       </c>
       <c r="G27" s="3">
-        <v>-68200</v>
+        <v>-3700</v>
       </c>
       <c r="H27" s="3">
-        <v>-37100</v>
+        <v>-70400</v>
       </c>
       <c r="I27" s="3">
-        <v>-91800</v>
+        <v>-38300</v>
       </c>
       <c r="J27" s="3">
+        <v>-94700</v>
+      </c>
+      <c r="K27" s="3">
         <v>76900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-549700</v>
       </c>
-      <c r="L27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N27" s="3">
+      <c r="N27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O27" s="3">
         <v>-52400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-71100</v>
       </c>
-      <c r="P27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1696,8 +1754,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1746,8 +1807,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1796,8 +1860,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1846,108 +1913,117 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E32" s="3">
         <v>-1100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-600</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-500</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-1200</v>
       </c>
-      <c r="H32" s="3">
-        <v>-1800</v>
-      </c>
       <c r="I32" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="J32" s="3">
         <v>-1000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>1100</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N32" s="3">
+      <c r="N32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O32" s="3">
         <v>-600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-2200</v>
       </c>
-      <c r="P32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q32" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-3700</v>
+        <v>-3400</v>
       </c>
       <c r="E33" s="3">
-        <v>-3400</v>
+        <v>-3800</v>
       </c>
       <c r="F33" s="3">
         <v>-3600</v>
       </c>
       <c r="G33" s="3">
-        <v>-68200</v>
+        <v>-3700</v>
       </c>
       <c r="H33" s="3">
-        <v>-37100</v>
+        <v>-70400</v>
       </c>
       <c r="I33" s="3">
-        <v>-91800</v>
+        <v>-38300</v>
       </c>
       <c r="J33" s="3">
+        <v>-94700</v>
+      </c>
+      <c r="K33" s="3">
         <v>76900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-549700</v>
       </c>
-      <c r="L33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N33" s="3">
+      <c r="N33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O33" s="3">
         <v>-52400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-71100</v>
       </c>
-      <c r="P33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1996,113 +2072,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-3700</v>
+        <v>-3400</v>
       </c>
       <c r="E35" s="3">
-        <v>-3400</v>
+        <v>-3800</v>
       </c>
       <c r="F35" s="3">
         <v>-3600</v>
       </c>
       <c r="G35" s="3">
-        <v>-68200</v>
+        <v>-3700</v>
       </c>
       <c r="H35" s="3">
-        <v>-37100</v>
+        <v>-70400</v>
       </c>
       <c r="I35" s="3">
-        <v>-91800</v>
+        <v>-38300</v>
       </c>
       <c r="J35" s="3">
+        <v>-94700</v>
+      </c>
+      <c r="K35" s="3">
         <v>76900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-549700</v>
       </c>
-      <c r="L35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N35" s="3">
+      <c r="N35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O35" s="3">
         <v>-52400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-71100</v>
       </c>
-      <c r="P35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2121,8 +2206,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2141,41 +2227,42 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>124400</v>
+        <v>122200</v>
       </c>
       <c r="E41" s="3">
-        <v>113200</v>
+        <v>128400</v>
       </c>
       <c r="F41" s="3">
-        <v>164400</v>
+        <v>116800</v>
       </c>
       <c r="G41" s="3">
-        <v>198000</v>
+        <v>169600</v>
       </c>
       <c r="H41" s="3">
-        <v>300700</v>
+        <v>204300</v>
       </c>
       <c r="I41" s="3">
-        <v>311900</v>
+        <v>310200</v>
       </c>
       <c r="J41" s="3">
+        <v>321800</v>
+      </c>
+      <c r="K41" s="3">
         <v>394600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>118900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>184900</v>
       </c>
-      <c r="M41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2191,8 +2278,11 @@
       <c r="R41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2241,16 +2331,19 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>8500</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>3</v>
+        <v>4500</v>
+      </c>
+      <c r="E43" s="3">
+        <v>8800</v>
       </c>
       <c r="F43" s="3" t="s">
         <v>3</v>
@@ -2264,18 +2357,18 @@
       <c r="I43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J43" s="3">
+      <c r="J43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K43" s="3">
         <v>1000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>3900</v>
       </c>
-      <c r="M43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2291,8 +2384,11 @@
       <c r="R43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2341,41 +2437,44 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>18100</v>
+        <v>17300</v>
       </c>
       <c r="E45" s="3">
-        <v>20000</v>
+        <v>18700</v>
       </c>
       <c r="F45" s="3">
-        <v>22500</v>
+        <v>20700</v>
       </c>
       <c r="G45" s="3">
-        <v>21500</v>
+        <v>23200</v>
       </c>
       <c r="H45" s="3">
-        <v>25900</v>
+        <v>22200</v>
       </c>
       <c r="I45" s="3">
-        <v>25900</v>
+        <v>26700</v>
       </c>
       <c r="J45" s="3">
+        <v>26700</v>
+      </c>
+      <c r="K45" s="3">
         <v>28400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>23700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>15900</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2391,41 +2490,44 @@
       <c r="R45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>151100</v>
+        <v>144100</v>
       </c>
       <c r="E46" s="3">
-        <v>133300</v>
+        <v>155900</v>
       </c>
       <c r="F46" s="3">
-        <v>186900</v>
+        <v>137500</v>
       </c>
       <c r="G46" s="3">
-        <v>219500</v>
+        <v>192800</v>
       </c>
       <c r="H46" s="3">
-        <v>326500</v>
+        <v>226400</v>
       </c>
       <c r="I46" s="3">
-        <v>337700</v>
+        <v>336900</v>
       </c>
       <c r="J46" s="3">
+        <v>348500</v>
+      </c>
+      <c r="K46" s="3">
         <v>424100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>144500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>204700</v>
       </c>
-      <c r="M46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2441,8 +2543,11 @@
       <c r="R46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2491,41 +2596,44 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>14200</v>
+        <v>10300</v>
       </c>
       <c r="E48" s="3">
-        <v>23100</v>
+        <v>14600</v>
       </c>
       <c r="F48" s="3">
-        <v>31100</v>
+        <v>23800</v>
       </c>
       <c r="G48" s="3">
-        <v>47400</v>
+        <v>32100</v>
       </c>
       <c r="H48" s="3">
-        <v>59600</v>
+        <v>48900</v>
       </c>
       <c r="I48" s="3">
-        <v>54700</v>
+        <v>61500</v>
       </c>
       <c r="J48" s="3">
+        <v>56400</v>
+      </c>
+      <c r="K48" s="3">
         <v>42500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>34700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>24500</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2541,8 +2649,11 @@
       <c r="R48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2591,8 +2702,11 @@
       <c r="R49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2641,8 +2755,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2691,41 +2808,44 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1300</v>
+        <v>1100</v>
       </c>
       <c r="E52" s="3">
-        <v>1700</v>
+        <v>1400</v>
       </c>
       <c r="F52" s="3">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="G52" s="3">
-        <v>1700</v>
+        <v>2000</v>
       </c>
       <c r="H52" s="3">
+        <v>1800</v>
+      </c>
+      <c r="I52" s="3">
+        <v>5400</v>
+      </c>
+      <c r="J52" s="3">
         <v>5200</v>
       </c>
-      <c r="I52" s="3">
-        <v>5100</v>
-      </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>5300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>3300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>3900</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2741,8 +2861,11 @@
       <c r="R52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2791,41 +2914,44 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>166600</v>
+        <v>155500</v>
       </c>
       <c r="E54" s="3">
-        <v>158000</v>
+        <v>171900</v>
       </c>
       <c r="F54" s="3">
-        <v>220000</v>
+        <v>163000</v>
       </c>
       <c r="G54" s="3">
-        <v>268600</v>
+        <v>227000</v>
       </c>
       <c r="H54" s="3">
-        <v>391300</v>
+        <v>277200</v>
       </c>
       <c r="I54" s="3">
-        <v>397500</v>
+        <v>403800</v>
       </c>
       <c r="J54" s="3">
+        <v>410100</v>
+      </c>
+      <c r="K54" s="3">
         <v>471900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>182400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>233100</v>
       </c>
-      <c r="M54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2841,8 +2967,11 @@
       <c r="R54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2861,8 +2990,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2881,8 +3011,9 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2931,41 +3062,44 @@
       <c r="R57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>3</v>
+      <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3">
+        <v>0</v>
+      </c>
+      <c r="G58" s="3">
+        <v>0</v>
+      </c>
+      <c r="H58" s="3">
+        <v>0</v>
+      </c>
+      <c r="I58" s="3">
+        <v>0</v>
       </c>
       <c r="J58" s="3">
         <v>0</v>
       </c>
       <c r="K58" s="3">
+        <v>0</v>
+      </c>
+      <c r="L58" s="3">
         <v>2600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>12500</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2981,41 +3115,44 @@
       <c r="R58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>47500</v>
+        <v>30600</v>
       </c>
       <c r="E59" s="3">
-        <v>41100</v>
+        <v>49000</v>
       </c>
       <c r="F59" s="3">
-        <v>95100</v>
+        <v>42400</v>
       </c>
       <c r="G59" s="3">
-        <v>141300</v>
+        <v>98100</v>
       </c>
       <c r="H59" s="3">
-        <v>193200</v>
+        <v>145800</v>
       </c>
       <c r="I59" s="3">
-        <v>170900</v>
+        <v>199300</v>
       </c>
       <c r="J59" s="3">
+        <v>176400</v>
+      </c>
+      <c r="K59" s="3">
         <v>167800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>140400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>106400</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3031,41 +3168,44 @@
       <c r="R59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>47500</v>
+        <v>30600</v>
       </c>
       <c r="E60" s="3">
-        <v>41100</v>
+        <v>49000</v>
       </c>
       <c r="F60" s="3">
-        <v>95100</v>
+        <v>42400</v>
       </c>
       <c r="G60" s="3">
-        <v>141300</v>
+        <v>98100</v>
       </c>
       <c r="H60" s="3">
-        <v>193200</v>
+        <v>145800</v>
       </c>
       <c r="I60" s="3">
-        <v>170900</v>
+        <v>199300</v>
       </c>
       <c r="J60" s="3">
+        <v>176400</v>
+      </c>
+      <c r="K60" s="3">
         <v>167800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>143000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>119000</v>
       </c>
-      <c r="M60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3081,8 +3221,11 @@
       <c r="R60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3131,41 +3274,44 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>3100</v>
+        <v>1700</v>
       </c>
       <c r="E62" s="3">
-        <v>6800</v>
+        <v>3200</v>
       </c>
       <c r="F62" s="3">
-        <v>14000</v>
+        <v>7100</v>
       </c>
       <c r="G62" s="3">
-        <v>17600</v>
+        <v>14400</v>
       </c>
       <c r="H62" s="3">
-        <v>25900</v>
+        <v>18100</v>
       </c>
       <c r="I62" s="3">
-        <v>21300</v>
+        <v>26700</v>
       </c>
       <c r="J62" s="3">
+        <v>22000</v>
+      </c>
+      <c r="K62" s="3">
         <v>16700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>12100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>5200</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3181,8 +3327,11 @@
       <c r="R62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3231,8 +3380,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3281,8 +3433,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3331,41 +3486,44 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>50600</v>
+        <v>32400</v>
       </c>
       <c r="E66" s="3">
-        <v>48000</v>
+        <v>52200</v>
       </c>
       <c r="F66" s="3">
-        <v>109000</v>
+        <v>49500</v>
       </c>
       <c r="G66" s="3">
-        <v>158900</v>
+        <v>112500</v>
       </c>
       <c r="H66" s="3">
-        <v>219100</v>
+        <v>163900</v>
       </c>
       <c r="I66" s="3">
-        <v>192200</v>
+        <v>226100</v>
       </c>
       <c r="J66" s="3">
+        <v>198300</v>
+      </c>
+      <c r="K66" s="3">
         <v>184500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>155100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>124100</v>
       </c>
-      <c r="M66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3381,8 +3539,11 @@
       <c r="R66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3401,8 +3562,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3451,8 +3613,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3501,8 +3666,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3528,14 +3696,14 @@
         <v>0</v>
       </c>
       <c r="K70" s="3">
+        <v>0</v>
+      </c>
+      <c r="L70" s="3">
         <v>1363200</v>
       </c>
-      <c r="L70" s="3">
+      <c r="M70" s="3">
         <v>906500</v>
       </c>
-      <c r="M70" s="3">
-        <v>0</v>
-      </c>
       <c r="N70" s="3">
         <v>0</v>
       </c>
@@ -3551,8 +3719,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3601,41 +3772,44 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-1410400</v>
+        <v>-1458600</v>
       </c>
       <c r="E72" s="3">
-        <v>-1406700</v>
+        <v>-1455200</v>
       </c>
       <c r="F72" s="3">
-        <v>-1403300</v>
+        <v>-1451400</v>
       </c>
       <c r="G72" s="3">
-        <v>-1399700</v>
+        <v>-1447800</v>
       </c>
       <c r="H72" s="3">
-        <v>-1331500</v>
+        <v>-1444200</v>
       </c>
       <c r="I72" s="3">
-        <v>-1294400</v>
+        <v>-1373800</v>
       </c>
       <c r="J72" s="3">
+        <v>-1335500</v>
+      </c>
+      <c r="K72" s="3">
         <v>-1202600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-1345000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-811000</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3651,8 +3825,11 @@
       <c r="R72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3701,8 +3878,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3751,8 +3931,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3801,41 +3984,44 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>116000</v>
+        <v>123100</v>
       </c>
       <c r="E76" s="3">
-        <v>110000</v>
+        <v>119700</v>
       </c>
       <c r="F76" s="3">
-        <v>110900</v>
+        <v>113500</v>
       </c>
       <c r="G76" s="3">
-        <v>109700</v>
+        <v>114500</v>
       </c>
       <c r="H76" s="3">
-        <v>172200</v>
+        <v>113200</v>
       </c>
       <c r="I76" s="3">
-        <v>205300</v>
+        <v>177700</v>
       </c>
       <c r="J76" s="3">
+        <v>211800</v>
+      </c>
+      <c r="K76" s="3">
         <v>287300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-1335900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-797600</v>
       </c>
-      <c r="M76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3851,8 +4037,11 @@
       <c r="R76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3901,113 +4090,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-3700</v>
+        <v>-3400</v>
       </c>
       <c r="E81" s="3">
-        <v>-3400</v>
+        <v>-3800</v>
       </c>
       <c r="F81" s="3">
         <v>-3600</v>
       </c>
       <c r="G81" s="3">
-        <v>-68200</v>
+        <v>-3700</v>
       </c>
       <c r="H81" s="3">
-        <v>-37100</v>
+        <v>-70400</v>
       </c>
       <c r="I81" s="3">
-        <v>-91800</v>
+        <v>-38300</v>
       </c>
       <c r="J81" s="3">
+        <v>-94700</v>
+      </c>
+      <c r="K81" s="3">
         <v>76900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-549700</v>
       </c>
-      <c r="L81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M81" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N81" s="3">
+      <c r="N81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O81" s="3">
         <v>-52400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-71100</v>
       </c>
-      <c r="P81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4026,8 +4224,9 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4052,8 +4251,8 @@
       <c r="J83" s="3">
         <v>0</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>3</v>
+      <c r="K83" s="3">
+        <v>0</v>
       </c>
       <c r="L83" s="3" t="s">
         <v>3</v>
@@ -4076,8 +4275,11 @@
       <c r="R83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4126,8 +4328,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4176,8 +4381,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4226,8 +4434,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4276,8 +4487,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4326,8 +4540,11 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4352,8 +4569,8 @@
       <c r="J89" s="3">
         <v>0</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>3</v>
+      <c r="K89" s="3">
+        <v>0</v>
       </c>
       <c r="L89" s="3" t="s">
         <v>3</v>
@@ -4376,8 +4593,11 @@
       <c r="R89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4396,8 +4616,9 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4422,8 +4643,8 @@
       <c r="J91" s="3">
         <v>0</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>3</v>
+      <c r="K91" s="3">
+        <v>0</v>
       </c>
       <c r="L91" s="3" t="s">
         <v>3</v>
@@ -4446,8 +4667,11 @@
       <c r="R91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4496,8 +4720,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4546,8 +4773,11 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4572,8 +4802,8 @@
       <c r="J94" s="3">
         <v>0</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>3</v>
+      <c r="K94" s="3">
+        <v>0</v>
       </c>
       <c r="L94" s="3" t="s">
         <v>3</v>
@@ -4596,8 +4826,11 @@
       <c r="R94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4616,8 +4849,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4666,8 +4900,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4716,8 +4953,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4766,8 +5006,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4816,8 +5059,11 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4842,8 +5088,8 @@
       <c r="J100" s="3">
         <v>0</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>3</v>
+      <c r="K100" s="3">
+        <v>0</v>
       </c>
       <c r="L100" s="3" t="s">
         <v>3</v>
@@ -4866,8 +5112,11 @@
       <c r="R100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4892,8 +5141,8 @@
       <c r="J101" s="3">
         <v>0</v>
       </c>
-      <c r="K101" s="3" t="s">
-        <v>3</v>
+      <c r="K101" s="3">
+        <v>0</v>
       </c>
       <c r="L101" s="3" t="s">
         <v>3</v>
@@ -4916,8 +5165,11 @@
       <c r="R101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4942,8 +5194,8 @@
       <c r="J102" s="3">
         <v>0</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>3</v>
+      <c r="K102" s="3">
+        <v>0</v>
       </c>
       <c r="L102" s="3" t="s">
         <v>3</v>
@@ -4964,6 +5216,9 @@
         <v>3</v>
       </c>
       <c r="R102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/YQ_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/YQ_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="92">
   <si>
     <t>YQ</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,245 +665,257 @@
     <col min="1" max="1" width="4.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>17900</v>
+        <v>5600</v>
       </c>
       <c r="E8" s="3">
-        <v>19200</v>
+        <v>17700</v>
       </c>
       <c r="F8" s="3">
-        <v>33500</v>
+        <v>19000</v>
       </c>
       <c r="G8" s="3">
-        <v>77900</v>
+        <v>33200</v>
       </c>
       <c r="H8" s="3">
-        <v>71400</v>
+        <v>77100</v>
       </c>
       <c r="I8" s="3">
-        <v>96400</v>
+        <v>70600</v>
       </c>
       <c r="J8" s="3">
+        <v>95400</v>
+      </c>
+      <c r="K8" s="3">
         <v>68100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>67800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>44800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>40000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>35900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>30100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>16300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>8500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>8200</v>
       </c>
-      <c r="S8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>4600</v>
+        <v>2700</v>
       </c>
       <c r="E9" s="3">
-        <v>9200</v>
+        <v>4500</v>
       </c>
       <c r="F9" s="3">
-        <v>13200</v>
+        <v>9100</v>
       </c>
       <c r="G9" s="3">
-        <v>27500</v>
+        <v>13000</v>
       </c>
       <c r="H9" s="3">
-        <v>36100</v>
+        <v>27200</v>
       </c>
       <c r="I9" s="3">
-        <v>35600</v>
+        <v>35700</v>
       </c>
       <c r="J9" s="3">
+        <v>35300</v>
+      </c>
+      <c r="K9" s="3">
         <v>26900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>24200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>20700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>14400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>12900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>11200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>8500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>4400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>2800</v>
       </c>
-      <c r="S9" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>13300</v>
+        <v>2900</v>
       </c>
       <c r="E10" s="3">
-        <v>10000</v>
+        <v>13200</v>
       </c>
       <c r="F10" s="3">
-        <v>20300</v>
+        <v>9900</v>
       </c>
       <c r="G10" s="3">
-        <v>50500</v>
+        <v>20100</v>
       </c>
       <c r="H10" s="3">
-        <v>35200</v>
+        <v>49900</v>
       </c>
       <c r="I10" s="3">
-        <v>60700</v>
+        <v>34900</v>
       </c>
       <c r="J10" s="3">
+        <v>60100</v>
+      </c>
+      <c r="K10" s="3">
         <v>41200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>43600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>24100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>25600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>23000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>19000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>7700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>4100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>5400</v>
       </c>
-      <c r="S10" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -923,61 +935,65 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>7300</v>
+        <v>7400</v>
       </c>
       <c r="E12" s="3">
+        <v>7200</v>
+      </c>
+      <c r="F12" s="3">
         <v>5100</v>
       </c>
-      <c r="F12" s="3">
-        <v>14000</v>
-      </c>
       <c r="G12" s="3">
-        <v>22900</v>
+        <v>13900</v>
       </c>
       <c r="H12" s="3">
-        <v>28900</v>
+        <v>22700</v>
       </c>
       <c r="I12" s="3">
-        <v>33000</v>
+        <v>28600</v>
       </c>
       <c r="J12" s="3">
+        <v>32600</v>
+      </c>
+      <c r="K12" s="3">
         <v>30100</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>26700</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>22400</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>20100</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>20800</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>20100</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>19100</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>18500</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>18100</v>
       </c>
-      <c r="S12" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1029,8 +1045,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1040,20 +1059,20 @@
       <c r="E14" s="3">
         <v>0</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G14" s="3">
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H14" s="3">
         <v>4800</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>4400</v>
       </c>
-      <c r="I14" s="3">
-        <v>8200</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>3</v>
+      <c r="J14" s="3">
+        <v>8100</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>3</v>
@@ -1070,8 +1089,8 @@
       <c r="O14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
+      <c r="P14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q14" s="3">
         <v>0</v>
@@ -1082,8 +1101,11 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1135,8 +1157,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1153,114 +1178,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>21900</v>
+        <v>22700</v>
       </c>
       <c r="E17" s="3">
-        <v>24100</v>
+        <v>21600</v>
       </c>
       <c r="F17" s="3">
-        <v>37700</v>
+        <v>23800</v>
       </c>
       <c r="G17" s="3">
-        <v>82100</v>
+        <v>37300</v>
       </c>
       <c r="H17" s="3">
-        <v>142900</v>
+        <v>81200</v>
       </c>
       <c r="I17" s="3">
-        <v>136500</v>
+        <v>141500</v>
       </c>
       <c r="J17" s="3">
+        <v>135100</v>
+      </c>
+      <c r="K17" s="3">
         <v>163800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>118300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>128500</v>
       </c>
-      <c r="M17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O17" s="3">
+      <c r="O17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P17" s="3">
         <v>58500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>65900</v>
       </c>
-      <c r="Q17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-4000</v>
+        <v>-17100</v>
       </c>
       <c r="E18" s="3">
-        <v>-4900</v>
+        <v>-3900</v>
       </c>
       <c r="F18" s="3">
-        <v>-4200</v>
+        <v>-4800</v>
       </c>
       <c r="G18" s="3">
-        <v>-4200</v>
+        <v>-4100</v>
       </c>
       <c r="H18" s="3">
-        <v>-71600</v>
+        <v>-4100</v>
       </c>
       <c r="I18" s="3">
-        <v>-40200</v>
+        <v>-70800</v>
       </c>
       <c r="J18" s="3">
+        <v>-39800</v>
+      </c>
+      <c r="K18" s="3">
         <v>-95700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-50500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-83700</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O18" s="3">
+      <c r="O18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P18" s="3">
         <v>-28400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-49600</v>
       </c>
-      <c r="Q18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1280,61 +1312,65 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E20" s="3">
         <v>600</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>1100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>600</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>500</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>1200</v>
       </c>
-      <c r="I20" s="3">
-        <v>1900</v>
-      </c>
       <c r="J20" s="3">
+        <v>1800</v>
+      </c>
+      <c r="K20" s="3">
         <v>1000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-1100</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O20" s="3">
+      <c r="O20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P20" s="3">
         <v>600</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>2200</v>
       </c>
-      <c r="Q20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R20" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1359,35 +1395,38 @@
       <c r="J21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K21" s="3">
+      <c r="K21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L21" s="3">
         <v>-45300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-80700</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O21" s="3">
+      <c r="O21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P21" s="3">
         <v>-24300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-44800</v>
       </c>
-      <c r="Q21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1400,11 +1439,11 @@
       <c r="F22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>3</v>
+      <c r="G22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H22" s="3">
+        <v>0</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>3</v>
@@ -1412,88 +1451,94 @@
       <c r="J22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K22" s="3">
-        <v>0</v>
+      <c r="K22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L22" s="3">
         <v>0</v>
       </c>
       <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3">
         <v>300</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>200</v>
       </c>
-      <c r="O22" s="3">
-        <v>0</v>
-      </c>
       <c r="P22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="3">
         <v>100</v>
       </c>
-      <c r="Q22" s="3">
-        <v>0</v>
-      </c>
       <c r="R22" s="3">
         <v>0</v>
       </c>
-      <c r="S22" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+      <c r="T22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-3400</v>
+        <v>-14700</v>
       </c>
       <c r="E23" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="F23" s="3">
         <v>-3800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="H23" s="3">
         <v>-3600</v>
       </c>
-      <c r="G23" s="3">
-        <v>-3700</v>
-      </c>
-      <c r="H23" s="3">
-        <v>-70400</v>
-      </c>
       <c r="I23" s="3">
-        <v>-38300</v>
+        <v>-69600</v>
       </c>
       <c r="J23" s="3">
+        <v>-37900</v>
+      </c>
+      <c r="K23" s="3">
         <v>-94700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-50800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-84800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-25000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-35100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-27800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-47500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-36100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-37100</v>
       </c>
-      <c r="S23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1545,8 +1590,11 @@
       <c r="S24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1598,114 +1646,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-3400</v>
+        <v>-14700</v>
       </c>
       <c r="E26" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="F26" s="3">
         <v>-3800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="H26" s="3">
         <v>-3600</v>
       </c>
-      <c r="G26" s="3">
-        <v>-3700</v>
-      </c>
-      <c r="H26" s="3">
-        <v>-70400</v>
-      </c>
       <c r="I26" s="3">
-        <v>-38300</v>
+        <v>-69600</v>
       </c>
       <c r="J26" s="3">
+        <v>-37900</v>
+      </c>
+      <c r="K26" s="3">
         <v>-94700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-50800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-84800</v>
       </c>
-      <c r="M26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O26" s="3">
+      <c r="O26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P26" s="3">
         <v>-27800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-47500</v>
       </c>
-      <c r="Q26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-3400</v>
+        <v>-14700</v>
       </c>
       <c r="E27" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="F27" s="3">
         <v>-3800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="H27" s="3">
         <v>-3600</v>
       </c>
-      <c r="G27" s="3">
-        <v>-3700</v>
-      </c>
-      <c r="H27" s="3">
-        <v>-70400</v>
-      </c>
       <c r="I27" s="3">
-        <v>-38300</v>
+        <v>-69600</v>
       </c>
       <c r="J27" s="3">
+        <v>-37900</v>
+      </c>
+      <c r="K27" s="3">
         <v>-94700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>76900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-549700</v>
       </c>
-      <c r="M27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O27" s="3">
+      <c r="O27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P27" s="3">
         <v>-52400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-71100</v>
       </c>
-      <c r="Q27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1757,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1810,8 +1870,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1863,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1916,114 +1982,123 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E32" s="3">
         <v>-600</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-1100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-600</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-500</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-1200</v>
       </c>
-      <c r="I32" s="3">
-        <v>-1900</v>
-      </c>
       <c r="J32" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="K32" s="3">
         <v>-1000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>1100</v>
       </c>
-      <c r="M32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O32" s="3">
+      <c r="O32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P32" s="3">
         <v>-600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-2200</v>
       </c>
-      <c r="Q32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R32" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-3400</v>
+        <v>-14700</v>
       </c>
       <c r="E33" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="F33" s="3">
         <v>-3800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="H33" s="3">
         <v>-3600</v>
       </c>
-      <c r="G33" s="3">
-        <v>-3700</v>
-      </c>
-      <c r="H33" s="3">
-        <v>-70400</v>
-      </c>
       <c r="I33" s="3">
-        <v>-38300</v>
+        <v>-69600</v>
       </c>
       <c r="J33" s="3">
+        <v>-37900</v>
+      </c>
+      <c r="K33" s="3">
         <v>-94700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>76900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-549700</v>
       </c>
-      <c r="M33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O33" s="3">
+      <c r="O33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P33" s="3">
         <v>-52400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-71100</v>
       </c>
-      <c r="Q33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2075,119 +2150,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-3400</v>
+        <v>-14700</v>
       </c>
       <c r="E35" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="F35" s="3">
         <v>-3800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="H35" s="3">
         <v>-3600</v>
       </c>
-      <c r="G35" s="3">
-        <v>-3700</v>
-      </c>
-      <c r="H35" s="3">
-        <v>-70400</v>
-      </c>
       <c r="I35" s="3">
-        <v>-38300</v>
+        <v>-69600</v>
       </c>
       <c r="J35" s="3">
+        <v>-37900</v>
+      </c>
+      <c r="K35" s="3">
         <v>-94700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>76900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-549700</v>
       </c>
-      <c r="M35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O35" s="3">
+      <c r="O35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P35" s="3">
         <v>-52400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-71100</v>
       </c>
-      <c r="Q35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2207,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2228,44 +2313,45 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>122200</v>
+        <v>100600</v>
       </c>
       <c r="E41" s="3">
-        <v>128400</v>
+        <v>121000</v>
       </c>
       <c r="F41" s="3">
-        <v>116800</v>
+        <v>127000</v>
       </c>
       <c r="G41" s="3">
-        <v>169600</v>
+        <v>115600</v>
       </c>
       <c r="H41" s="3">
-        <v>204300</v>
+        <v>167900</v>
       </c>
       <c r="I41" s="3">
-        <v>310200</v>
+        <v>202200</v>
       </c>
       <c r="J41" s="3">
+        <v>307000</v>
+      </c>
+      <c r="K41" s="3">
         <v>321800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>394600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>118900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>184900</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2281,31 +2367,34 @@
       <c r="S41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>0</v>
-      </c>
-      <c r="E42" s="3">
-        <v>0</v>
-      </c>
-      <c r="F42" s="3">
-        <v>0</v>
-      </c>
-      <c r="G42" s="3">
-        <v>0</v>
-      </c>
-      <c r="H42" s="3">
-        <v>0</v>
-      </c>
-      <c r="I42" s="3">
-        <v>0</v>
-      </c>
-      <c r="J42" s="3">
-        <v>0</v>
+        <v>2800</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K42" s="3">
         <v>0</v>
@@ -2334,19 +2423,22 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E43" s="3">
         <v>4500</v>
       </c>
-      <c r="E43" s="3">
-        <v>8800</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>3</v>
+      <c r="F43" s="3">
+        <v>8700</v>
       </c>
       <c r="G43" s="3" t="s">
         <v>3</v>
@@ -2360,18 +2452,18 @@
       <c r="J43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K43" s="3">
+      <c r="K43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L43" s="3">
         <v>1000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>3900</v>
       </c>
-      <c r="N43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2387,8 +2479,11 @@
       <c r="S43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2440,44 +2535,47 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>17300</v>
+        <v>21500</v>
       </c>
       <c r="E45" s="3">
-        <v>18700</v>
+        <v>17100</v>
       </c>
       <c r="F45" s="3">
-        <v>20700</v>
+        <v>18500</v>
       </c>
       <c r="G45" s="3">
-        <v>23200</v>
+        <v>20500</v>
       </c>
       <c r="H45" s="3">
-        <v>22200</v>
+        <v>23000</v>
       </c>
       <c r="I45" s="3">
+        <v>21900</v>
+      </c>
+      <c r="J45" s="3">
+        <v>26400</v>
+      </c>
+      <c r="K45" s="3">
         <v>26700</v>
       </c>
-      <c r="J45" s="3">
-        <v>26700</v>
-      </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>28400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>23700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>15900</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2493,44 +2591,47 @@
       <c r="S45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>144100</v>
+        <v>129800</v>
       </c>
       <c r="E46" s="3">
-        <v>155900</v>
+        <v>142600</v>
       </c>
       <c r="F46" s="3">
-        <v>137500</v>
+        <v>154300</v>
       </c>
       <c r="G46" s="3">
-        <v>192800</v>
+        <v>136100</v>
       </c>
       <c r="H46" s="3">
-        <v>226400</v>
+        <v>190900</v>
       </c>
       <c r="I46" s="3">
-        <v>336900</v>
+        <v>224100</v>
       </c>
       <c r="J46" s="3">
+        <v>333400</v>
+      </c>
+      <c r="K46" s="3">
         <v>348500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>424100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>144500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>204700</v>
       </c>
-      <c r="N46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2546,8 +2647,11 @@
       <c r="S46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2599,44 +2703,47 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>10300</v>
+        <v>8900</v>
       </c>
       <c r="E48" s="3">
-        <v>14600</v>
+        <v>10200</v>
       </c>
       <c r="F48" s="3">
-        <v>23800</v>
+        <v>14500</v>
       </c>
       <c r="G48" s="3">
-        <v>32100</v>
+        <v>23500</v>
       </c>
       <c r="H48" s="3">
-        <v>48900</v>
+        <v>31800</v>
       </c>
       <c r="I48" s="3">
-        <v>61500</v>
+        <v>48400</v>
       </c>
       <c r="J48" s="3">
+        <v>60900</v>
+      </c>
+      <c r="K48" s="3">
         <v>56400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>42500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>34700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>24500</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2652,8 +2759,11 @@
       <c r="S48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2705,8 +2815,11 @@
       <c r="S49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2758,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2811,44 +2927,47 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>700</v>
+      </c>
+      <c r="E52" s="3">
         <v>1100</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>1400</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>1800</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>2000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>1800</v>
       </c>
-      <c r="I52" s="3">
-        <v>5400</v>
-      </c>
       <c r="J52" s="3">
+        <v>5300</v>
+      </c>
+      <c r="K52" s="3">
         <v>5200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>5300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>3300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>3900</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2864,8 +2983,11 @@
       <c r="S52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2917,44 +3039,47 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>155500</v>
+        <v>139400</v>
       </c>
       <c r="E54" s="3">
-        <v>171900</v>
+        <v>153900</v>
       </c>
       <c r="F54" s="3">
-        <v>163000</v>
+        <v>170100</v>
       </c>
       <c r="G54" s="3">
-        <v>227000</v>
+        <v>161400</v>
       </c>
       <c r="H54" s="3">
-        <v>277200</v>
+        <v>224700</v>
       </c>
       <c r="I54" s="3">
-        <v>403800</v>
+        <v>274300</v>
       </c>
       <c r="J54" s="3">
+        <v>399600</v>
+      </c>
+      <c r="K54" s="3">
         <v>410100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>471900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>182400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>233100</v>
       </c>
-      <c r="N54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2970,8 +3095,11 @@
       <c r="S54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2991,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3012,8 +3141,9 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3065,8 +3195,11 @@
       <c r="S57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3095,14 +3228,14 @@
         <v>0</v>
       </c>
       <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3">
         <v>2600</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>12500</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O58" s="3" t="s">
         <v>3</v>
       </c>
@@ -3118,44 +3251,47 @@
       <c r="S58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>30600</v>
+        <v>30400</v>
       </c>
       <c r="E59" s="3">
-        <v>49000</v>
+        <v>30300</v>
       </c>
       <c r="F59" s="3">
-        <v>42400</v>
+        <v>48500</v>
       </c>
       <c r="G59" s="3">
-        <v>98100</v>
+        <v>42000</v>
       </c>
       <c r="H59" s="3">
-        <v>145800</v>
+        <v>97100</v>
       </c>
       <c r="I59" s="3">
-        <v>199300</v>
+        <v>144300</v>
       </c>
       <c r="J59" s="3">
+        <v>197300</v>
+      </c>
+      <c r="K59" s="3">
         <v>176400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>167800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>140400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>106400</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3171,44 +3307,47 @@
       <c r="S59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>30600</v>
+        <v>30400</v>
       </c>
       <c r="E60" s="3">
-        <v>49000</v>
+        <v>30300</v>
       </c>
       <c r="F60" s="3">
-        <v>42400</v>
+        <v>48500</v>
       </c>
       <c r="G60" s="3">
-        <v>98100</v>
+        <v>42000</v>
       </c>
       <c r="H60" s="3">
-        <v>145800</v>
+        <v>97100</v>
       </c>
       <c r="I60" s="3">
-        <v>199300</v>
+        <v>144300</v>
       </c>
       <c r="J60" s="3">
+        <v>197300</v>
+      </c>
+      <c r="K60" s="3">
         <v>176400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>167800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>143000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>119000</v>
       </c>
-      <c r="N60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3224,8 +3363,11 @@
       <c r="S60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3277,44 +3419,47 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E62" s="3">
         <v>1700</v>
       </c>
-      <c r="E62" s="3">
-        <v>3200</v>
-      </c>
       <c r="F62" s="3">
-        <v>7100</v>
+        <v>3100</v>
       </c>
       <c r="G62" s="3">
-        <v>14400</v>
+        <v>7000</v>
       </c>
       <c r="H62" s="3">
-        <v>18100</v>
+        <v>14300</v>
       </c>
       <c r="I62" s="3">
-        <v>26700</v>
+        <v>17900</v>
       </c>
       <c r="J62" s="3">
+        <v>26500</v>
+      </c>
+      <c r="K62" s="3">
         <v>22000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>16700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>12100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>5200</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3330,8 +3475,11 @@
       <c r="S62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3383,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3436,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3489,44 +3643,47 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>32400</v>
+        <v>31500</v>
       </c>
       <c r="E66" s="3">
-        <v>52200</v>
+        <v>32000</v>
       </c>
       <c r="F66" s="3">
-        <v>49500</v>
+        <v>51700</v>
       </c>
       <c r="G66" s="3">
-        <v>112500</v>
+        <v>49000</v>
       </c>
       <c r="H66" s="3">
-        <v>163900</v>
+        <v>111400</v>
       </c>
       <c r="I66" s="3">
-        <v>226100</v>
+        <v>162300</v>
       </c>
       <c r="J66" s="3">
+        <v>223800</v>
+      </c>
+      <c r="K66" s="3">
         <v>198300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>184500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>155100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>124100</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3542,8 +3699,11 @@
       <c r="S66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3563,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3616,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3669,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3699,14 +3866,14 @@
         <v>0</v>
       </c>
       <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
         <v>1363200</v>
       </c>
-      <c r="M70" s="3">
+      <c r="N70" s="3">
         <v>906500</v>
       </c>
-      <c r="N70" s="3">
-        <v>0</v>
-      </c>
       <c r="O70" s="3">
         <v>0</v>
       </c>
@@ -3722,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3775,44 +3945,47 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-1458600</v>
+        <v>-1458300</v>
       </c>
       <c r="E72" s="3">
-        <v>-1455200</v>
+        <v>-1443700</v>
       </c>
       <c r="F72" s="3">
-        <v>-1451400</v>
+        <v>-1440300</v>
       </c>
       <c r="G72" s="3">
-        <v>-1447800</v>
+        <v>-1436500</v>
       </c>
       <c r="H72" s="3">
-        <v>-1444200</v>
+        <v>-1433000</v>
       </c>
       <c r="I72" s="3">
-        <v>-1373800</v>
+        <v>-1429400</v>
       </c>
       <c r="J72" s="3">
+        <v>-1359800</v>
+      </c>
+      <c r="K72" s="3">
         <v>-1335500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-1202600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-1345000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-811000</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3828,8 +4001,11 @@
       <c r="S72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3881,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3934,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3987,44 +4169,47 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>123100</v>
+        <v>107900</v>
       </c>
       <c r="E76" s="3">
-        <v>119700</v>
+        <v>121800</v>
       </c>
       <c r="F76" s="3">
-        <v>113500</v>
+        <v>118500</v>
       </c>
       <c r="G76" s="3">
-        <v>114500</v>
+        <v>112400</v>
       </c>
       <c r="H76" s="3">
-        <v>113200</v>
+        <v>113300</v>
       </c>
       <c r="I76" s="3">
-        <v>177700</v>
+        <v>112100</v>
       </c>
       <c r="J76" s="3">
+        <v>175800</v>
+      </c>
+      <c r="K76" s="3">
         <v>211800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>287300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-1335900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-797600</v>
       </c>
-      <c r="N76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4040,8 +4225,11 @@
       <c r="S76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4093,119 +4281,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-3400</v>
+        <v>-14700</v>
       </c>
       <c r="E81" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="F81" s="3">
         <v>-3800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="H81" s="3">
         <v>-3600</v>
       </c>
-      <c r="G81" s="3">
-        <v>-3700</v>
-      </c>
-      <c r="H81" s="3">
-        <v>-70400</v>
-      </c>
       <c r="I81" s="3">
-        <v>-38300</v>
+        <v>-69600</v>
       </c>
       <c r="J81" s="3">
+        <v>-37900</v>
+      </c>
+      <c r="K81" s="3">
         <v>-94700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>76900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-549700</v>
       </c>
-      <c r="M81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N81" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O81" s="3">
+      <c r="O81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P81" s="3">
         <v>-52400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-71100</v>
       </c>
-      <c r="Q81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4225,8 +4422,9 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4254,8 +4452,8 @@
       <c r="K83" s="3">
         <v>0</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>3</v>
+      <c r="L83" s="3">
+        <v>0</v>
       </c>
       <c r="M83" s="3" t="s">
         <v>3</v>
@@ -4278,8 +4476,11 @@
       <c r="S83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4331,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4384,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4437,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4490,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4543,8 +4756,11 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4572,8 +4788,8 @@
       <c r="K89" s="3">
         <v>0</v>
       </c>
-      <c r="L89" s="3" t="s">
-        <v>3</v>
+      <c r="L89" s="3">
+        <v>0</v>
       </c>
       <c r="M89" s="3" t="s">
         <v>3</v>
@@ -4596,8 +4812,11 @@
       <c r="S89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4617,8 +4836,9 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4646,8 +4866,8 @@
       <c r="K91" s="3">
         <v>0</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>3</v>
+      <c r="L91" s="3">
+        <v>0</v>
       </c>
       <c r="M91" s="3" t="s">
         <v>3</v>
@@ -4670,8 +4890,11 @@
       <c r="S91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4723,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4776,8 +5002,11 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4805,8 +5034,8 @@
       <c r="K94" s="3">
         <v>0</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>3</v>
+      <c r="L94" s="3">
+        <v>0</v>
       </c>
       <c r="M94" s="3" t="s">
         <v>3</v>
@@ -4829,8 +5058,11 @@
       <c r="S94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4850,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4903,8 +5136,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4956,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5009,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5062,8 +5304,11 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5091,8 +5336,8 @@
       <c r="K100" s="3">
         <v>0</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>3</v>
+      <c r="L100" s="3">
+        <v>0</v>
       </c>
       <c r="M100" s="3" t="s">
         <v>3</v>
@@ -5115,8 +5360,11 @@
       <c r="S100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5144,8 +5392,8 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-      <c r="L101" s="3" t="s">
-        <v>3</v>
+      <c r="L101" s="3">
+        <v>0</v>
       </c>
       <c r="M101" s="3" t="s">
         <v>3</v>
@@ -5168,8 +5416,11 @@
       <c r="S101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5197,8 +5448,8 @@
       <c r="K102" s="3">
         <v>0</v>
       </c>
-      <c r="L102" s="3" t="s">
-        <v>3</v>
+      <c r="L102" s="3">
+        <v>0</v>
       </c>
       <c r="M102" s="3" t="s">
         <v>3</v>
@@ -5219,6 +5470,9 @@
         <v>3</v>
       </c>
       <c r="S102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/YQ_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/YQ_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="92">
   <si>
     <t>YQ</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,257 +665,283 @@
     <col min="1" max="1" width="4.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="T7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="V7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>5600</v>
+        <v>9500</v>
       </c>
       <c r="E8" s="3">
-        <v>17700</v>
+        <v>1300</v>
       </c>
       <c r="F8" s="3">
-        <v>19000</v>
+        <v>5500</v>
       </c>
       <c r="G8" s="3">
-        <v>33200</v>
+        <v>17200</v>
       </c>
       <c r="H8" s="3">
-        <v>77100</v>
+        <v>18400</v>
       </c>
       <c r="I8" s="3">
+        <v>32200</v>
+      </c>
+      <c r="J8" s="3">
+        <v>74700</v>
+      </c>
+      <c r="K8" s="3">
         <v>70600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>95400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>68100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>67800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>44800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>40000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>35900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>30100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>16300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>8500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>8200</v>
       </c>
-      <c r="T8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="V8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>2700</v>
+        <v>4900</v>
       </c>
       <c r="E9" s="3">
-        <v>4500</v>
+        <v>1000</v>
       </c>
       <c r="F9" s="3">
-        <v>9100</v>
+        <v>2600</v>
       </c>
       <c r="G9" s="3">
-        <v>13000</v>
+        <v>4400</v>
       </c>
       <c r="H9" s="3">
-        <v>27200</v>
+        <v>8800</v>
       </c>
       <c r="I9" s="3">
+        <v>12600</v>
+      </c>
+      <c r="J9" s="3">
+        <v>26300</v>
+      </c>
+      <c r="K9" s="3">
         <v>35700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>35300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>26900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>24200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>20700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>14400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>12900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>11200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>8500</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>4400</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>2800</v>
       </c>
-      <c r="T9" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="V9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>2900</v>
+        <v>4600</v>
       </c>
       <c r="E10" s="3">
-        <v>13200</v>
+        <v>300</v>
       </c>
       <c r="F10" s="3">
-        <v>9900</v>
+        <v>2800</v>
       </c>
       <c r="G10" s="3">
-        <v>20100</v>
+        <v>12800</v>
       </c>
       <c r="H10" s="3">
-        <v>49900</v>
+        <v>9600</v>
       </c>
       <c r="I10" s="3">
+        <v>19500</v>
+      </c>
+      <c r="J10" s="3">
+        <v>48400</v>
+      </c>
+      <c r="K10" s="3">
         <v>34900</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>60100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>41200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>43600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>24100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>25600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>23000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>19000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>7700</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>4100</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>5400</v>
       </c>
-      <c r="T10" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="V10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -936,64 +962,72 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>7400</v>
+        <v>5100</v>
       </c>
       <c r="E12" s="3">
-        <v>7200</v>
+        <v>6100</v>
       </c>
       <c r="F12" s="3">
-        <v>5100</v>
+        <v>7100</v>
       </c>
       <c r="G12" s="3">
-        <v>13900</v>
+        <v>7000</v>
       </c>
       <c r="H12" s="3">
-        <v>22700</v>
+        <v>4900</v>
       </c>
       <c r="I12" s="3">
+        <v>13400</v>
+      </c>
+      <c r="J12" s="3">
+        <v>22000</v>
+      </c>
+      <c r="K12" s="3">
         <v>28600</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>32600</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>30100</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>26700</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>22400</v>
-      </c>
-      <c r="N12" s="3">
-        <v>20100</v>
-      </c>
-      <c r="O12" s="3">
-        <v>20800</v>
       </c>
       <c r="P12" s="3">
         <v>20100</v>
       </c>
       <c r="Q12" s="3">
+        <v>20800</v>
+      </c>
+      <c r="R12" s="3">
+        <v>20100</v>
+      </c>
+      <c r="S12" s="3">
         <v>19100</v>
       </c>
-      <c r="R12" s="3">
+      <c r="T12" s="3">
         <v>18500</v>
       </c>
-      <c r="S12" s="3">
+      <c r="U12" s="3">
         <v>18100</v>
       </c>
-      <c r="T12" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,38 +1082,44 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>3</v>
+      <c r="G14" s="3">
+        <v>0</v>
       </c>
       <c r="H14" s="3">
-        <v>4800</v>
-      </c>
-      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J14" s="3">
+        <v>4600</v>
+      </c>
+      <c r="K14" s="3">
         <v>4400</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>8100</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1092,11 +1132,11 @@
       <c r="P14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
-      <c r="R14" s="3">
-        <v>0</v>
+      <c r="Q14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S14" s="3">
         <v>0</v>
@@ -1104,8 +1144,14 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1160,8 +1206,14 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,120 +1231,134 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>22700</v>
+        <v>17500</v>
       </c>
       <c r="E17" s="3">
-        <v>21600</v>
+        <v>15600</v>
       </c>
       <c r="F17" s="3">
-        <v>23800</v>
+        <v>22000</v>
       </c>
       <c r="G17" s="3">
-        <v>37300</v>
+        <v>21000</v>
       </c>
       <c r="H17" s="3">
-        <v>81200</v>
+        <v>23100</v>
       </c>
       <c r="I17" s="3">
+        <v>36200</v>
+      </c>
+      <c r="J17" s="3">
+        <v>78700</v>
+      </c>
+      <c r="K17" s="3">
         <v>141500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>135100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>163800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>118300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>128500</v>
       </c>
-      <c r="N17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P17" s="3">
+      <c r="P17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R17" s="3">
         <v>58500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>65900</v>
       </c>
-      <c r="R17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-17100</v>
+        <v>-8000</v>
       </c>
       <c r="E18" s="3">
-        <v>-3900</v>
+        <v>-14300</v>
       </c>
       <c r="F18" s="3">
-        <v>-4800</v>
+        <v>-16600</v>
       </c>
       <c r="G18" s="3">
-        <v>-4100</v>
+        <v>-3800</v>
       </c>
       <c r="H18" s="3">
-        <v>-4100</v>
+        <v>-4700</v>
       </c>
       <c r="I18" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="J18" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="K18" s="3">
         <v>-70800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-39800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-95700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-50500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-83700</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P18" s="3">
+      <c r="P18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R18" s="3">
         <v>-28400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-49600</v>
       </c>
-      <c r="R18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,64 +1379,72 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E20" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F20" s="3">
         <v>2400</v>
-      </c>
-      <c r="E20" s="3">
-        <v>600</v>
-      </c>
-      <c r="F20" s="3">
-        <v>1100</v>
       </c>
       <c r="G20" s="3">
         <v>600</v>
       </c>
       <c r="H20" s="3">
+        <v>1100</v>
+      </c>
+      <c r="I20" s="3">
+        <v>600</v>
+      </c>
+      <c r="J20" s="3">
         <v>500</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>1200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>1800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>1000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-1100</v>
       </c>
-      <c r="N20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P20" s="3">
+      <c r="P20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R20" s="3">
         <v>600</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>2200</v>
       </c>
-      <c r="R20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1398,35 +1472,41 @@
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L21" s="3">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N21" s="3">
         <v>-45300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-80700</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P21" s="3">
+      <c r="P21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R21" s="3">
         <v>-24300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>-44800</v>
       </c>
-      <c r="R21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1442,103 +1522,115 @@
       <c r="G22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H22" s="3">
-        <v>0</v>
+      <c r="H22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J22" s="3" t="s">
-        <v>3</v>
+      <c r="J22" s="3">
+        <v>0</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L22" s="3">
-        <v>0</v>
-      </c>
-      <c r="M22" s="3">
-        <v>0</v>
+      <c r="L22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3">
         <v>300</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>200</v>
       </c>
-      <c r="P22" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+      <c r="S22" s="3">
         <v>100</v>
       </c>
-      <c r="R22" s="3">
-        <v>0</v>
-      </c>
-      <c r="S22" s="3">
-        <v>0</v>
-      </c>
-      <c r="T22" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+      <c r="V22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-14700</v>
+        <v>-6600</v>
       </c>
       <c r="E23" s="3">
-        <v>-3300</v>
+        <v>-12700</v>
       </c>
       <c r="F23" s="3">
-        <v>-3800</v>
+        <v>-14200</v>
       </c>
       <c r="G23" s="3">
-        <v>-3500</v>
+        <v>-3200</v>
       </c>
       <c r="H23" s="3">
         <v>-3600</v>
       </c>
       <c r="I23" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="J23" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="K23" s="3">
         <v>-69600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-37900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-94700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-50800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-84800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-25000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-35100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-27800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-47500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-36100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-37100</v>
       </c>
-      <c r="T23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="V23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1593,8 +1685,14 @@
       <c r="T24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,120 +1747,138 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-14700</v>
+        <v>-6600</v>
       </c>
       <c r="E26" s="3">
-        <v>-3300</v>
+        <v>-12700</v>
       </c>
       <c r="F26" s="3">
-        <v>-3800</v>
+        <v>-14200</v>
       </c>
       <c r="G26" s="3">
-        <v>-3500</v>
+        <v>-3200</v>
       </c>
       <c r="H26" s="3">
         <v>-3600</v>
       </c>
       <c r="I26" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="J26" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="K26" s="3">
         <v>-69600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-37900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-94700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-50800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-84800</v>
       </c>
-      <c r="N26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P26" s="3">
+      <c r="P26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R26" s="3">
         <v>-27800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-47500</v>
       </c>
-      <c r="R26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-14700</v>
+        <v>-6600</v>
       </c>
       <c r="E27" s="3">
-        <v>-3300</v>
+        <v>-12700</v>
       </c>
       <c r="F27" s="3">
-        <v>-3800</v>
+        <v>-14200</v>
       </c>
       <c r="G27" s="3">
-        <v>-3500</v>
+        <v>-3200</v>
       </c>
       <c r="H27" s="3">
         <v>-3600</v>
       </c>
       <c r="I27" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="J27" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="K27" s="3">
         <v>-69600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-37900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-94700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>76900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-549700</v>
       </c>
-      <c r="N27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P27" s="3">
+      <c r="P27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R27" s="3">
         <v>-52400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-71100</v>
       </c>
-      <c r="R27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1933,14 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1873,8 +1995,14 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +2057,14 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,120 +2119,138 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="F32" s="3">
         <v>-2400</v>
-      </c>
-      <c r="E32" s="3">
-        <v>-600</v>
-      </c>
-      <c r="F32" s="3">
-        <v>-1100</v>
       </c>
       <c r="G32" s="3">
         <v>-600</v>
       </c>
       <c r="H32" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="I32" s="3">
+        <v>-600</v>
+      </c>
+      <c r="J32" s="3">
         <v>-500</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-1200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-1800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-1000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>1100</v>
       </c>
-      <c r="N32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P32" s="3">
+      <c r="P32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R32" s="3">
         <v>-600</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>-2200</v>
       </c>
-      <c r="R32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-14700</v>
+        <v>-6600</v>
       </c>
       <c r="E33" s="3">
-        <v>-3300</v>
+        <v>-12700</v>
       </c>
       <c r="F33" s="3">
-        <v>-3800</v>
+        <v>-14200</v>
       </c>
       <c r="G33" s="3">
-        <v>-3500</v>
+        <v>-3200</v>
       </c>
       <c r="H33" s="3">
         <v>-3600</v>
       </c>
       <c r="I33" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="J33" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="K33" s="3">
         <v>-69600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-37900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-94700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>76900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-549700</v>
       </c>
-      <c r="N33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P33" s="3">
+      <c r="P33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R33" s="3">
         <v>-52400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-71100</v>
       </c>
-      <c r="R33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,125 +2305,143 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-14700</v>
+        <v>-6600</v>
       </c>
       <c r="E35" s="3">
-        <v>-3300</v>
+        <v>-12700</v>
       </c>
       <c r="F35" s="3">
-        <v>-3800</v>
+        <v>-14200</v>
       </c>
       <c r="G35" s="3">
-        <v>-3500</v>
+        <v>-3200</v>
       </c>
       <c r="H35" s="3">
         <v>-3600</v>
       </c>
       <c r="I35" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="J35" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="K35" s="3">
         <v>-69600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-37900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-94700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>76900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-549700</v>
       </c>
-      <c r="N35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P35" s="3">
+      <c r="P35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R35" s="3">
         <v>-52400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-71100</v>
       </c>
-      <c r="R35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="T38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="V38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2462,10 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,50 +2486,52 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>100600</v>
+        <v>35800</v>
       </c>
       <c r="E41" s="3">
-        <v>121000</v>
+        <v>57600</v>
       </c>
       <c r="F41" s="3">
-        <v>127000</v>
+        <v>97500</v>
       </c>
       <c r="G41" s="3">
-        <v>115600</v>
+        <v>117200</v>
       </c>
       <c r="H41" s="3">
-        <v>167900</v>
+        <v>123100</v>
       </c>
       <c r="I41" s="3">
+        <v>112100</v>
+      </c>
+      <c r="J41" s="3">
+        <v>162700</v>
+      </c>
+      <c r="K41" s="3">
         <v>202200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>307000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>321800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>394600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>118900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>184900</v>
       </c>
-      <c r="O41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2370,19 +2544,25 @@
       <c r="T41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>2800</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>3</v>
+        <v>1000</v>
+      </c>
+      <c r="E42" s="3">
+        <v>27700</v>
+      </c>
+      <c r="F42" s="3">
+        <v>2700</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>3</v>
@@ -2396,11 +2576,11 @@
       <c r="J42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K42" s="3">
-        <v>0</v>
-      </c>
-      <c r="L42" s="3">
-        <v>0</v>
+      <c r="K42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M42" s="3">
         <v>0</v>
@@ -2426,25 +2606,31 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>5000</v>
+        <v>8100</v>
       </c>
       <c r="E43" s="3">
-        <v>4500</v>
+        <v>4600</v>
       </c>
       <c r="F43" s="3">
-        <v>8700</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>3</v>
+        <v>4800</v>
+      </c>
+      <c r="G43" s="3">
+        <v>4400</v>
+      </c>
+      <c r="H43" s="3">
+        <v>8500</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>3</v>
@@ -2455,21 +2641,21 @@
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L43" s="3">
+      <c r="L43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N43" s="3">
         <v>1000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>1800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>3900</v>
       </c>
-      <c r="O43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2482,8 +2668,14 @@
       <c r="T43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2538,50 +2730,56 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>21500</v>
+        <v>63500</v>
       </c>
       <c r="E45" s="3">
-        <v>17100</v>
+        <v>25000</v>
       </c>
       <c r="F45" s="3">
-        <v>18500</v>
+        <v>20800</v>
       </c>
       <c r="G45" s="3">
-        <v>20500</v>
+        <v>16600</v>
       </c>
       <c r="H45" s="3">
-        <v>23000</v>
+        <v>18000</v>
       </c>
       <c r="I45" s="3">
+        <v>19800</v>
+      </c>
+      <c r="J45" s="3">
+        <v>22300</v>
+      </c>
+      <c r="K45" s="3">
         <v>21900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>26400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>26700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>28400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>23700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>15900</v>
       </c>
-      <c r="O45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2594,50 +2792,56 @@
       <c r="T45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>129800</v>
+        <v>108400</v>
       </c>
       <c r="E46" s="3">
-        <v>142600</v>
+        <v>114900</v>
       </c>
       <c r="F46" s="3">
-        <v>154300</v>
+        <v>125800</v>
       </c>
       <c r="G46" s="3">
-        <v>136100</v>
+        <v>138200</v>
       </c>
       <c r="H46" s="3">
-        <v>190900</v>
+        <v>149600</v>
       </c>
       <c r="I46" s="3">
+        <v>131900</v>
+      </c>
+      <c r="J46" s="3">
+        <v>185000</v>
+      </c>
+      <c r="K46" s="3">
         <v>224100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>333400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>348500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>424100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>144500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>204700</v>
       </c>
-      <c r="O46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2650,31 +2854,37 @@
       <c r="T46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="E47" s="3">
-        <v>0</v>
-      </c>
-      <c r="F47" s="3">
-        <v>0</v>
-      </c>
-      <c r="G47" s="3">
-        <v>0</v>
-      </c>
-      <c r="H47" s="3">
-        <v>0</v>
-      </c>
-      <c r="I47" s="3">
-        <v>0</v>
-      </c>
-      <c r="J47" s="3">
-        <v>0</v>
+        <v>700</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K47" s="3">
         <v>0</v>
@@ -2706,50 +2916,56 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>8900</v>
+        <v>6300</v>
       </c>
       <c r="E48" s="3">
-        <v>10200</v>
+        <v>7300</v>
       </c>
       <c r="F48" s="3">
-        <v>14500</v>
+        <v>8600</v>
       </c>
       <c r="G48" s="3">
-        <v>23500</v>
+        <v>9900</v>
       </c>
       <c r="H48" s="3">
-        <v>31800</v>
+        <v>14000</v>
       </c>
       <c r="I48" s="3">
+        <v>22800</v>
+      </c>
+      <c r="J48" s="3">
+        <v>30800</v>
+      </c>
+      <c r="K48" s="3">
         <v>48400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>60900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>56400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>42500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>34700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>24500</v>
       </c>
-      <c r="O48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2762,8 +2978,14 @@
       <c r="T48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2818,8 +3040,14 @@
       <c r="T49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +3102,14 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,50 +3164,56 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>600</v>
+      </c>
+      <c r="E52" s="3">
+        <v>600</v>
+      </c>
+      <c r="F52" s="3">
         <v>700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>1100</v>
       </c>
-      <c r="F52" s="3">
-        <v>1400</v>
-      </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
+        <v>1300</v>
+      </c>
+      <c r="I52" s="3">
+        <v>1700</v>
+      </c>
+      <c r="J52" s="3">
+        <v>1900</v>
+      </c>
+      <c r="K52" s="3">
         <v>1800</v>
-      </c>
-      <c r="H52" s="3">
-        <v>2000</v>
-      </c>
-      <c r="I52" s="3">
-        <v>1800</v>
-      </c>
-      <c r="J52" s="3">
-        <v>5300</v>
-      </c>
-      <c r="K52" s="3">
-        <v>5200</v>
       </c>
       <c r="L52" s="3">
         <v>5300</v>
       </c>
       <c r="M52" s="3">
+        <v>5200</v>
+      </c>
+      <c r="N52" s="3">
+        <v>5300</v>
+      </c>
+      <c r="O52" s="3">
         <v>3300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>3900</v>
       </c>
-      <c r="O52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2986,8 +3226,14 @@
       <c r="T52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,50 +3288,56 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>139400</v>
+        <v>116000</v>
       </c>
       <c r="E54" s="3">
-        <v>153900</v>
+        <v>123500</v>
       </c>
       <c r="F54" s="3">
-        <v>170100</v>
+        <v>135100</v>
       </c>
       <c r="G54" s="3">
-        <v>161400</v>
+        <v>149100</v>
       </c>
       <c r="H54" s="3">
-        <v>224700</v>
+        <v>164900</v>
       </c>
       <c r="I54" s="3">
+        <v>156400</v>
+      </c>
+      <c r="J54" s="3">
+        <v>217800</v>
+      </c>
+      <c r="K54" s="3">
         <v>274300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>399600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>410100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>471900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>182400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>233100</v>
       </c>
-      <c r="O54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3098,8 +3350,14 @@
       <c r="T54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3378,10 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,8 +3402,10 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3198,8 +3460,14 @@
       <c r="T57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3">
+        <v>0</v>
+      </c>
+      <c r="V57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3231,17 +3499,17 @@
         <v>0</v>
       </c>
       <c r="M58" s="3">
+        <v>0</v>
+      </c>
+      <c r="N58" s="3">
+        <v>0</v>
+      </c>
+      <c r="O58" s="3">
         <v>2600</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>12500</v>
       </c>
-      <c r="O58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q58" s="3" t="s">
         <v>3</v>
       </c>
@@ -3254,50 +3522,56 @@
       <c r="T58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>30400</v>
+        <v>25500</v>
       </c>
       <c r="E59" s="3">
-        <v>30300</v>
+        <v>27200</v>
       </c>
       <c r="F59" s="3">
-        <v>48500</v>
+        <v>29500</v>
       </c>
       <c r="G59" s="3">
-        <v>42000</v>
+        <v>29400</v>
       </c>
       <c r="H59" s="3">
-        <v>97100</v>
+        <v>47000</v>
       </c>
       <c r="I59" s="3">
+        <v>40700</v>
+      </c>
+      <c r="J59" s="3">
+        <v>94100</v>
+      </c>
+      <c r="K59" s="3">
         <v>144300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>197300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>176400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>167800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>140400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>106400</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3310,50 +3584,56 @@
       <c r="T59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>30400</v>
+        <v>25500</v>
       </c>
       <c r="E60" s="3">
-        <v>30300</v>
+        <v>27200</v>
       </c>
       <c r="F60" s="3">
-        <v>48500</v>
+        <v>29500</v>
       </c>
       <c r="G60" s="3">
-        <v>42000</v>
+        <v>29400</v>
       </c>
       <c r="H60" s="3">
-        <v>97100</v>
+        <v>47000</v>
       </c>
       <c r="I60" s="3">
+        <v>40700</v>
+      </c>
+      <c r="J60" s="3">
+        <v>94100</v>
+      </c>
+      <c r="K60" s="3">
         <v>144300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>197300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>176400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>167800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>143000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>119000</v>
       </c>
-      <c r="O60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3366,8 +3646,14 @@
       <c r="T60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3422,50 +3708,56 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1100</v>
+        <v>700</v>
       </c>
       <c r="E62" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F62" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G62" s="3">
         <v>1700</v>
       </c>
-      <c r="F62" s="3">
-        <v>3100</v>
-      </c>
-      <c r="G62" s="3">
-        <v>7000</v>
-      </c>
       <c r="H62" s="3">
-        <v>14300</v>
+        <v>3000</v>
       </c>
       <c r="I62" s="3">
+        <v>6800</v>
+      </c>
+      <c r="J62" s="3">
+        <v>13800</v>
+      </c>
+      <c r="K62" s="3">
         <v>17900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>26500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>22000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>16700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>12100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>5200</v>
       </c>
-      <c r="O62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3478,8 +3770,14 @@
       <c r="T62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3832,14 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3894,14 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,50 +3956,56 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>31500</v>
+        <v>26100</v>
       </c>
       <c r="E66" s="3">
-        <v>32000</v>
+        <v>28200</v>
       </c>
       <c r="F66" s="3">
-        <v>51700</v>
+        <v>30500</v>
       </c>
       <c r="G66" s="3">
-        <v>49000</v>
+        <v>31000</v>
       </c>
       <c r="H66" s="3">
-        <v>111400</v>
+        <v>50100</v>
       </c>
       <c r="I66" s="3">
+        <v>47500</v>
+      </c>
+      <c r="J66" s="3">
+        <v>107900</v>
+      </c>
+      <c r="K66" s="3">
         <v>162300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>223800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>198300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>184500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>155100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>124100</v>
       </c>
-      <c r="O66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3702,8 +4018,14 @@
       <c r="T66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +4046,10 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +4104,14 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4166,14 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3869,17 +4205,17 @@
         <v>0</v>
       </c>
       <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3">
         <v>1363200</v>
       </c>
-      <c r="N70" s="3">
+      <c r="P70" s="3">
         <v>906500</v>
       </c>
-      <c r="O70" s="3">
-        <v>0</v>
-      </c>
-      <c r="P70" s="3">
-        <v>0</v>
-      </c>
       <c r="Q70" s="3">
         <v>0</v>
       </c>
@@ -3892,8 +4228,14 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,50 +4290,56 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-1458300</v>
+        <v>-1432800</v>
       </c>
       <c r="E72" s="3">
-        <v>-1443700</v>
+        <v>-1426200</v>
       </c>
       <c r="F72" s="3">
-        <v>-1440300</v>
+        <v>-1413500</v>
       </c>
       <c r="G72" s="3">
-        <v>-1436500</v>
+        <v>-1399300</v>
       </c>
       <c r="H72" s="3">
-        <v>-1433000</v>
+        <v>-1396000</v>
       </c>
       <c r="I72" s="3">
+        <v>-1392400</v>
+      </c>
+      <c r="J72" s="3">
+        <v>-1389000</v>
+      </c>
+      <c r="K72" s="3">
         <v>-1429400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-1359800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-1335500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-1202600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-1345000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-811000</v>
       </c>
-      <c r="O72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4004,8 +4352,14 @@
       <c r="T72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4414,14 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4476,14 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,50 +4538,56 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>107900</v>
+        <v>89800</v>
       </c>
       <c r="E76" s="3">
-        <v>121800</v>
+        <v>95400</v>
       </c>
       <c r="F76" s="3">
-        <v>118500</v>
+        <v>104600</v>
       </c>
       <c r="G76" s="3">
-        <v>112400</v>
+        <v>118100</v>
       </c>
       <c r="H76" s="3">
-        <v>113300</v>
+        <v>114800</v>
       </c>
       <c r="I76" s="3">
+        <v>108900</v>
+      </c>
+      <c r="J76" s="3">
+        <v>109800</v>
+      </c>
+      <c r="K76" s="3">
         <v>112100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>175800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>211800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>287300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-1335900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-797600</v>
       </c>
-      <c r="O76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4228,8 +4600,14 @@
       <c r="T76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,125 +4662,143 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="T80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="V80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-14700</v>
+        <v>-6600</v>
       </c>
       <c r="E81" s="3">
-        <v>-3300</v>
+        <v>-12700</v>
       </c>
       <c r="F81" s="3">
-        <v>-3800</v>
+        <v>-14200</v>
       </c>
       <c r="G81" s="3">
-        <v>-3500</v>
+        <v>-3200</v>
       </c>
       <c r="H81" s="3">
         <v>-3600</v>
       </c>
       <c r="I81" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="J81" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="K81" s="3">
         <v>-69600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-37900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-94700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>76900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-549700</v>
       </c>
-      <c r="N81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P81" s="3">
+      <c r="P81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R81" s="3">
         <v>-52400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-71100</v>
       </c>
-      <c r="R81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,8 +4819,10 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4455,11 +4853,11 @@
       <c r="L83" s="3">
         <v>0</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N83" s="3" t="s">
-        <v>3</v>
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+      <c r="N83" s="3">
+        <v>0</v>
       </c>
       <c r="O83" s="3" t="s">
         <v>3</v>
@@ -4479,8 +4877,14 @@
       <c r="T83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4939,14 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +5001,14 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +5063,14 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +5125,14 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,8 +5187,14 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4791,11 +5225,11 @@
       <c r="L89" s="3">
         <v>0</v>
       </c>
-      <c r="M89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N89" s="3" t="s">
-        <v>3</v>
+      <c r="M89" s="3">
+        <v>0</v>
+      </c>
+      <c r="N89" s="3">
+        <v>0</v>
       </c>
       <c r="O89" s="3" t="s">
         <v>3</v>
@@ -4815,8 +5249,14 @@
       <c r="T89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,8 +5277,10 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4869,11 +5311,11 @@
       <c r="L91" s="3">
         <v>0</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N91" s="3" t="s">
-        <v>3</v>
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
+        <v>0</v>
       </c>
       <c r="O91" s="3" t="s">
         <v>3</v>
@@ -4893,8 +5335,14 @@
       <c r="T91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5397,14 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,8 +5459,14 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5037,11 +5497,11 @@
       <c r="L94" s="3">
         <v>0</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N94" s="3" t="s">
-        <v>3</v>
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
+        <v>0</v>
       </c>
       <c r="O94" s="3" t="s">
         <v>3</v>
@@ -5061,8 +5521,14 @@
       <c r="T94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5549,10 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +5607,14 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5669,14 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5731,14 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,8 +5793,14 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5339,11 +5831,11 @@
       <c r="L100" s="3">
         <v>0</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N100" s="3" t="s">
-        <v>3</v>
+      <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
+        <v>0</v>
       </c>
       <c r="O100" s="3" t="s">
         <v>3</v>
@@ -5363,8 +5855,14 @@
       <c r="T100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5395,11 +5893,11 @@
       <c r="L101" s="3">
         <v>0</v>
       </c>
-      <c r="M101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N101" s="3" t="s">
-        <v>3</v>
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
+        <v>0</v>
       </c>
       <c r="O101" s="3" t="s">
         <v>3</v>
@@ -5419,8 +5917,14 @@
       <c r="T101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5451,11 +5955,11 @@
       <c r="L102" s="3">
         <v>0</v>
       </c>
-      <c r="M102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N102" s="3" t="s">
-        <v>3</v>
+      <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
+        <v>0</v>
       </c>
       <c r="O102" s="3" t="s">
         <v>3</v>
@@ -5473,6 +5977,12 @@
         <v>3</v>
       </c>
       <c r="T102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/YQ_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/YQ_QTR_FIN.xlsx
@@ -760,7 +760,7 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>9500</v>
+        <v>9600</v>
       </c>
       <c r="E8" s="3">
         <v>1300</v>
@@ -778,7 +778,7 @@
         <v>32200</v>
       </c>
       <c r="J8" s="3">
-        <v>74700</v>
+        <v>74900</v>
       </c>
       <c r="K8" s="3">
         <v>70600</v>
@@ -837,10 +837,10 @@
         <v>8800</v>
       </c>
       <c r="I9" s="3">
-        <v>12600</v>
+        <v>12700</v>
       </c>
       <c r="J9" s="3">
-        <v>26300</v>
+        <v>26400</v>
       </c>
       <c r="K9" s="3">
         <v>35700</v>
@@ -890,7 +890,7 @@
         <v>300</v>
       </c>
       <c r="F10" s="3">
-        <v>2800</v>
+        <v>2900</v>
       </c>
       <c r="G10" s="3">
         <v>12800</v>
@@ -899,10 +899,10 @@
         <v>9600</v>
       </c>
       <c r="I10" s="3">
-        <v>19500</v>
+        <v>19600</v>
       </c>
       <c r="J10" s="3">
-        <v>48400</v>
+        <v>48500</v>
       </c>
       <c r="K10" s="3">
         <v>34900</v>
@@ -976,7 +976,7 @@
         <v>6100</v>
       </c>
       <c r="F12" s="3">
-        <v>7100</v>
+        <v>7200</v>
       </c>
       <c r="G12" s="3">
         <v>7000</v>
@@ -985,7 +985,7 @@
         <v>4900</v>
       </c>
       <c r="I12" s="3">
-        <v>13400</v>
+        <v>13500</v>
       </c>
       <c r="J12" s="3">
         <v>22000</v>
@@ -1245,7 +1245,7 @@
         <v>15600</v>
       </c>
       <c r="F17" s="3">
-        <v>22000</v>
+        <v>22100</v>
       </c>
       <c r="G17" s="3">
         <v>21000</v>
@@ -1254,10 +1254,10 @@
         <v>23100</v>
       </c>
       <c r="I17" s="3">
-        <v>36200</v>
+        <v>36300</v>
       </c>
       <c r="J17" s="3">
-        <v>78700</v>
+        <v>78900</v>
       </c>
       <c r="K17" s="3">
         <v>141500</v>
@@ -1304,7 +1304,7 @@
         <v>-8000</v>
       </c>
       <c r="E18" s="3">
-        <v>-14300</v>
+        <v>-14400</v>
       </c>
       <c r="F18" s="3">
         <v>-16600</v>
@@ -1576,7 +1576,7 @@
         <v>-6600</v>
       </c>
       <c r="E23" s="3">
-        <v>-12700</v>
+        <v>-12800</v>
       </c>
       <c r="F23" s="3">
         <v>-14200</v>
@@ -1762,7 +1762,7 @@
         <v>-6600</v>
       </c>
       <c r="E26" s="3">
-        <v>-12700</v>
+        <v>-12800</v>
       </c>
       <c r="F26" s="3">
         <v>-14200</v>
@@ -1824,7 +1824,7 @@
         <v>-6600</v>
       </c>
       <c r="E27" s="3">
-        <v>-12700</v>
+        <v>-12800</v>
       </c>
       <c r="F27" s="3">
         <v>-14200</v>
@@ -2196,7 +2196,7 @@
         <v>-6600</v>
       </c>
       <c r="E33" s="3">
-        <v>-12700</v>
+        <v>-12800</v>
       </c>
       <c r="F33" s="3">
         <v>-14200</v>
@@ -2320,7 +2320,7 @@
         <v>-6600</v>
       </c>
       <c r="E35" s="3">
-        <v>-12700</v>
+        <v>-12800</v>
       </c>
       <c r="F35" s="3">
         <v>-14200</v>
@@ -2494,25 +2494,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>35800</v>
+        <v>35900</v>
       </c>
       <c r="E41" s="3">
-        <v>57600</v>
+        <v>57800</v>
       </c>
       <c r="F41" s="3">
-        <v>97500</v>
+        <v>97700</v>
       </c>
       <c r="G41" s="3">
-        <v>117200</v>
+        <v>117500</v>
       </c>
       <c r="H41" s="3">
-        <v>123100</v>
+        <v>123400</v>
       </c>
       <c r="I41" s="3">
-        <v>112100</v>
+        <v>112300</v>
       </c>
       <c r="J41" s="3">
-        <v>162700</v>
+        <v>163100</v>
       </c>
       <c r="K41" s="3">
         <v>202200</v>
@@ -2742,13 +2742,13 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>63500</v>
+        <v>63700</v>
       </c>
       <c r="E45" s="3">
         <v>25000</v>
       </c>
       <c r="F45" s="3">
-        <v>20800</v>
+        <v>20900</v>
       </c>
       <c r="G45" s="3">
         <v>16600</v>
@@ -2757,7 +2757,7 @@
         <v>18000</v>
       </c>
       <c r="I45" s="3">
-        <v>19800</v>
+        <v>19900</v>
       </c>
       <c r="J45" s="3">
         <v>22300</v>
@@ -2804,25 +2804,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>108400</v>
+        <v>108700</v>
       </c>
       <c r="E46" s="3">
-        <v>114900</v>
+        <v>115100</v>
       </c>
       <c r="F46" s="3">
-        <v>125800</v>
+        <v>126100</v>
       </c>
       <c r="G46" s="3">
-        <v>138200</v>
+        <v>138500</v>
       </c>
       <c r="H46" s="3">
-        <v>149600</v>
+        <v>149900</v>
       </c>
       <c r="I46" s="3">
-        <v>131900</v>
+        <v>132200</v>
       </c>
       <c r="J46" s="3">
-        <v>185000</v>
+        <v>185400</v>
       </c>
       <c r="K46" s="3">
         <v>224100</v>
@@ -2931,7 +2931,7 @@
         <v>6300</v>
       </c>
       <c r="E48" s="3">
-        <v>7300</v>
+        <v>7400</v>
       </c>
       <c r="F48" s="3">
         <v>8600</v>
@@ -2940,13 +2940,13 @@
         <v>9900</v>
       </c>
       <c r="H48" s="3">
-        <v>14000</v>
+        <v>14100</v>
       </c>
       <c r="I48" s="3">
-        <v>22800</v>
+        <v>22900</v>
       </c>
       <c r="J48" s="3">
-        <v>30800</v>
+        <v>30900</v>
       </c>
       <c r="K48" s="3">
         <v>48400</v>
@@ -3300,25 +3300,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>116000</v>
+        <v>116200</v>
       </c>
       <c r="E54" s="3">
-        <v>123500</v>
+        <v>123800</v>
       </c>
       <c r="F54" s="3">
-        <v>135100</v>
+        <v>135400</v>
       </c>
       <c r="G54" s="3">
-        <v>149100</v>
+        <v>149500</v>
       </c>
       <c r="H54" s="3">
-        <v>164900</v>
+        <v>165300</v>
       </c>
       <c r="I54" s="3">
-        <v>156400</v>
+        <v>156700</v>
       </c>
       <c r="J54" s="3">
-        <v>217800</v>
+        <v>218200</v>
       </c>
       <c r="K54" s="3">
         <v>274300</v>
@@ -3540,19 +3540,19 @@
         <v>27200</v>
       </c>
       <c r="F59" s="3">
-        <v>29500</v>
+        <v>29600</v>
       </c>
       <c r="G59" s="3">
         <v>29400</v>
       </c>
       <c r="H59" s="3">
-        <v>47000</v>
+        <v>47100</v>
       </c>
       <c r="I59" s="3">
-        <v>40700</v>
+        <v>40800</v>
       </c>
       <c r="J59" s="3">
-        <v>94100</v>
+        <v>94300</v>
       </c>
       <c r="K59" s="3">
         <v>144300</v>
@@ -3602,19 +3602,19 @@
         <v>27200</v>
       </c>
       <c r="F60" s="3">
-        <v>29500</v>
+        <v>29600</v>
       </c>
       <c r="G60" s="3">
         <v>29400</v>
       </c>
       <c r="H60" s="3">
-        <v>47000</v>
+        <v>47100</v>
       </c>
       <c r="I60" s="3">
-        <v>40700</v>
+        <v>40800</v>
       </c>
       <c r="J60" s="3">
-        <v>94100</v>
+        <v>94300</v>
       </c>
       <c r="K60" s="3">
         <v>144300</v>
@@ -3732,13 +3732,13 @@
         <v>1700</v>
       </c>
       <c r="H62" s="3">
-        <v>3000</v>
+        <v>3100</v>
       </c>
       <c r="I62" s="3">
         <v>6800</v>
       </c>
       <c r="J62" s="3">
-        <v>13800</v>
+        <v>13900</v>
       </c>
       <c r="K62" s="3">
         <v>17900</v>
@@ -3968,25 +3968,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>26100</v>
+        <v>26200</v>
       </c>
       <c r="E66" s="3">
         <v>28200</v>
       </c>
       <c r="F66" s="3">
-        <v>30500</v>
+        <v>30600</v>
       </c>
       <c r="G66" s="3">
-        <v>31000</v>
+        <v>31100</v>
       </c>
       <c r="H66" s="3">
-        <v>50100</v>
+        <v>50200</v>
       </c>
       <c r="I66" s="3">
-        <v>47500</v>
+        <v>47600</v>
       </c>
       <c r="J66" s="3">
-        <v>107900</v>
+        <v>108200</v>
       </c>
       <c r="K66" s="3">
         <v>162300</v>
@@ -4302,25 +4302,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-1432800</v>
+        <v>-1436000</v>
       </c>
       <c r="E72" s="3">
-        <v>-1426200</v>
+        <v>-1429300</v>
       </c>
       <c r="F72" s="3">
-        <v>-1413500</v>
+        <v>-1416600</v>
       </c>
       <c r="G72" s="3">
-        <v>-1399300</v>
+        <v>-1402300</v>
       </c>
       <c r="H72" s="3">
-        <v>-1396000</v>
+        <v>-1399100</v>
       </c>
       <c r="I72" s="3">
-        <v>-1392400</v>
+        <v>-1395400</v>
       </c>
       <c r="J72" s="3">
-        <v>-1389000</v>
+        <v>-1392000</v>
       </c>
       <c r="K72" s="3">
         <v>-1429400</v>
@@ -4550,25 +4550,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>89800</v>
+        <v>90000</v>
       </c>
       <c r="E76" s="3">
-        <v>95400</v>
+        <v>95600</v>
       </c>
       <c r="F76" s="3">
-        <v>104600</v>
+        <v>104800</v>
       </c>
       <c r="G76" s="3">
-        <v>118100</v>
+        <v>118400</v>
       </c>
       <c r="H76" s="3">
-        <v>114800</v>
+        <v>115100</v>
       </c>
       <c r="I76" s="3">
-        <v>108900</v>
+        <v>109200</v>
       </c>
       <c r="J76" s="3">
-        <v>109800</v>
+        <v>110100</v>
       </c>
       <c r="K76" s="3">
         <v>112100</v>
@@ -4744,7 +4744,7 @@
         <v>-6600</v>
       </c>
       <c r="E81" s="3">
-        <v>-12700</v>
+        <v>-12800</v>
       </c>
       <c r="F81" s="3">
         <v>-14200</v>
